--- a/log/c620_wt_log.xlsx
+++ b/log/c620_wt_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
   <si>
     <t>Tatoray Stripper C620 Operation_Vent Gas Production Rate and Composition_Hydrogen_wt%</t>
   </si>
@@ -509,6 +509,9 @@
   </si>
   <si>
     <t>test001</t>
+  </si>
+  <si>
+    <t>98</t>
   </si>
 </sst>
 </file>
@@ -866,7 +869,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:FI2"/>
+  <dimension ref="A1:FI3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1863,6 +1866,503 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:165">
+      <c r="A3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1.657527267392347</v>
+      </c>
+      <c r="D3">
+        <v>39.6490500274162</v>
+      </c>
+      <c r="E3">
+        <v>35.77153514454213</v>
+      </c>
+      <c r="F3">
+        <v>10.10125706798305</v>
+      </c>
+      <c r="G3">
+        <v>4.375345198694648</v>
+      </c>
+      <c r="H3">
+        <v>0.2290048429960504</v>
+      </c>
+      <c r="I3">
+        <v>8.166092541110862</v>
+      </c>
+      <c r="J3">
+        <v>0.01175726356626681</v>
+      </c>
+      <c r="K3">
+        <v>0.003069347338170283</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.0001441934545782364</v>
+      </c>
+      <c r="N3">
+        <v>0.03520996204916202</v>
+      </c>
+      <c r="O3">
+        <v>5.802843177298805e-06</v>
+      </c>
+      <c r="P3">
+        <v>3.654197606393782e-08</v>
+      </c>
+      <c r="Q3">
+        <v>1.746054365617627e-08</v>
+      </c>
+      <c r="R3">
+        <v>1.286433259749577e-07</v>
+      </c>
+      <c r="S3">
+        <v>4.48107358227629e-07</v>
+      </c>
+      <c r="T3">
+        <v>6.800644917306867e-07</v>
+      </c>
+      <c r="U3">
+        <v>2.924634764636885e-08</v>
+      </c>
+      <c r="V3">
+        <v>4.986802838200432e-10</v>
+      </c>
+      <c r="W3">
+        <v>1.20723665757721e-12</v>
+      </c>
+      <c r="X3">
+        <v>4.872297266271829e-13</v>
+      </c>
+      <c r="Y3">
+        <v>6.764273594917685e-14</v>
+      </c>
+      <c r="Z3">
+        <v>3.197239558289637e-11</v>
+      </c>
+      <c r="AA3">
+        <v>9.999501248563232e-12</v>
+      </c>
+      <c r="AB3">
+        <v>2.061317478983112e-12</v>
+      </c>
+      <c r="AC3">
+        <v>4.223753788591087e-12</v>
+      </c>
+      <c r="AD3">
+        <v>6.082733087157516e-13</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>4.320328961659502e-15</v>
+      </c>
+      <c r="AG3">
+        <v>2.951029950547467e-16</v>
+      </c>
+      <c r="AH3">
+        <v>4.295130902011441e-19</v>
+      </c>
+      <c r="AI3">
+        <v>1.122025079410163e-17</v>
+      </c>
+      <c r="AJ3">
+        <v>2.465042477265736e-16</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>1.68059453015299e-19</v>
+      </c>
+      <c r="AM3">
+        <v>3.283759218865427e-21</v>
+      </c>
+      <c r="AN3">
+        <v>8.856757420720046e-26</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0.01498860534447909</v>
+      </c>
+      <c r="AS3">
+        <v>1.909887302547841</v>
+      </c>
+      <c r="AT3">
+        <v>5.753017343748176</v>
+      </c>
+      <c r="AU3">
+        <v>5.45534468603451</v>
+      </c>
+      <c r="AV3">
+        <v>6.072823651530418</v>
+      </c>
+      <c r="AW3">
+        <v>1.02635968008179</v>
+      </c>
+      <c r="AX3">
+        <v>78.57760088993042</v>
+      </c>
+      <c r="AY3">
+        <v>0.08569891113475374</v>
+      </c>
+      <c r="AZ3">
+        <v>0.04418828016092215</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0.002786980360250887</v>
+      </c>
+      <c r="BC3">
+        <v>1.056972958299856</v>
+      </c>
+      <c r="BD3">
+        <v>0.0002107128165518068</v>
+      </c>
+      <c r="BE3">
+        <v>1.755375472896191e-06</v>
+      </c>
+      <c r="BF3">
+        <v>8.574339452725712e-07</v>
+      </c>
+      <c r="BG3">
+        <v>1.008670209143091e-05</v>
+      </c>
+      <c r="BH3">
+        <v>3.993764468834787e-05</v>
+      </c>
+      <c r="BI3">
+        <v>6.402736362498174e-05</v>
+      </c>
+      <c r="BJ3">
+        <v>3.267500236622043e-06</v>
+      </c>
+      <c r="BK3">
+        <v>5.701717123706756e-08</v>
+      </c>
+      <c r="BL3">
+        <v>1.801244549631737e-10</v>
+      </c>
+      <c r="BM3">
+        <v>5.454059258291925e-11</v>
+      </c>
+      <c r="BN3">
+        <v>1.384766931738203e-11</v>
+      </c>
+      <c r="BO3">
+        <v>5.425749842810452e-09</v>
+      </c>
+      <c r="BP3">
+        <v>1.759676387048599e-09</v>
+      </c>
+      <c r="BQ3">
+        <v>6.219660162555479e-10</v>
+      </c>
+      <c r="BR3">
+        <v>7.040307567584741e-10</v>
+      </c>
+      <c r="BS3">
+        <v>2.106500898652572e-10</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>1.959699000687537e-12</v>
+      </c>
+      <c r="BV3">
+        <v>1.002512563628338e-13</v>
+      </c>
+      <c r="BW3">
+        <v>2.393017409807095e-16</v>
+      </c>
+      <c r="BX3">
+        <v>5.188210674466896e-15</v>
+      </c>
+      <c r="BY3">
+        <v>1.514911029393921e-13</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>2.175235423374726e-16</v>
+      </c>
+      <c r="CB3">
+        <v>5.182483850014871e-18</v>
+      </c>
+      <c r="CC3">
+        <v>3.732434169639571e-22</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0.0004021884595078256</v>
+      </c>
+      <c r="CH3">
+        <v>0.02614199524852765</v>
+      </c>
+      <c r="CI3">
+        <v>0.04862100252647753</v>
+      </c>
+      <c r="CJ3">
+        <v>0.0328057744229176</v>
+      </c>
+      <c r="CK3">
+        <v>0.04148152894666308</v>
+      </c>
+      <c r="CL3">
+        <v>0.0522720064303813</v>
+      </c>
+      <c r="CM3">
+        <v>70.08078617325388</v>
+      </c>
+      <c r="CN3">
+        <v>0.03305422067565616</v>
+      </c>
+      <c r="CO3">
+        <v>0.05472272622060333</v>
+      </c>
+      <c r="CP3">
+        <v>0</v>
+      </c>
+      <c r="CQ3">
+        <v>0.02082219750990807</v>
+      </c>
+      <c r="CR3">
+        <v>29.53031576652279</v>
+      </c>
+      <c r="CS3">
+        <v>0.004404224656799799</v>
+      </c>
+      <c r="CT3">
+        <v>0.0002733462067909544</v>
+      </c>
+      <c r="CU3">
+        <v>0.00016555348305152</v>
+      </c>
+      <c r="CV3">
+        <v>0.004723248363563727</v>
+      </c>
+      <c r="CW3">
+        <v>0.02316601846337048</v>
+      </c>
+      <c r="CX3">
+        <v>0.04158021299576874</v>
+      </c>
+      <c r="CY3">
+        <v>0.004176406849902797</v>
+      </c>
+      <c r="CZ3">
+        <v>3.12952143435091e-05</v>
+      </c>
+      <c r="DA3">
+        <v>4.982608896109891e-07</v>
+      </c>
+      <c r="DB3">
+        <v>1.432695814689547e-07</v>
+      </c>
+      <c r="DC3">
+        <v>9.380077584474647e-08</v>
+      </c>
+      <c r="DD3">
+        <v>2.530238929641602e-05</v>
+      </c>
+      <c r="DE3">
+        <v>9.488733855568664e-06</v>
+      </c>
+      <c r="DF3">
+        <v>8.677852969301144e-06</v>
+      </c>
+      <c r="DG3">
+        <v>4.212900093087955e-06</v>
+      </c>
+      <c r="DH3">
+        <v>5.539431575748184e-06</v>
+      </c>
+      <c r="DI3">
+        <v>0</v>
+      </c>
+      <c r="DJ3">
+        <v>1.311043967412817e-07</v>
+      </c>
+      <c r="DK3">
+        <v>5.345593213261705e-09</v>
+      </c>
+      <c r="DL3">
+        <v>2.709926302950409e-11</v>
+      </c>
+      <c r="DM3">
+        <v>5.668711795094734e-10</v>
+      </c>
+      <c r="DN3">
+        <v>1.960535304129741e-08</v>
+      </c>
+      <c r="DO3">
+        <v>0</v>
+      </c>
+      <c r="DP3">
+        <v>2.491583191566565e-10</v>
+      </c>
+      <c r="DQ3">
+        <v>1.154548027236963e-11</v>
+      </c>
+      <c r="DR3">
+        <v>1.259229662056323e-14</v>
+      </c>
+      <c r="DS3">
+        <v>0</v>
+      </c>
+      <c r="DT3">
+        <v>0</v>
+      </c>
+      <c r="DU3">
+        <v>0</v>
+      </c>
+      <c r="DV3">
+        <v>7.038805000860264e-07</v>
+      </c>
+      <c r="DW3">
+        <v>2.478664798358763e-05</v>
+      </c>
+      <c r="DX3">
+        <v>1.426602313204602e-05</v>
+      </c>
+      <c r="DY3">
+        <v>7.279831175940857e-24</v>
+      </c>
+      <c r="DZ3">
+        <v>2.361313542216193e-16</v>
+      </c>
+      <c r="EA3">
+        <v>1.929417168594995e-09</v>
+      </c>
+      <c r="EB3">
+        <v>0.2505651943961165</v>
+      </c>
+      <c r="EC3">
+        <v>0.0002102547009981816</v>
+      </c>
+      <c r="ED3">
+        <v>0.003963477893106595</v>
+      </c>
+      <c r="EE3">
+        <v>0</v>
+      </c>
+      <c r="EF3">
+        <v>0.01007332080009711</v>
+      </c>
+      <c r="EG3">
+        <v>42.32738705297735</v>
+      </c>
+      <c r="EH3">
+        <v>0.009437109056539062</v>
+      </c>
+      <c r="EI3">
+        <v>0.01251682868463404</v>
+      </c>
+      <c r="EJ3">
+        <v>0.01254773786003911</v>
+      </c>
+      <c r="EK3">
+        <v>1.225692718027237</v>
+      </c>
+      <c r="EL3">
+        <v>9.522659943478248</v>
+      </c>
+      <c r="EM3">
+        <v>20.79280142284236</v>
+      </c>
+      <c r="EN3">
+        <v>8.504421739366046</v>
+      </c>
+      <c r="EO3">
+        <v>0.01827080007918018</v>
+      </c>
+      <c r="EP3">
+        <v>0.007168365414228322</v>
+      </c>
+      <c r="EQ3">
+        <v>0.003455281685348967</v>
+      </c>
+      <c r="ER3">
+        <v>0.008363232153768213</v>
+      </c>
+      <c r="ES3">
+        <v>1.172043896897308</v>
+      </c>
+      <c r="ET3">
+        <v>0.6140994660946223</v>
+      </c>
+      <c r="EU3">
+        <v>3.111130247177185</v>
+      </c>
+      <c r="EV3">
+        <v>0.3452819424182411</v>
+      </c>
+      <c r="EW3">
+        <v>7.946288991303144</v>
+      </c>
+      <c r="EX3">
+        <v>0</v>
+      </c>
+      <c r="EY3">
+        <v>1.268825867480458</v>
+      </c>
+      <c r="EZ3">
+        <v>0.04181628794644499</v>
+      </c>
+      <c r="FA3">
+        <v>0.001194751328662252</v>
+      </c>
+      <c r="FB3">
+        <v>0.02747928154921169</v>
+      </c>
+      <c r="FC3">
+        <v>1.0740813606903</v>
+      </c>
+      <c r="FD3">
+        <v>0</v>
+      </c>
+      <c r="FE3">
+        <v>1.235372899240288</v>
+      </c>
+      <c r="FF3">
+        <v>0.3166091132433836</v>
+      </c>
+      <c r="FG3">
+        <v>0.1362016567344145</v>
+      </c>
+      <c r="FH3">
+        <v>0</v>
+      </c>
+      <c r="FI3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/log/c620_wt_log.xlsx
+++ b/log/c620_wt_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
   <si>
     <t>Tatoray Stripper C620 Operation_Vent Gas Production Rate and Composition_Hydrogen_wt%</t>
   </si>
@@ -508,10 +508,7 @@
     <t>Tatoray Stripper C620 Operation_Bottoms Production Rate and Composition_Oxygen_wt%</t>
   </si>
   <si>
-    <t>test001</t>
-  </si>
-  <si>
-    <t>98</t>
+    <t>20210123</t>
   </si>
 </sst>
 </file>
@@ -869,7 +866,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:FI3"/>
+  <dimension ref="A1:FI2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1377,118 +1374,118 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.637724782007736</v>
+        <v>2.714037892932784</v>
       </c>
       <c r="D2">
-        <v>39.27461500846591</v>
+        <v>53.59987252881188</v>
       </c>
       <c r="E2">
-        <v>35.69653960905244</v>
+        <v>31.85309802006885</v>
       </c>
       <c r="F2">
-        <v>10.33860257377985</v>
+        <v>4.044223124907865</v>
       </c>
       <c r="G2">
-        <v>4.709490766467147</v>
+        <v>0.8173830096947057</v>
       </c>
       <c r="H2">
-        <v>0.2418264424521216</v>
+        <v>0.04904299358883307</v>
       </c>
       <c r="I2">
-        <v>8.052419489229242</v>
+        <v>6.885481639778686</v>
       </c>
       <c r="J2">
-        <v>0.01154388050998645</v>
+        <v>0.006959279133026909</v>
       </c>
       <c r="K2">
-        <v>0.002940615134239535</v>
+        <v>0.002917817755458136</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0001390363655872775</v>
+        <v>9.606863025390152E-05</v>
       </c>
       <c r="N2">
-        <v>0.0341509899023679</v>
+        <v>0.02687890836335221</v>
       </c>
       <c r="O2">
-        <v>5.495108480530491e-06</v>
+        <v>8.612841341435602E-06</v>
       </c>
       <c r="P2">
-        <v>3.541300905269907e-08</v>
+        <v>4.114386121183086E-09</v>
       </c>
       <c r="Q2">
-        <v>1.690924862276952e-08</v>
+        <v>1.682592161483654E-09</v>
       </c>
       <c r="R2">
-        <v>1.260356752423815e-07</v>
+        <v>1.013458822714737E-08</v>
       </c>
       <c r="S2">
-        <v>4.385530514957043e-07</v>
+        <v>3.319444826002267E-08</v>
       </c>
       <c r="T2">
-        <v>6.653809112116236e-07</v>
+        <v>5.246883101595817E-08</v>
       </c>
       <c r="U2">
-        <v>2.870839773678892e-08</v>
+        <v>1.841230509946581E-09</v>
       </c>
       <c r="V2">
-        <v>4.752964961808125e-10</v>
+        <v>5.369699540031993E-11</v>
       </c>
       <c r="W2">
-        <v>1.176122359767415e-12</v>
+        <v>7.699782887287679E-14</v>
       </c>
       <c r="X2">
-        <v>4.71202950604607e-13</v>
+        <v>3.74856508404727E-14</v>
       </c>
       <c r="Y2">
-        <v>6.624250875247259e-14</v>
+        <v>3.987666309834151E-15</v>
       </c>
       <c r="Z2">
-        <v>3.110457812385267e-11</v>
+        <v>1.993539229141001E-12</v>
       </c>
       <c r="AA2">
-        <v>9.757077026427928e-12</v>
+        <v>6.446465780443469E-13</v>
       </c>
       <c r="AB2">
-        <v>2.010312658284892e-12</v>
+        <v>1.089629339296961E-13</v>
       </c>
       <c r="AC2">
-        <v>4.11757682551948e-12</v>
+        <v>2.913734031346922E-13</v>
       </c>
       <c r="AD2">
-        <v>5.928185814997703e-13</v>
+        <v>3.090024333852133E-14</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>4.227178128687226e-15</v>
+        <v>1.9274974649006E-16</v>
       </c>
       <c r="AG2">
-        <v>2.895508460814373e-16</v>
+        <v>1.379818216548696E-17</v>
       </c>
       <c r="AH2">
-        <v>4.145112238735144e-19</v>
+        <v>2.079283427197248E-20</v>
       </c>
       <c r="AI2">
-        <v>1.087884370862155e-17</v>
+        <v>5.689552894061086E-19</v>
       </c>
       <c r="AJ2">
-        <v>2.385606629383653e-16</v>
+        <v>1.208469695231109E-17</v>
       </c>
       <c r="AK2">
         <v>0</v>
       </c>
       <c r="AL2">
-        <v>1.633035019618464e-19</v>
+        <v>6.281104419113813E-21</v>
       </c>
       <c r="AM2">
-        <v>3.144231168844117e-21</v>
+        <v>1.300286555332729E-22</v>
       </c>
       <c r="AN2">
-        <v>8.453792000986925e-26</v>
+        <v>3.167044163411239E-27</v>
       </c>
       <c r="AO2">
         <v>0</v>
@@ -1500,118 +1497,118 @@
         <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.01616678038866195</v>
+        <v>0.02010152145148197</v>
       </c>
       <c r="AS2">
-        <v>2.016721570091684</v>
+        <v>2.199781179584639</v>
       </c>
       <c r="AT2">
-        <v>5.848443988828741</v>
+        <v>4.453752797375508</v>
       </c>
       <c r="AU2">
-        <v>5.116671805532357</v>
+        <v>2.006613264718796</v>
       </c>
       <c r="AV2">
-        <v>5.523322752872105</v>
+        <v>1.027797899674219</v>
       </c>
       <c r="AW2">
-        <v>0.9476797970931181</v>
+        <v>0.1976982205579748</v>
       </c>
       <c r="AX2">
-        <v>79.3815692098742</v>
+        <v>88.17010527845937</v>
       </c>
       <c r="AY2">
-        <v>0.08361138133971228</v>
+        <v>0.05562866625386405</v>
       </c>
       <c r="AZ2">
-        <v>0.04489700438741349</v>
+        <v>0.05204634526098361</v>
       </c>
       <c r="BA2">
         <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.002816195702117471</v>
+        <v>0.004463085806126744</v>
       </c>
       <c r="BC2">
-        <v>1.017787347460418</v>
+        <v>1.811614537821342</v>
       </c>
       <c r="BD2">
-        <v>0.0002020992191936704</v>
+        <v>0.0002757817629840364</v>
       </c>
       <c r="BE2">
-        <v>1.613632522814495e-06</v>
+        <v>1.585277177790614E-06</v>
       </c>
       <c r="BF2">
-        <v>7.962355927554107e-07</v>
+        <v>7.49968373677995E-07</v>
       </c>
       <c r="BG2">
-        <v>9.058740530595373e-06</v>
+        <v>1.038404999539051E-05</v>
       </c>
       <c r="BH2">
-        <v>3.663256853402338e-05</v>
+        <v>4.053744161855631E-05</v>
       </c>
       <c r="BI2">
-        <v>5.896413238722207e-05</v>
+        <v>6.48476814849841E-05</v>
       </c>
       <c r="BJ2">
-        <v>2.940355735275784e-06</v>
+        <v>3.258946763120499E-06</v>
       </c>
       <c r="BK2">
-        <v>5.335966689019017e-08</v>
+        <v>4.914788836592531E-08</v>
       </c>
       <c r="BL2">
-        <v>1.694652813035356e-10</v>
+        <v>1.741126048790174E-10</v>
       </c>
       <c r="BM2">
-        <v>5.023635367827215e-11</v>
+        <v>4.341045975686514E-11</v>
       </c>
       <c r="BN2">
-        <v>1.267067906998703e-11</v>
+        <v>1.356180011221056E-11</v>
       </c>
       <c r="BO2">
-        <v>4.964402683920374e-09</v>
+        <v>5.293403523848394E-09</v>
       </c>
       <c r="BP2">
-        <v>1.586014507365632e-09</v>
+        <v>1.72766711664424E-09</v>
       </c>
       <c r="BQ2">
-        <v>5.772959280400054e-10</v>
+        <v>6.072778862300452E-10</v>
       </c>
       <c r="BR2">
-        <v>6.293744403778113e-10</v>
+        <v>6.923790685536297E-10</v>
       </c>
       <c r="BS2">
-        <v>1.938510322957336e-10</v>
+        <v>2.054001231920928E-10</v>
       </c>
       <c r="BT2">
         <v>0</v>
       </c>
       <c r="BU2">
-        <v>1.78313778260251e-12</v>
+        <v>1.914744357918523E-12</v>
       </c>
       <c r="BV2">
-        <v>9.106052081243312e-14</v>
+        <v>9.617567634053851E-14</v>
       </c>
       <c r="BW2">
-        <v>2.17137473616717e-16</v>
+        <v>2.387010136377485E-16</v>
       </c>
       <c r="BX2">
-        <v>4.708840563096584e-15</v>
+        <v>5.107954342744105E-15</v>
       </c>
       <c r="BY2">
-        <v>1.39659783530913e-13</v>
+        <v>1.505157605078374E-13</v>
       </c>
       <c r="BZ2">
         <v>0</v>
       </c>
       <c r="CA2">
-        <v>1.981127592621435e-16</v>
+        <v>2.14115227474805E-16</v>
       </c>
       <c r="CB2">
-        <v>4.754156936565512e-18</v>
+        <v>5.210011502688171E-18</v>
       </c>
       <c r="CC2">
-        <v>3.462574798973772e-22</v>
+        <v>3.779009777321743E-22</v>
       </c>
       <c r="CD2">
         <v>0</v>
@@ -1623,118 +1620,118 @@
         <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.0004024180142875376</v>
+        <v>0.000333245065608747</v>
       </c>
       <c r="CH2">
-        <v>0.0261438465131963</v>
+        <v>0.02158260791795572</v>
       </c>
       <c r="CI2">
-        <v>0.04855889625891654</v>
+        <v>0.04092771086254698</v>
       </c>
       <c r="CJ2">
-        <v>0.03266732506060751</v>
+        <v>0.02678009114500514</v>
       </c>
       <c r="CK2">
-        <v>0.04253810788538827</v>
+        <v>0.02508126794659354</v>
       </c>
       <c r="CL2">
-        <v>0.05539375231530424</v>
+        <v>0.01833327386762117</v>
       </c>
       <c r="CM2">
-        <v>70.1038211401651</v>
+        <v>69.29371160599052</v>
       </c>
       <c r="CN2">
-        <v>0.03327504268661646</v>
+        <v>0.02183733568219264</v>
       </c>
       <c r="CO2">
-        <v>0.05467942514873295</v>
+        <v>0.05316758223738142</v>
       </c>
       <c r="CP2">
         <v>0</v>
       </c>
       <c r="CQ2">
-        <v>0.0207666661310328</v>
+        <v>0.02340419830955213</v>
       </c>
       <c r="CR2">
-        <v>29.50261294083231</v>
+        <v>30.46689050034961</v>
       </c>
       <c r="CS2">
-        <v>0.004403752181410828</v>
+        <v>0.002309480083401514</v>
       </c>
       <c r="CT2">
-        <v>0.0002749487460106404</v>
+        <v>2.624666337409043E-05</v>
       </c>
       <c r="CU2">
-        <v>0.0001666179008006007</v>
+        <v>1.441913256037575E-05</v>
       </c>
       <c r="CV2">
-        <v>0.004757927557070284</v>
+        <v>0.0003757531109599966</v>
       </c>
       <c r="CW2">
-        <v>0.02334234892710087</v>
+        <v>0.001805909649528502</v>
       </c>
       <c r="CX2">
-        <v>0.04189820694062673</v>
+        <v>0.00312263958567593</v>
       </c>
       <c r="CY2">
-        <v>0.004210510253894508</v>
+        <v>0.000290351624294303</v>
       </c>
       <c r="CZ2">
-        <v>3.153315782393781e-05</v>
+        <v>2.322507135663165E-06</v>
       </c>
       <c r="DA2">
-        <v>5.025658027102532e-07</v>
+        <v>3.501585584384033E-08</v>
       </c>
       <c r="DB2">
-        <v>1.445063112679566e-07</v>
+        <v>8.917867474792834E-09</v>
       </c>
       <c r="DC2">
-        <v>9.463565249173051e-08</v>
+        <v>5.829487675789375E-09</v>
       </c>
       <c r="DD2">
-        <v>2.55240746609345e-05</v>
+        <v>1.688714285809934E-06</v>
       </c>
       <c r="DE2">
-        <v>9.57234230841197e-06</v>
+        <v>6.307787735979719E-07</v>
       </c>
       <c r="DF2">
-        <v>8.755704695643442e-06</v>
+        <v>5.068016161795798E-07</v>
       </c>
       <c r="DG2">
-        <v>4.250364584020937e-06</v>
+        <v>2.7267478193719E-07</v>
       </c>
       <c r="DH2">
-        <v>5.590749217824759e-06</v>
+        <v>3.014671130381265E-07</v>
       </c>
       <c r="DI2">
         <v>0</v>
       </c>
       <c r="DJ2">
-        <v>1.323350589922601e-07</v>
+        <v>6.642590926641388E-09</v>
       </c>
       <c r="DK2">
-        <v>5.395478038426063e-09</v>
+        <v>2.842053845455579E-10</v>
       </c>
       <c r="DL2">
-        <v>2.735082731217768e-11</v>
+        <v>1.487069334687063E-12</v>
       </c>
       <c r="DM2">
-        <v>5.721766738162559e-10</v>
+        <v>3.393790793539555E-11</v>
       </c>
       <c r="DN2">
-        <v>1.978726642067966e-08</v>
+        <v>1.094490545772464E-09</v>
       </c>
       <c r="DO2">
         <v>0</v>
       </c>
       <c r="DP2">
-        <v>2.515404609089574e-10</v>
+        <v>1.142589085574615E-11</v>
       </c>
       <c r="DQ2">
-        <v>1.165527458062766e-11</v>
+        <v>5.501482647005241E-13</v>
       </c>
       <c r="DR2">
-        <v>1.271333375336691e-14</v>
+        <v>5.922618159140579E-16</v>
       </c>
       <c r="DS2">
         <v>0</v>
@@ -1746,620 +1743,123 @@
         <v>0</v>
       </c>
       <c r="DV2">
-        <v>1.321126513995925e-07</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>5.322138817440014e-06</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>3.003129566385433e-06</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>7.20051012140876e-24</v>
+        <v>9.551649633042139E-24</v>
       </c>
       <c r="DZ2">
-        <v>2.318775814361099e-16</v>
+        <v>2.635362740131792E-16</v>
       </c>
       <c r="EA2">
-        <v>1.894566957780937e-09</v>
+        <v>1.960035160885205E-09</v>
       </c>
       <c r="EB2">
-        <v>0.2501584157796933</v>
+        <v>0.2169848724230768</v>
       </c>
       <c r="EC2">
-        <v>0.0002094601078045665</v>
+        <v>0.0001851336050776079</v>
       </c>
       <c r="ED2">
-        <v>0.003962905352727255</v>
+        <v>0.003158316258544845</v>
       </c>
       <c r="EE2">
         <v>0</v>
       </c>
       <c r="EF2">
-        <v>0.01006961214860364</v>
+        <v>0.008350658804274606</v>
       </c>
       <c r="EG2">
-        <v>42.3118593982615</v>
+        <v>43.79141323763091</v>
       </c>
       <c r="EH2">
-        <v>0.009434689752522041</v>
+        <v>0.008094757631338483</v>
       </c>
       <c r="EI2">
-        <v>0.01251956829105707</v>
+        <v>0.01002445644983253</v>
       </c>
       <c r="EJ2">
-        <v>0.01255077532049865</v>
+        <v>0.01002659532803289</v>
       </c>
       <c r="EK2">
-        <v>1.226023429771739</v>
+        <v>1.187760140809744</v>
       </c>
       <c r="EL2">
-        <v>9.52527367732797</v>
+        <v>9.275651382715459</v>
       </c>
       <c r="EM2">
-        <v>20.79853584126444</v>
+        <v>20.26245415105112</v>
       </c>
       <c r="EN2">
-        <v>8.506811307177141</v>
+        <v>8.300340660509606</v>
       </c>
       <c r="EO2">
-        <v>0.01827585967624424</v>
+        <v>0.01455521787809956</v>
       </c>
       <c r="EP2">
-        <v>0.007170390264137419</v>
+        <v>0.007003756480128536</v>
       </c>
       <c r="EQ2">
-        <v>0.003456258523655125</v>
+        <v>0.002751367413904519</v>
       </c>
       <c r="ER2">
-        <v>0.008365596512535467</v>
+        <v>0.008171055168032293</v>
       </c>
       <c r="ES2">
-        <v>1.172375243942391</v>
+        <v>1.145115012883676</v>
       </c>
       <c r="ET2">
-        <v>0.6142731139903603</v>
+        <v>0.5999888572997716</v>
       </c>
       <c r="EU2">
-        <v>3.112009605378098</v>
+        <v>3.039632991986344</v>
       </c>
       <c r="EV2">
-        <v>0.345379577225056</v>
+        <v>0.3373478496195734</v>
       </c>
       <c r="EW2">
-        <v>7.948535950368327</v>
+        <v>7.763670091274358</v>
       </c>
       <c r="EX2">
         <v>0</v>
       </c>
       <c r="EY2">
-        <v>1.269184499984988</v>
+        <v>1.239665986565166</v>
       </c>
       <c r="EZ2">
-        <v>0.04182811226939327</v>
+        <v>0.04085527954236546</v>
       </c>
       <c r="FA2">
-        <v>0.001195089166529906</v>
+        <v>0.00116729376587899</v>
       </c>
       <c r="FB2">
-        <v>0.02748705182044765</v>
+        <v>0.02684775639465467</v>
       </c>
       <c r="FC2">
-        <v>1.07438507690963</v>
+        <v>1.049396983406816</v>
       </c>
       <c r="FD2">
         <v>0</v>
       </c>
       <c r="FE2">
-        <v>1.235722223602624</v>
+        <v>1.206981822895024</v>
       </c>
       <c r="FF2">
-        <v>0.316698640281464</v>
+        <v>0.3093328201264122</v>
       </c>
       <c r="FG2">
-        <v>0.1362401702528162</v>
+        <v>0.1330714921227484</v>
       </c>
       <c r="FH2">
         <v>0</v>
       </c>
       <c r="FI2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:165">
-      <c r="A3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1.657527267392347</v>
-      </c>
-      <c r="D3">
-        <v>39.6490500274162</v>
-      </c>
-      <c r="E3">
-        <v>35.77153514454213</v>
-      </c>
-      <c r="F3">
-        <v>10.10125706798305</v>
-      </c>
-      <c r="G3">
-        <v>4.375345198694648</v>
-      </c>
-      <c r="H3">
-        <v>0.2290048429960504</v>
-      </c>
-      <c r="I3">
-        <v>8.166092541110862</v>
-      </c>
-      <c r="J3">
-        <v>0.01175726356626681</v>
-      </c>
-      <c r="K3">
-        <v>0.003069347338170283</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0.0001441934545782364</v>
-      </c>
-      <c r="N3">
-        <v>0.03520996204916202</v>
-      </c>
-      <c r="O3">
-        <v>5.802843177298805e-06</v>
-      </c>
-      <c r="P3">
-        <v>3.654197606393782e-08</v>
-      </c>
-      <c r="Q3">
-        <v>1.746054365617627e-08</v>
-      </c>
-      <c r="R3">
-        <v>1.286433259749577e-07</v>
-      </c>
-      <c r="S3">
-        <v>4.48107358227629e-07</v>
-      </c>
-      <c r="T3">
-        <v>6.800644917306867e-07</v>
-      </c>
-      <c r="U3">
-        <v>2.924634764636885e-08</v>
-      </c>
-      <c r="V3">
-        <v>4.986802838200432e-10</v>
-      </c>
-      <c r="W3">
-        <v>1.20723665757721e-12</v>
-      </c>
-      <c r="X3">
-        <v>4.872297266271829e-13</v>
-      </c>
-      <c r="Y3">
-        <v>6.764273594917685e-14</v>
-      </c>
-      <c r="Z3">
-        <v>3.197239558289637e-11</v>
-      </c>
-      <c r="AA3">
-        <v>9.999501248563232e-12</v>
-      </c>
-      <c r="AB3">
-        <v>2.061317478983112e-12</v>
-      </c>
-      <c r="AC3">
-        <v>4.223753788591087e-12</v>
-      </c>
-      <c r="AD3">
-        <v>6.082733087157516e-13</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>4.320328961659502e-15</v>
-      </c>
-      <c r="AG3">
-        <v>2.951029950547467e-16</v>
-      </c>
-      <c r="AH3">
-        <v>4.295130902011441e-19</v>
-      </c>
-      <c r="AI3">
-        <v>1.122025079410163e-17</v>
-      </c>
-      <c r="AJ3">
-        <v>2.465042477265736e-16</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>1.68059453015299e-19</v>
-      </c>
-      <c r="AM3">
-        <v>3.283759218865427e-21</v>
-      </c>
-      <c r="AN3">
-        <v>8.856757420720046e-26</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0.01498860534447909</v>
-      </c>
-      <c r="AS3">
-        <v>1.909887302547841</v>
-      </c>
-      <c r="AT3">
-        <v>5.753017343748176</v>
-      </c>
-      <c r="AU3">
-        <v>5.45534468603451</v>
-      </c>
-      <c r="AV3">
-        <v>6.072823651530418</v>
-      </c>
-      <c r="AW3">
-        <v>1.02635968008179</v>
-      </c>
-      <c r="AX3">
-        <v>78.57760088993042</v>
-      </c>
-      <c r="AY3">
-        <v>0.08569891113475374</v>
-      </c>
-      <c r="AZ3">
-        <v>0.04418828016092215</v>
-      </c>
-      <c r="BA3">
-        <v>0</v>
-      </c>
-      <c r="BB3">
-        <v>0.002786980360250887</v>
-      </c>
-      <c r="BC3">
-        <v>1.056972958299856</v>
-      </c>
-      <c r="BD3">
-        <v>0.0002107128165518068</v>
-      </c>
-      <c r="BE3">
-        <v>1.755375472896191e-06</v>
-      </c>
-      <c r="BF3">
-        <v>8.574339452725712e-07</v>
-      </c>
-      <c r="BG3">
-        <v>1.008670209143091e-05</v>
-      </c>
-      <c r="BH3">
-        <v>3.993764468834787e-05</v>
-      </c>
-      <c r="BI3">
-        <v>6.402736362498174e-05</v>
-      </c>
-      <c r="BJ3">
-        <v>3.267500236622043e-06</v>
-      </c>
-      <c r="BK3">
-        <v>5.701717123706756e-08</v>
-      </c>
-      <c r="BL3">
-        <v>1.801244549631737e-10</v>
-      </c>
-      <c r="BM3">
-        <v>5.454059258291925e-11</v>
-      </c>
-      <c r="BN3">
-        <v>1.384766931738203e-11</v>
-      </c>
-      <c r="BO3">
-        <v>5.425749842810452e-09</v>
-      </c>
-      <c r="BP3">
-        <v>1.759676387048599e-09</v>
-      </c>
-      <c r="BQ3">
-        <v>6.219660162555479e-10</v>
-      </c>
-      <c r="BR3">
-        <v>7.040307567584741e-10</v>
-      </c>
-      <c r="BS3">
-        <v>2.106500898652572e-10</v>
-      </c>
-      <c r="BT3">
-        <v>0</v>
-      </c>
-      <c r="BU3">
-        <v>1.959699000687537e-12</v>
-      </c>
-      <c r="BV3">
-        <v>1.002512563628338e-13</v>
-      </c>
-      <c r="BW3">
-        <v>2.393017409807095e-16</v>
-      </c>
-      <c r="BX3">
-        <v>5.188210674466896e-15</v>
-      </c>
-      <c r="BY3">
-        <v>1.514911029393921e-13</v>
-      </c>
-      <c r="BZ3">
-        <v>0</v>
-      </c>
-      <c r="CA3">
-        <v>2.175235423374726e-16</v>
-      </c>
-      <c r="CB3">
-        <v>5.182483850014871e-18</v>
-      </c>
-      <c r="CC3">
-        <v>3.732434169639571e-22</v>
-      </c>
-      <c r="CD3">
-        <v>0</v>
-      </c>
-      <c r="CE3">
-        <v>0</v>
-      </c>
-      <c r="CF3">
-        <v>0</v>
-      </c>
-      <c r="CG3">
-        <v>0.0004021884595078256</v>
-      </c>
-      <c r="CH3">
-        <v>0.02614199524852765</v>
-      </c>
-      <c r="CI3">
-        <v>0.04862100252647753</v>
-      </c>
-      <c r="CJ3">
-        <v>0.0328057744229176</v>
-      </c>
-      <c r="CK3">
-        <v>0.04148152894666308</v>
-      </c>
-      <c r="CL3">
-        <v>0.0522720064303813</v>
-      </c>
-      <c r="CM3">
-        <v>70.08078617325388</v>
-      </c>
-      <c r="CN3">
-        <v>0.03305422067565616</v>
-      </c>
-      <c r="CO3">
-        <v>0.05472272622060333</v>
-      </c>
-      <c r="CP3">
-        <v>0</v>
-      </c>
-      <c r="CQ3">
-        <v>0.02082219750990807</v>
-      </c>
-      <c r="CR3">
-        <v>29.53031576652279</v>
-      </c>
-      <c r="CS3">
-        <v>0.004404224656799799</v>
-      </c>
-      <c r="CT3">
-        <v>0.0002733462067909544</v>
-      </c>
-      <c r="CU3">
-        <v>0.00016555348305152</v>
-      </c>
-      <c r="CV3">
-        <v>0.004723248363563727</v>
-      </c>
-      <c r="CW3">
-        <v>0.02316601846337048</v>
-      </c>
-      <c r="CX3">
-        <v>0.04158021299576874</v>
-      </c>
-      <c r="CY3">
-        <v>0.004176406849902797</v>
-      </c>
-      <c r="CZ3">
-        <v>3.12952143435091e-05</v>
-      </c>
-      <c r="DA3">
-        <v>4.982608896109891e-07</v>
-      </c>
-      <c r="DB3">
-        <v>1.432695814689547e-07</v>
-      </c>
-      <c r="DC3">
-        <v>9.380077584474647e-08</v>
-      </c>
-      <c r="DD3">
-        <v>2.530238929641602e-05</v>
-      </c>
-      <c r="DE3">
-        <v>9.488733855568664e-06</v>
-      </c>
-      <c r="DF3">
-        <v>8.677852969301144e-06</v>
-      </c>
-      <c r="DG3">
-        <v>4.212900093087955e-06</v>
-      </c>
-      <c r="DH3">
-        <v>5.539431575748184e-06</v>
-      </c>
-      <c r="DI3">
-        <v>0</v>
-      </c>
-      <c r="DJ3">
-        <v>1.311043967412817e-07</v>
-      </c>
-      <c r="DK3">
-        <v>5.345593213261705e-09</v>
-      </c>
-      <c r="DL3">
-        <v>2.709926302950409e-11</v>
-      </c>
-      <c r="DM3">
-        <v>5.668711795094734e-10</v>
-      </c>
-      <c r="DN3">
-        <v>1.960535304129741e-08</v>
-      </c>
-      <c r="DO3">
-        <v>0</v>
-      </c>
-      <c r="DP3">
-        <v>2.491583191566565e-10</v>
-      </c>
-      <c r="DQ3">
-        <v>1.154548027236963e-11</v>
-      </c>
-      <c r="DR3">
-        <v>1.259229662056323e-14</v>
-      </c>
-      <c r="DS3">
-        <v>0</v>
-      </c>
-      <c r="DT3">
-        <v>0</v>
-      </c>
-      <c r="DU3">
-        <v>0</v>
-      </c>
-      <c r="DV3">
-        <v>7.038805000860264e-07</v>
-      </c>
-      <c r="DW3">
-        <v>2.478664798358763e-05</v>
-      </c>
-      <c r="DX3">
-        <v>1.426602313204602e-05</v>
-      </c>
-      <c r="DY3">
-        <v>7.279831175940857e-24</v>
-      </c>
-      <c r="DZ3">
-        <v>2.361313542216193e-16</v>
-      </c>
-      <c r="EA3">
-        <v>1.929417168594995e-09</v>
-      </c>
-      <c r="EB3">
-        <v>0.2505651943961165</v>
-      </c>
-      <c r="EC3">
-        <v>0.0002102547009981816</v>
-      </c>
-      <c r="ED3">
-        <v>0.003963477893106595</v>
-      </c>
-      <c r="EE3">
-        <v>0</v>
-      </c>
-      <c r="EF3">
-        <v>0.01007332080009711</v>
-      </c>
-      <c r="EG3">
-        <v>42.32738705297735</v>
-      </c>
-      <c r="EH3">
-        <v>0.009437109056539062</v>
-      </c>
-      <c r="EI3">
-        <v>0.01251682868463404</v>
-      </c>
-      <c r="EJ3">
-        <v>0.01254773786003911</v>
-      </c>
-      <c r="EK3">
-        <v>1.225692718027237</v>
-      </c>
-      <c r="EL3">
-        <v>9.522659943478248</v>
-      </c>
-      <c r="EM3">
-        <v>20.79280142284236</v>
-      </c>
-      <c r="EN3">
-        <v>8.504421739366046</v>
-      </c>
-      <c r="EO3">
-        <v>0.01827080007918018</v>
-      </c>
-      <c r="EP3">
-        <v>0.007168365414228322</v>
-      </c>
-      <c r="EQ3">
-        <v>0.003455281685348967</v>
-      </c>
-      <c r="ER3">
-        <v>0.008363232153768213</v>
-      </c>
-      <c r="ES3">
-        <v>1.172043896897308</v>
-      </c>
-      <c r="ET3">
-        <v>0.6140994660946223</v>
-      </c>
-      <c r="EU3">
-        <v>3.111130247177185</v>
-      </c>
-      <c r="EV3">
-        <v>0.3452819424182411</v>
-      </c>
-      <c r="EW3">
-        <v>7.946288991303144</v>
-      </c>
-      <c r="EX3">
-        <v>0</v>
-      </c>
-      <c r="EY3">
-        <v>1.268825867480458</v>
-      </c>
-      <c r="EZ3">
-        <v>0.04181628794644499</v>
-      </c>
-      <c r="FA3">
-        <v>0.001194751328662252</v>
-      </c>
-      <c r="FB3">
-        <v>0.02747928154921169</v>
-      </c>
-      <c r="FC3">
-        <v>1.0740813606903</v>
-      </c>
-      <c r="FD3">
-        <v>0</v>
-      </c>
-      <c r="FE3">
-        <v>1.235372899240288</v>
-      </c>
-      <c r="FF3">
-        <v>0.3166091132433836</v>
-      </c>
-      <c r="FG3">
-        <v>0.1362016567344145</v>
-      </c>
-      <c r="FH3">
-        <v>0</v>
-      </c>
-      <c r="FI3">
         <v>0</v>
       </c>
     </row>

--- a/log/c620_wt_log.xlsx
+++ b/log/c620_wt_log.xlsx
@@ -1258,125 +1258,125 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>123456</t>
+          <t>123</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.714036257856704</v>
+        <v>2.714557972406106</v>
       </c>
       <c r="D2" t="n">
-        <v>53.59984023749062</v>
+        <v>53.61014775876133</v>
       </c>
       <c r="E2" t="n">
-        <v>31.85307883012356</v>
+        <v>31.85920189300484</v>
       </c>
       <c r="F2" t="n">
-        <v>4.044220688459754</v>
+        <v>4.044998102087909</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8173825172611211</v>
+        <v>0.8175396413048579</v>
       </c>
       <c r="H2" t="n">
-        <v>0.04904296404281016</v>
+        <v>0.04905239148793471</v>
       </c>
       <c r="I2" t="n">
-        <v>6.885458366327506</v>
+        <v>6.880456211966506</v>
       </c>
       <c r="J2" t="n">
-        <v>0.006959217394781076</v>
+        <v>0.006958268185923763</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002917815259864908</v>
+        <v>0.002918062911566768</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>9.628364911657764e-05</v>
+        <v>0.0001172472693851281</v>
       </c>
       <c r="N2" t="n">
-        <v>0.02695808924117471</v>
+        <v>0.01404498796819165</v>
       </c>
       <c r="O2" t="n">
-        <v>8.629448047538844e-06</v>
+        <v>7.373085978330415e-06</v>
       </c>
       <c r="P2" t="n">
-        <v>4.110921839989032e-09</v>
+        <v>2.85973636269423e-09</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.681872555585105e-09</v>
+        <v>1.305486610559374e-09</v>
       </c>
       <c r="R2" t="n">
-        <v>1.012980843900193e-08</v>
+        <v>8.885468789419644e-09</v>
       </c>
       <c r="S2" t="n">
-        <v>3.318222684242912e-08</v>
+        <v>3.007374882504019e-08</v>
       </c>
       <c r="T2" t="n">
-        <v>5.244232140041944e-08</v>
+        <v>4.46840976340793e-08</v>
       </c>
       <c r="U2" t="n">
-        <v>1.840892614004525e-09</v>
+        <v>1.717297498290396e-09</v>
       </c>
       <c r="V2" t="n">
-        <v>5.37404325753321e-11</v>
+        <v>3.078999320135099e-11</v>
       </c>
       <c r="W2" t="n">
-        <v>7.698213123091551e-14</v>
+        <v>7.040364470886498e-14</v>
       </c>
       <c r="X2" t="n">
-        <v>3.744909893767176e-14</v>
+        <v>2.692172379612205e-14</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.98640915640503e-15</v>
+        <v>3.62001752650698e-15</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.992851935772938e-12</v>
+        <v>1.813018511007507e-12</v>
       </c>
       <c r="AA2" t="n">
-        <v>6.443739410883241e-13</v>
+        <v>5.653869991586291e-13</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.08931000978459e-13</v>
+        <v>9.983457881886127e-14</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.911497865471635e-13</v>
+        <v>2.394024086302311e-13</v>
       </c>
       <c r="AD2" t="n">
-        <v>3.08906566762104e-14</v>
+        <v>2.830152048668142e-14</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.927261729769981e-16</v>
+        <v>1.838838265108897e-16</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.379732094401761e-17</v>
+        <v>1.336674877886005e-17</v>
       </c>
       <c r="AH2" t="n">
-        <v>2.078842247560301e-20</v>
+        <v>1.911714338071911e-20</v>
       </c>
       <c r="AI2" t="n">
-        <v>5.688612723304384e-19</v>
+        <v>5.214238638919933e-19</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.207976259374246e-17</v>
+        <v>1.067825299018216e-17</v>
       </c>
       <c r="AK2" t="n">
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>6.280712797508741e-21</v>
+        <v>6.017995180556357e-21</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.300001079597886e-22</v>
+        <v>1.197862228101574e-22</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.167433104346301e-27</v>
+        <v>2.783586674746736e-27</v>
       </c>
       <c r="AO2" t="n">
         <v>0</v>
@@ -1388,118 +1388,118 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.02010154796480152</v>
+        <v>0.02012458800113638</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.199784081031751</v>
+        <v>2.202305264070173</v>
       </c>
       <c r="AT2" t="n">
-        <v>4.453758671745336</v>
+        <v>4.458863145824066</v>
       </c>
       <c r="AU2" t="n">
-        <v>2.006615911383072</v>
+        <v>2.008915703459953</v>
       </c>
       <c r="AV2" t="n">
-        <v>1.027799255309622</v>
+        <v>1.028977220943492</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.1976984813161522</v>
+        <v>0.1979250644895254</v>
       </c>
       <c r="AX2" t="n">
-        <v>88.16998324777562</v>
+        <v>88.18995186146206</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.05562828009949899</v>
+        <v>0.05567373943419723</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.05204639667121948</v>
+        <v>0.05210050085371841</v>
       </c>
       <c r="BA2" t="n">
         <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.004464675188581829</v>
+        <v>0.004904410262486084</v>
       </c>
       <c r="BC2" t="n">
-        <v>1.811722249790342</v>
+        <v>1.779863368361432</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.0002757802829513018</v>
+        <v>0.0002735723090076049</v>
       </c>
       <c r="BE2" t="n">
-        <v>1.585279268724899e-06</v>
+        <v>1.587124630256042e-06</v>
       </c>
       <c r="BF2" t="n">
-        <v>7.499693628643704e-07</v>
+        <v>7.508297550707308e-07</v>
       </c>
       <c r="BG2" t="n">
-        <v>1.038406369164909e-05</v>
+        <v>1.039593591986309e-05</v>
       </c>
       <c r="BH2" t="n">
-        <v>4.053749508625755e-05</v>
+        <v>4.058391001465674e-05</v>
       </c>
       <c r="BI2" t="n">
-        <v>6.484777525195298e-05</v>
+        <v>6.492206874206049e-05</v>
       </c>
       <c r="BJ2" t="n">
-        <v>3.258951061576073e-06</v>
+        <v>3.262685949879385e-06</v>
       </c>
       <c r="BK2" t="n">
-        <v>4.914795319055426e-08</v>
+        <v>4.920432927120795e-08</v>
       </c>
       <c r="BL2" t="n">
-        <v>1.741128345284567e-10</v>
+        <v>1.743123860794339e-10</v>
       </c>
       <c r="BM2" t="n">
-        <v>4.341051701399337e-11</v>
+        <v>4.346027438755534e-11</v>
       </c>
       <c r="BN2" t="n">
-        <v>1.356181799982871e-11</v>
+        <v>1.357736126419096e-11</v>
       </c>
       <c r="BO2" t="n">
-        <v>5.293410505693002e-09</v>
+        <v>5.299477308747644e-09</v>
       </c>
       <c r="BP2" t="n">
-        <v>1.727669395386695e-09</v>
+        <v>1.729649485529727e-09</v>
       </c>
       <c r="BQ2" t="n">
-        <v>6.072786872118362e-10</v>
+        <v>6.079746922147797e-10</v>
       </c>
       <c r="BR2" t="n">
-        <v>6.92379981781394e-10</v>
+        <v>6.931735888026281e-10</v>
       </c>
       <c r="BS2" t="n">
-        <v>2.054003941088547e-10</v>
+        <v>2.056358526796096e-10</v>
       </c>
       <c r="BT2" t="n">
         <v>0</v>
       </c>
       <c r="BU2" t="n">
-        <v>1.914746883410394e-12</v>
+        <v>1.916941504206999e-12</v>
       </c>
       <c r="BV2" t="n">
-        <v>9.617580319344595e-14</v>
+        <v>9.628603074068967e-14</v>
       </c>
       <c r="BW2" t="n">
-        <v>2.387013284774121e-16</v>
+        <v>2.389749052096902e-16</v>
       </c>
       <c r="BX2" t="n">
-        <v>5.10796107998666e-15</v>
+        <v>5.113816315186424e-15</v>
       </c>
       <c r="BY2" t="n">
-        <v>1.505159590337284e-13</v>
+        <v>1.506884660930347e-13</v>
       </c>
       <c r="BZ2" t="n">
         <v>0</v>
       </c>
       <c r="CA2" t="n">
-        <v>2.141155098865349e-16</v>
+        <v>2.143609086947379e-16</v>
       </c>
       <c r="CB2" t="n">
-        <v>5.210018374541139e-18</v>
+        <v>5.215989601476102e-18</v>
       </c>
       <c r="CC2" t="n">
-        <v>3.779014761725239e-22</v>
+        <v>3.783345908587044e-22</v>
       </c>
       <c r="CD2" t="n">
         <v>0</v>
@@ -1511,118 +1511,118 @@
         <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.0003335131687654846</v>
+        <v>0.0004208678838225773</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.02159997161185727</v>
+        <v>0.02725747827207207</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.04096063812723204</v>
+        <v>0.05168924795800026</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.0268016363311599</v>
+        <v>0.0338216906862601</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.02510144639124412</v>
+        <v>0.03167619490045555</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.01834802339913566</v>
+        <v>0.02315386755688598</v>
       </c>
       <c r="CM2" t="n">
-        <v>69.34927029212568</v>
+        <v>87.43333469538887</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.02185472416761392</v>
+        <v>0.02757000931783608</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.0532103348054077</v>
+        <v>0.06714042325277385</v>
       </c>
       <c r="CP2" t="n">
         <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.02340437935895604</v>
+        <v>0.02139042754268897</v>
       </c>
       <c r="CR2" t="n">
-        <v>30.41116599060697</v>
+        <v>12.27442077234601</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.002304547048901578</v>
+        <v>0.001415246326867387</v>
       </c>
       <c r="CT2" t="n">
-        <v>2.625222161630774e-05</v>
+        <v>2.907958838606602e-05</v>
       </c>
       <c r="CU2" t="n">
-        <v>1.442614778074807e-05</v>
+        <v>1.675278308497874e-05</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.000375980694099659</v>
+        <v>0.0004466863780926031</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.001806887340576478</v>
+        <v>0.002129134857489691</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.003124657113403983</v>
+        <v>0.003736633543057934</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.0002905155719430688</v>
+        <v>0.0003440025253977484</v>
       </c>
       <c r="CZ2" t="n">
-        <v>2.323463657551198e-06</v>
+        <v>2.690877273982389e-06</v>
       </c>
       <c r="DA2" t="n">
-        <v>3.503010754494768e-08</v>
+        <v>4.031145025793708e-08</v>
       </c>
       <c r="DB2" t="n">
-        <v>8.923769621828155e-09</v>
+        <v>1.083089214444096e-08</v>
       </c>
       <c r="DC2" t="n">
-        <v>5.833182002347923e-09</v>
+        <v>6.995207608902696e-09</v>
       </c>
       <c r="DD2" t="n">
-        <v>1.689693654088116e-06</v>
+        <v>1.994437677977014e-06</v>
       </c>
       <c r="DE2" t="n">
-        <v>6.311415381843149e-07</v>
+        <v>7.46086003674642e-07</v>
       </c>
       <c r="DF2" t="n">
-        <v>5.070778017870354e-07</v>
+        <v>5.957727141325702e-07</v>
       </c>
       <c r="DG2" t="n">
-        <v>2.728522314594915e-07</v>
+        <v>3.288556059211307e-07</v>
       </c>
       <c r="DH2" t="n">
-        <v>3.016778320798171e-07</v>
+        <v>3.651216312264359e-07</v>
       </c>
       <c r="DI2" t="n">
         <v>0</v>
       </c>
       <c r="DJ2" t="n">
-        <v>6.64719425708806e-09</v>
+        <v>7.962141205368625e-09</v>
       </c>
       <c r="DK2" t="n">
-        <v>2.844036589071074e-10</v>
+        <v>3.437798855245152e-10</v>
       </c>
       <c r="DL2" t="n">
-        <v>1.487914274420425e-12</v>
+        <v>1.760992992909378e-12</v>
       </c>
       <c r="DM2" t="n">
-        <v>3.394586350344966e-11</v>
+        <v>3.786675882453307e-11</v>
       </c>
       <c r="DN2" t="n">
-        <v>1.09486547591147e-09</v>
+        <v>1.243992654359028e-09</v>
       </c>
       <c r="DO2" t="n">
         <v>0</v>
       </c>
       <c r="DP2" t="n">
-        <v>1.143169626568815e-11</v>
+        <v>1.327562442819379e-11</v>
       </c>
       <c r="DQ2" t="n">
-        <v>5.504200883993506e-13</v>
+        <v>6.388315408255418e-13</v>
       </c>
       <c r="DR2" t="n">
-        <v>5.923886676238262e-16</v>
+        <v>6.236427960175826e-16</v>
       </c>
       <c r="DS2" t="n">
         <v>0</v>
@@ -1643,109 +1643,109 @@
         <v>0</v>
       </c>
       <c r="DY2" t="n">
-        <v>9.550977417981752e-24</v>
+        <v>9.263201066462393e-24</v>
       </c>
       <c r="DZ2" t="n">
-        <v>2.635041347230331e-16</v>
+        <v>2.546577697377536e-16</v>
       </c>
       <c r="EA2" t="n">
-        <v>1.959779197470479e-09</v>
+        <v>1.892381882233796e-09</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.2170050216639289</v>
+        <v>0.2256758726445471</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.0001851718737097778</v>
+        <v>0.0001811135712232907</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.003157874272342631</v>
+        <v>0.003047838540434291</v>
       </c>
       <c r="EE2" t="n">
         <v>0</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.00835264142281994</v>
+        <v>0.009122709887292082</v>
       </c>
       <c r="EG2" t="n">
-        <v>43.79930859303613</v>
+        <v>45.76374715986674</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.008094805751416648</v>
+        <v>0.008010068768777851</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.01002304067891019</v>
+        <v>0.009670091920880119</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.01002517805912025</v>
+        <v>0.009671803910525661</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.187592108160581</v>
+        <v>1.145711807743856</v>
       </c>
       <c r="EL2" t="n">
-        <v>9.274339154580339</v>
+        <v>8.947271040397032</v>
       </c>
       <c r="EM2" t="n">
-        <v>20.25958882547303</v>
+        <v>19.54510178117068</v>
       </c>
       <c r="EN2" t="n">
-        <v>8.299166409764682</v>
+        <v>8.006474343521461</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.01455315874870537</v>
+        <v>0.01403993070888112</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.007002765657389996</v>
+        <v>0.006755792581057265</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.002750978177442129</v>
+        <v>0.002653956544538992</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.00816989920733016</v>
+        <v>0.007881762802523697</v>
       </c>
       <c r="ES2" t="n">
-        <v>1.144953013248733</v>
+        <v>1.104572754381669</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.5999039767639663</v>
+        <v>0.578746568468153</v>
       </c>
       <c r="EU2" t="n">
-        <v>3.039202974538733</v>
+        <v>2.932016215395487</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.3373001249562232</v>
+        <v>0.3254042076530504</v>
       </c>
       <c r="EW2" t="n">
-        <v>7.76257176341519</v>
+        <v>7.488801002821739</v>
       </c>
       <c r="EX2" t="n">
         <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>1.239490610786301</v>
+        <v>1.195776195305765</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.04084949973833103</v>
+        <v>0.03940881758374768</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.001167128628611715</v>
+        <v>0.001125966279057494</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.02684395823753854</v>
+        <v>0.02589722420556916</v>
       </c>
       <c r="FC2" t="n">
-        <v>1.049248525019397</v>
+        <v>1.01224357672379</v>
       </c>
       <c r="FD2" t="n">
         <v>0</v>
       </c>
       <c r="FE2" t="n">
-        <v>1.206811070950903</v>
+        <v>1.164249199079529</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.3092890587545216</v>
+        <v>0.2983810371040776</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.1330526664738811</v>
+        <v>0.1283601585255211</v>
       </c>
       <c r="FH2" t="n">
         <v>0</v>

--- a/log/c620_wt_log.xlsx
+++ b/log/c620_wt_log.xlsx
@@ -1258,125 +1258,125 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>test</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.714557972406106</v>
+        <v>2.71403116699935</v>
       </c>
       <c r="D2" t="n">
-        <v>53.61014775876133</v>
+        <v>53.5997396975144</v>
       </c>
       <c r="E2" t="n">
-        <v>31.85920189300484</v>
+        <v>31.85301908166584</v>
       </c>
       <c r="F2" t="n">
-        <v>4.044998102087909</v>
+        <v>4.044213102507071</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8175396413048579</v>
+        <v>0.817380984054707</v>
       </c>
       <c r="H2" t="n">
-        <v>0.04905239148793471</v>
+        <v>0.04904287205040092</v>
       </c>
       <c r="I2" t="n">
-        <v>6.880456211966506</v>
+        <v>6.885383400118287</v>
       </c>
       <c r="J2" t="n">
-        <v>0.006958268185923763</v>
+        <v>0.006959032432913243</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002918062911566768</v>
+        <v>0.002917806098027364</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0001172472693851281</v>
+        <v>9.69714560178551e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01404498796819165</v>
+        <v>0.02720710064251893</v>
       </c>
       <c r="O2" t="n">
-        <v>7.373085978330415e-06</v>
+        <v>8.681164389933109e-06</v>
       </c>
       <c r="P2" t="n">
-        <v>2.85973636269423e-09</v>
+        <v>4.100164157773595e-09</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.305486610559374e-09</v>
+        <v>1.679633603058436e-09</v>
       </c>
       <c r="R2" t="n">
-        <v>8.885468789419644e-09</v>
+        <v>1.011498257588196e-08</v>
       </c>
       <c r="S2" t="n">
-        <v>3.007374882504019e-08</v>
+        <v>3.314433459902785e-08</v>
       </c>
       <c r="T2" t="n">
-        <v>4.46840976340793e-08</v>
+        <v>5.236005979697833e-08</v>
       </c>
       <c r="U2" t="n">
-        <v>1.717297498290396e-09</v>
+        <v>1.839843026964226e-09</v>
       </c>
       <c r="V2" t="n">
-        <v>3.078999320135099e-11</v>
+        <v>5.387692600459592e-11</v>
       </c>
       <c r="W2" t="n">
-        <v>7.040364470886498e-14</v>
+        <v>7.693327657563124e-14</v>
       </c>
       <c r="X2" t="n">
-        <v>2.692172379612205e-14</v>
+        <v>3.733564744705091e-14</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.62001752650698e-15</v>
+        <v>3.982510026496743e-15</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.813018511007507e-12</v>
+        <v>1.990720783505968e-12</v>
       </c>
       <c r="AA2" t="n">
-        <v>5.653869991586291e-13</v>
+        <v>6.4352727547928e-13</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.983457881886127e-14</v>
+        <v>1.088319412220221e-13</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.394024086302311e-13</v>
+        <v>2.904570109423545e-13</v>
       </c>
       <c r="AD2" t="n">
-        <v>2.830152048668142e-14</v>
+        <v>3.086092124408925e-14</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.838838265108897e-16</v>
+        <v>1.926528414258276e-16</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.336674877886005e-17</v>
+        <v>1.379464203440023e-17</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.911714338071911e-20</v>
+        <v>2.077473365773284e-20</v>
       </c>
       <c r="AI2" t="n">
-        <v>5.214238638919933e-19</v>
+        <v>5.685688199576031e-19</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.067825299018216e-17</v>
+        <v>1.206445672521582e-17</v>
       </c>
       <c r="AK2" t="n">
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>6.017995180556357e-21</v>
+        <v>6.279493501439638e-21</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.197862228101574e-22</v>
+        <v>1.299115057040853e-22</v>
       </c>
       <c r="AN2" t="n">
-        <v>2.783586674746736e-27</v>
+        <v>3.16846952943607e-27</v>
       </c>
       <c r="AO2" t="n">
         <v>0</v>
@@ -1388,118 +1388,118 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.02012458800113638</v>
+        <v>0.02010164240889484</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.202305264070173</v>
+        <v>2.199794416385694</v>
       </c>
       <c r="AT2" t="n">
-        <v>4.458863145824066</v>
+        <v>4.453779597059164</v>
       </c>
       <c r="AU2" t="n">
-        <v>2.008915703459953</v>
+        <v>2.006625339165485</v>
       </c>
       <c r="AV2" t="n">
-        <v>1.028977220943492</v>
+        <v>1.027804084269509</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.1979250644895254</v>
+        <v>0.1976994101726686</v>
       </c>
       <c r="AX2" t="n">
-        <v>88.18995186146206</v>
+        <v>88.16960308249729</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.05567373943419723</v>
+        <v>0.05562716627717863</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.05210050085371841</v>
+        <v>0.05204657225355335</v>
       </c>
       <c r="BA2" t="n">
         <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.004904410262486084</v>
+        <v>0.0044696754182013</v>
       </c>
       <c r="BC2" t="n">
-        <v>1.779863368361432</v>
+        <v>1.812051816575728</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.0002735723090076049</v>
+        <v>0.0002757755083410862</v>
       </c>
       <c r="BE2" t="n">
-        <v>1.587124630256042e-06</v>
+        <v>1.585287238625901e-06</v>
       </c>
       <c r="BF2" t="n">
-        <v>7.508297550707308e-07</v>
+        <v>7.49972886482383e-07</v>
       </c>
       <c r="BG2" t="n">
-        <v>1.039593591986309e-05</v>
+        <v>1.038411247960721e-05</v>
       </c>
       <c r="BH2" t="n">
-        <v>4.058391001465674e-05</v>
+        <v>4.053768177584842e-05</v>
       </c>
       <c r="BI2" t="n">
-        <v>6.492206874206049e-05</v>
+        <v>6.484807992945085e-05</v>
       </c>
       <c r="BJ2" t="n">
-        <v>3.262685949879385e-06</v>
+        <v>3.258966373266431e-06</v>
       </c>
       <c r="BK2" t="n">
-        <v>4.920432927120795e-08</v>
+        <v>4.914817523177494e-08</v>
       </c>
       <c r="BL2" t="n">
-        <v>1.743123860794339e-10</v>
+        <v>1.741136525713667e-10</v>
       </c>
       <c r="BM2" t="n">
-        <v>4.346027438755534e-11</v>
+        <v>4.341072097176452e-11</v>
       </c>
       <c r="BN2" t="n">
-        <v>1.357736126419096e-11</v>
+        <v>1.356188171798649e-11</v>
       </c>
       <c r="BO2" t="n">
-        <v>5.299477308747644e-09</v>
+        <v>5.293435375984415e-09</v>
       </c>
       <c r="BP2" t="n">
-        <v>1.729649485529727e-09</v>
+        <v>1.727677512580947e-09</v>
       </c>
       <c r="BQ2" t="n">
-        <v>6.079746922147797e-10</v>
+        <v>6.072815404192162e-10</v>
       </c>
       <c r="BR2" t="n">
-        <v>6.931735888026281e-10</v>
+        <v>6.923832348243797e-10</v>
       </c>
       <c r="BS2" t="n">
-        <v>2.056358526796096e-10</v>
+        <v>2.054013591516476e-10</v>
       </c>
       <c r="BT2" t="n">
         <v>0</v>
       </c>
       <c r="BU2" t="n">
-        <v>1.916941504206999e-12</v>
+        <v>1.914755879560026e-12</v>
       </c>
       <c r="BV2" t="n">
-        <v>9.628603074068967e-14</v>
+        <v>9.617625506096119e-14</v>
       </c>
       <c r="BW2" t="n">
-        <v>2.389749052096902e-16</v>
+        <v>2.387024499796258e-16</v>
       </c>
       <c r="BX2" t="n">
-        <v>5.113816315186424e-15</v>
+        <v>5.107985078971899e-15</v>
       </c>
       <c r="BY2" t="n">
-        <v>1.506884660930347e-13</v>
+        <v>1.505166662102754e-13</v>
       </c>
       <c r="BZ2" t="n">
         <v>0</v>
       </c>
       <c r="CA2" t="n">
-        <v>2.143609086947379e-16</v>
+        <v>2.141165158759857e-16</v>
       </c>
       <c r="CB2" t="n">
-        <v>5.215989601476102e-18</v>
+        <v>5.210042853027194e-18</v>
       </c>
       <c r="CC2" t="n">
-        <v>3.783345908587044e-22</v>
+        <v>3.779032516856507e-22</v>
       </c>
       <c r="CD2" t="n">
         <v>0</v>
@@ -1511,118 +1511,118 @@
         <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.0004208678838225773</v>
+        <v>0.0003343561715082666</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.02725747827207207</v>
+        <v>0.0216545686623432</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.05168924795800026</v>
+        <v>0.04106417206088502</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.0338216906862601</v>
+        <v>0.02686938134111512</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.03167619490045555</v>
+        <v>0.02516489392536681</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.02315386755688598</v>
+        <v>0.01839440068045068</v>
       </c>
       <c r="CM2" t="n">
-        <v>87.43333469538887</v>
+        <v>69.52393312163424</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.02757000931783608</v>
+        <v>0.02190942470577657</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.06714042325277385</v>
+        <v>0.05334476560554074</v>
       </c>
       <c r="CP2" t="n">
         <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.02139042754268897</v>
+        <v>0.02340469005358193</v>
       </c>
       <c r="CR2" t="n">
-        <v>12.27442077234601</v>
+        <v>30.23598174273442</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.001415246326867387</v>
+        <v>0.002289249307558654</v>
       </c>
       <c r="CT2" t="n">
-        <v>2.907958838606602e-05</v>
+        <v>2.627030976199887e-05</v>
       </c>
       <c r="CU2" t="n">
-        <v>1.675278308497874e-05</v>
+        <v>1.444835178373056e-05</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.0004466863780926031</v>
+        <v>0.0003766982814818166</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.002129134857489691</v>
+        <v>0.001809976787624915</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.003736633543057934</v>
+        <v>0.003131012814064291</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.0003440025253977484</v>
+        <v>0.0002910333401375669</v>
       </c>
       <c r="CZ2" t="n">
-        <v>2.690877273982389e-06</v>
+        <v>2.326505472742829e-06</v>
       </c>
       <c r="DA2" t="n">
-        <v>4.031145025793708e-08</v>
+        <v>3.507543645587063e-08</v>
       </c>
       <c r="DB2" t="n">
-        <v>1.083089214444096e-08</v>
+        <v>8.942368410339862e-09</v>
       </c>
       <c r="DC2" t="n">
-        <v>6.995207608902696e-09</v>
+        <v>5.844827793614924e-09</v>
       </c>
       <c r="DD2" t="n">
-        <v>1.994437677977014e-06</v>
+        <v>1.69278427433024e-06</v>
       </c>
       <c r="DE2" t="n">
-        <v>7.46086003674642e-07</v>
+        <v>6.32286678097174e-07</v>
       </c>
       <c r="DF2" t="n">
-        <v>5.957727141325702e-07</v>
+        <v>5.079505069542724e-07</v>
       </c>
       <c r="DG2" t="n">
-        <v>3.288556059211307e-07</v>
+        <v>2.734114140146589e-07</v>
       </c>
       <c r="DH2" t="n">
-        <v>3.651216312264359e-07</v>
+        <v>3.023411311194524e-07</v>
       </c>
       <c r="DI2" t="n">
         <v>0</v>
       </c>
       <c r="DJ2" t="n">
-        <v>7.962141205368625e-09</v>
+        <v>6.661682463367941e-09</v>
       </c>
       <c r="DK2" t="n">
-        <v>3.437798855245152e-10</v>
+        <v>2.850277848176648e-10</v>
       </c>
       <c r="DL2" t="n">
-        <v>1.760992992909378e-12</v>
+        <v>1.490582537584066e-12</v>
       </c>
       <c r="DM2" t="n">
-        <v>3.786675882453307e-11</v>
+        <v>3.397163254437789e-11</v>
       </c>
       <c r="DN2" t="n">
-        <v>1.243992654359028e-09</v>
+        <v>1.096063059062184e-09</v>
       </c>
       <c r="DO2" t="n">
         <v>0</v>
       </c>
       <c r="DP2" t="n">
-        <v>1.327562442819379e-11</v>
+        <v>1.145005110717641e-11</v>
       </c>
       <c r="DQ2" t="n">
-        <v>6.388315408255418e-13</v>
+        <v>5.512801110892305e-13</v>
       </c>
       <c r="DR2" t="n">
-        <v>6.236427960175826e-16</v>
+        <v>5.927978082991556e-16</v>
       </c>
       <c r="DS2" t="n">
         <v>0</v>
@@ -1643,109 +1643,109 @@
         <v>0</v>
       </c>
       <c r="DY2" t="n">
-        <v>9.263201066462393e-24</v>
+        <v>9.548813714624738e-24</v>
       </c>
       <c r="DZ2" t="n">
-        <v>2.546577697377536e-16</v>
+        <v>2.634031516911138e-16</v>
       </c>
       <c r="EA2" t="n">
-        <v>1.892381882233796e-09</v>
+        <v>1.958975334249318e-09</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.2256758726445471</v>
+        <v>0.2170734125160322</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.0001811135712232907</v>
+        <v>0.0001852819406223197</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.003047838540434291</v>
+        <v>0.003156490882481011</v>
       </c>
       <c r="EE2" t="n">
         <v>0</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.009122709887292082</v>
+        <v>0.008358894842469388</v>
       </c>
       <c r="EG2" t="n">
-        <v>45.76374715986674</v>
+        <v>43.82403759677042</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.008010068768777851</v>
+        <v>0.008094919327571622</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.009670091920880119</v>
+        <v>0.01001860694413209</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.009671803910525661</v>
+        <v>0.01002073680527772</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.145711807743856</v>
+        <v>1.187065851454961</v>
       </c>
       <c r="EL2" t="n">
-        <v>8.947271040397032</v>
+        <v>9.270228871785305</v>
       </c>
       <c r="EM2" t="n">
-        <v>19.54510178117068</v>
+        <v>20.25061000358655</v>
       </c>
       <c r="EN2" t="n">
-        <v>8.006474343521461</v>
+        <v>8.295488312561353</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.01403993070888112</v>
+        <v>0.01454670895244267</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.006755792581057265</v>
+        <v>0.006999662110418134</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.002653956544538992</v>
+        <v>0.00274975897485704</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.007881762802523697</v>
+        <v>0.008166278399896946</v>
       </c>
       <c r="ES2" t="n">
-        <v>1.104572754381669</v>
+        <v>1.144445582951756</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.578746568468153</v>
+        <v>0.5996381060692174</v>
       </c>
       <c r="EU2" t="n">
-        <v>2.932016215395487</v>
+        <v>3.03785603396554</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.3254042076530504</v>
+        <v>0.337150637334813</v>
       </c>
       <c r="EW2" t="n">
-        <v>7.488801002821739</v>
+        <v>7.759131478923479</v>
       </c>
       <c r="EX2" t="n">
         <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>1.195776195305765</v>
+        <v>1.238941282489459</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.03940881758374768</v>
+        <v>0.04083139569952442</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.001125966279057494</v>
+        <v>0.001166611370331441</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.02589722420556916</v>
+        <v>0.02683206129718998</v>
       </c>
       <c r="FC2" t="n">
-        <v>1.01224357672379</v>
+        <v>1.048783509875114</v>
       </c>
       <c r="FD2" t="n">
         <v>0</v>
       </c>
       <c r="FE2" t="n">
-        <v>1.164249199079529</v>
+        <v>1.206276225858535</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.2983810371040776</v>
+        <v>0.3091519853225819</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.1283601585255211</v>
+        <v>0.1329936990286836</v>
       </c>
       <c r="FH2" t="n">
         <v>0</v>

--- a/log/c620_wt_log.xlsx
+++ b/log/c620_wt_log.xlsx
@@ -1258,125 +1258,125 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>8888</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.71403116699935</v>
+        <v>2.695121119820783</v>
       </c>
       <c r="D2" t="n">
-        <v>53.5997396975144</v>
+        <v>53.22629144110505</v>
       </c>
       <c r="E2" t="n">
-        <v>31.85301908166584</v>
+        <v>31.79237954480439</v>
       </c>
       <c r="F2" t="n">
-        <v>4.044213102507071</v>
+        <v>4.126155099681022</v>
       </c>
       <c r="G2" t="n">
-        <v>0.817380984054707</v>
+        <v>0.8892608616973514</v>
       </c>
       <c r="H2" t="n">
-        <v>0.04904287205040092</v>
+        <v>0.05334499499737236</v>
       </c>
       <c r="I2" t="n">
-        <v>6.885383400118287</v>
+        <v>7.183924095174841</v>
       </c>
       <c r="J2" t="n">
-        <v>0.006959032432913243</v>
+        <v>0.00791708864297481</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002917806098027364</v>
+        <v>0.003251720400886572</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>9.69714560178551e-05</v>
+        <v>0.0001005860311042243</v>
       </c>
       <c r="N2" t="n">
-        <v>0.02720710064251893</v>
+        <v>0.02224508265172144</v>
       </c>
       <c r="O2" t="n">
-        <v>8.681164389933109e-06</v>
+        <v>8.260192472266214e-06</v>
       </c>
       <c r="P2" t="n">
-        <v>4.100164157773595e-09</v>
+        <v>5.253463542075714e-09</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.679633603058436e-09</v>
+        <v>2.05646499269611e-09</v>
       </c>
       <c r="R2" t="n">
-        <v>1.011498257588196e-08</v>
+        <v>1.018118318181719e-08</v>
       </c>
       <c r="S2" t="n">
-        <v>3.314433459902785e-08</v>
+        <v>3.356951160746248e-08</v>
       </c>
       <c r="T2" t="n">
-        <v>5.236005979697833e-08</v>
+        <v>5.183407436739801e-08</v>
       </c>
       <c r="U2" t="n">
-        <v>1.839843026964226e-09</v>
+        <v>1.828574776341576e-09</v>
       </c>
       <c r="V2" t="n">
-        <v>5.387692600459592e-11</v>
+        <v>7.354611382276559e-11</v>
       </c>
       <c r="W2" t="n">
-        <v>7.693327657563124e-14</v>
+        <v>7.755460305682264e-14</v>
       </c>
       <c r="X2" t="n">
-        <v>3.733564744705091e-14</v>
+        <v>4.617405755312308e-14</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.982510026496743e-15</v>
+        <v>4.018578143534463e-15</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.990720783505968e-12</v>
+        <v>2.017811509836999e-12</v>
       </c>
       <c r="AA2" t="n">
-        <v>6.4352727547928e-13</v>
+        <v>6.479575468591266e-13</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.088319412220221e-13</v>
+        <v>1.104183452272686e-13</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.904570109423545e-13</v>
+        <v>2.936947303444761e-13</v>
       </c>
       <c r="AD2" t="n">
-        <v>3.086092124408925e-14</v>
+        <v>3.119397612171628e-14</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.926528414258276e-16</v>
+        <v>1.910466392077587e-16</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.379464203440023e-17</v>
+        <v>1.374692621607527e-17</v>
       </c>
       <c r="AH2" t="n">
-        <v>2.077473365773284e-20</v>
+        <v>2.149528009347665e-20</v>
       </c>
       <c r="AI2" t="n">
-        <v>5.685688199576031e-19</v>
+        <v>5.820029424819391e-19</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.206445672521582e-17</v>
+        <v>1.256058367865531e-17</v>
       </c>
       <c r="AK2" t="n">
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>6.279493501439638e-21</v>
+        <v>6.326385616406068e-21</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.299115057040853e-22</v>
+        <v>1.35838686258928e-22</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.16846952943607e-27</v>
+        <v>3.352512686945632e-27</v>
       </c>
       <c r="AO2" t="n">
         <v>0</v>
@@ -1388,118 +1388,118 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.02010164240889484</v>
+        <v>0.01920402482046825</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.199794416385694</v>
+        <v>2.101565262962691</v>
       </c>
       <c r="AT2" t="n">
-        <v>4.453779597059164</v>
+        <v>4.276597848030337</v>
       </c>
       <c r="AU2" t="n">
-        <v>2.006625339165485</v>
+        <v>1.969586541348478</v>
       </c>
       <c r="AV2" t="n">
-        <v>1.027804084269509</v>
+        <v>1.075752209372199</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.1976994101726686</v>
+        <v>0.2068809090475599</v>
       </c>
       <c r="AX2" t="n">
-        <v>88.16960308249729</v>
+        <v>88.50131675090518</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.05562716627717863</v>
+        <v>0.06088367616538314</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.05204657225355335</v>
+        <v>0.05580157947338826</v>
       </c>
       <c r="BA2" t="n">
         <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.0044696754182013</v>
+        <v>0.00479859058081611</v>
       </c>
       <c r="BC2" t="n">
-        <v>1.812051816575728</v>
+        <v>1.727194885800787</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.0002757755083410862</v>
+        <v>0.0003011232158506502</v>
       </c>
       <c r="BE2" t="n">
-        <v>1.585287238625901e-06</v>
+        <v>1.730832374575276e-06</v>
       </c>
       <c r="BF2" t="n">
-        <v>7.49972886482383e-07</v>
+        <v>8.188398576225588e-07</v>
       </c>
       <c r="BG2" t="n">
-        <v>1.038411247960721e-05</v>
+        <v>9.978364528421539e-06</v>
       </c>
       <c r="BH2" t="n">
-        <v>4.053768177584842e-05</v>
+        <v>3.881773865400224e-05</v>
       </c>
       <c r="BI2" t="n">
-        <v>6.484807992945085e-05</v>
+        <v>6.207472238795227e-05</v>
       </c>
       <c r="BJ2" t="n">
-        <v>3.258966373266431e-06</v>
+        <v>3.1157437128423e-06</v>
       </c>
       <c r="BK2" t="n">
-        <v>4.914817523177494e-08</v>
+        <v>5.366115343610393e-08</v>
       </c>
       <c r="BL2" t="n">
-        <v>1.741136525713667e-10</v>
+        <v>1.66338799390675e-10</v>
       </c>
       <c r="BM2" t="n">
-        <v>4.341072097176452e-11</v>
+        <v>4.739687403230992e-11</v>
       </c>
       <c r="BN2" t="n">
-        <v>1.356188171798649e-11</v>
+        <v>1.295629482512342e-11</v>
       </c>
       <c r="BO2" t="n">
-        <v>5.293435375984415e-09</v>
+        <v>5.057063117729815e-09</v>
       </c>
       <c r="BP2" t="n">
-        <v>1.727677512580947e-09</v>
+        <v>1.650529969743057e-09</v>
       </c>
       <c r="BQ2" t="n">
-        <v>6.072815404192162e-10</v>
+        <v>5.801640042208907e-10</v>
       </c>
       <c r="BR2" t="n">
-        <v>6.923832348243797e-10</v>
+        <v>6.614656750091046e-10</v>
       </c>
       <c r="BS2" t="n">
-        <v>2.054013591516476e-10</v>
+        <v>1.962293909290885e-10</v>
       </c>
       <c r="BT2" t="n">
         <v>0</v>
       </c>
       <c r="BU2" t="n">
-        <v>1.914755879560026e-12</v>
+        <v>1.829254426476914e-12</v>
       </c>
       <c r="BV2" t="n">
-        <v>9.617625506096119e-14</v>
+        <v>9.188161893319496e-14</v>
       </c>
       <c r="BW2" t="n">
-        <v>2.387024499796258e-16</v>
+        <v>2.28043464730278e-16</v>
       </c>
       <c r="BX2" t="n">
-        <v>5.107985078971899e-15</v>
+        <v>4.879893235916287e-15</v>
       </c>
       <c r="BY2" t="n">
-        <v>1.505166662102754e-13</v>
+        <v>1.437955144413786e-13</v>
       </c>
       <c r="BZ2" t="n">
         <v>0</v>
       </c>
       <c r="CA2" t="n">
-        <v>2.141165158759857e-16</v>
+        <v>2.045553785841264e-16</v>
       </c>
       <c r="CB2" t="n">
-        <v>5.210042853027194e-18</v>
+        <v>4.977394160853814e-18</v>
       </c>
       <c r="CC2" t="n">
-        <v>3.779032516856507e-22</v>
+        <v>3.610283738736229e-22</v>
       </c>
       <c r="CD2" t="n">
         <v>0</v>
@@ -1511,118 +1511,118 @@
         <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.0003343561715082666</v>
+        <v>0.0003067626616073767</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.0216545686623432</v>
+        <v>0.01986748628586861</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.04106417206088502</v>
+        <v>0.03786735881447621</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.02686938134111512</v>
+        <v>0.0253278644959872</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.02516489392536681</v>
+        <v>0.02529467168487283</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.01839440068045068</v>
+        <v>0.01848556460394706</v>
       </c>
       <c r="CM2" t="n">
-        <v>69.52393312163424</v>
+        <v>67.01889199037713</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.02190942470577657</v>
+        <v>0.02302909667529066</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.05334476560554074</v>
+        <v>0.05492602647912397</v>
       </c>
       <c r="CP2" t="n">
         <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.02340469005358193</v>
+        <v>0.0254560863782893</v>
       </c>
       <c r="CR2" t="n">
-        <v>30.23598174273442</v>
+        <v>32.74211540682237</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.002289249307558654</v>
+        <v>0.003043338821000077</v>
       </c>
       <c r="CT2" t="n">
-        <v>2.627030976199887e-05</v>
+        <v>2.991203318738563e-05</v>
       </c>
       <c r="CU2" t="n">
-        <v>1.444835178373056e-05</v>
+        <v>1.585122672056609e-05</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.0003766982814818166</v>
+        <v>0.0003606487121681038</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.001809976787624915</v>
+        <v>0.001741319530784126</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.003131012814064291</v>
+        <v>0.002956226107860752</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.0002910333401375669</v>
+        <v>0.0002785102677090944</v>
       </c>
       <c r="CZ2" t="n">
-        <v>2.326505472742829e-06</v>
+        <v>2.569299377876625e-06</v>
       </c>
       <c r="DA2" t="n">
-        <v>3.507543645587063e-08</v>
+        <v>3.40064353866902e-08</v>
       </c>
       <c r="DB2" t="n">
-        <v>8.942368410339862e-09</v>
+        <v>9.633139853891721e-09</v>
       </c>
       <c r="DC2" t="n">
-        <v>5.844827793614924e-09</v>
+        <v>5.554746166753464e-09</v>
       </c>
       <c r="DD2" t="n">
-        <v>1.69278427433024e-06</v>
+        <v>1.625370510223623e-06</v>
       </c>
       <c r="DE2" t="n">
-        <v>6.32286678097174e-07</v>
+        <v>5.980731797697055e-07</v>
       </c>
       <c r="DF2" t="n">
-        <v>5.079505069542724e-07</v>
+        <v>4.849561484478674e-07</v>
       </c>
       <c r="DG2" t="n">
-        <v>2.734114140146589e-07</v>
+        <v>2.590597131221323e-07</v>
       </c>
       <c r="DH2" t="n">
-        <v>3.023411311194524e-07</v>
+        <v>2.843996094583119e-07</v>
       </c>
       <c r="DI2" t="n">
         <v>0</v>
       </c>
       <c r="DJ2" t="n">
-        <v>6.661682463367941e-09</v>
+        <v>6.28896748818226e-09</v>
       </c>
       <c r="DK2" t="n">
-        <v>2.850277848176648e-10</v>
+        <v>2.680512567135028e-10</v>
       </c>
       <c r="DL2" t="n">
-        <v>1.490582537584066e-12</v>
+        <v>1.427929183561139e-12</v>
       </c>
       <c r="DM2" t="n">
-        <v>3.397163254437789e-11</v>
+        <v>3.351137033083174e-11</v>
       </c>
       <c r="DN2" t="n">
-        <v>1.096063059062184e-09</v>
+        <v>1.065267283018654e-09</v>
       </c>
       <c r="DO2" t="n">
         <v>0</v>
       </c>
       <c r="DP2" t="n">
-        <v>1.145005110717641e-11</v>
+        <v>1.098758823452899e-11</v>
       </c>
       <c r="DQ2" t="n">
-        <v>5.512801110892305e-13</v>
+        <v>5.303724519500336e-13</v>
       </c>
       <c r="DR2" t="n">
-        <v>5.927978082991556e-16</v>
+        <v>5.931700783872297e-16</v>
       </c>
       <c r="DS2" t="n">
         <v>0</v>
@@ -1643,109 +1643,109 @@
         <v>0</v>
       </c>
       <c r="DY2" t="n">
-        <v>9.548813714624738e-24</v>
+        <v>9.451423474033581e-24</v>
       </c>
       <c r="DZ2" t="n">
-        <v>2.634031516911138e-16</v>
+        <v>2.870007322460189e-16</v>
       </c>
       <c r="EA2" t="n">
-        <v>1.958975334249318e-09</v>
+        <v>2.145753006480015e-09</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.2170734125160322</v>
+        <v>0.2268537389750746</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.0001852819406223197</v>
+        <v>0.0001911761413062874</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.003156490882481011</v>
+        <v>0.003565066877047534</v>
       </c>
       <c r="EE2" t="n">
         <v>0</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.008358894842469388</v>
+        <v>0.009444984176994633</v>
       </c>
       <c r="EG2" t="n">
-        <v>43.82403759677042</v>
+        <v>43.36933570197773</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.008094919327571622</v>
+        <v>0.009187613606005183</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.01001860694413209</v>
+        <v>0.01152344946251314</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.01002073680527772</v>
+        <v>0.01152622025874376</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.187065851454961</v>
+        <v>1.201718346158344</v>
       </c>
       <c r="EL2" t="n">
-        <v>9.270228871785305</v>
+        <v>9.351915113139516</v>
       </c>
       <c r="EM2" t="n">
-        <v>20.25061000358655</v>
+        <v>20.42184257783063</v>
       </c>
       <c r="EN2" t="n">
-        <v>8.295488312561353</v>
+        <v>8.355321889872723</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.01454670895244267</v>
+        <v>0.01673232964847522</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.006999662110418134</v>
+        <v>0.007044941816189998</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.00274975897485704</v>
+        <v>0.003162910749800845</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.008166278399896946</v>
+        <v>0.008219106337294979</v>
       </c>
       <c r="ES2" t="n">
-        <v>1.144445582951756</v>
+        <v>1.151848923195963</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.5996381060692174</v>
+        <v>0.6035171414540885</v>
       </c>
       <c r="EU2" t="n">
-        <v>3.03785603396554</v>
+        <v>3.057507375207313</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.337150637334813</v>
+        <v>0.3393316462198112</v>
       </c>
       <c r="EW2" t="n">
-        <v>7.759131478923479</v>
+        <v>7.809325155245324</v>
       </c>
       <c r="EX2" t="n">
         <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>1.238941282489459</v>
+        <v>1.24695585565852</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.04083139569952442</v>
+        <v>0.0410955330248788</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.001166611370331441</v>
+        <v>0.001174158188246717</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.02683206129718998</v>
+        <v>0.0270056347659182</v>
       </c>
       <c r="FC2" t="n">
-        <v>1.048783509875114</v>
+        <v>1.055568084032904</v>
       </c>
       <c r="FD2" t="n">
         <v>0</v>
       </c>
       <c r="FE2" t="n">
-        <v>1.206276225858535</v>
+        <v>1.214079421627429</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.3091519853225819</v>
+        <v>0.3111518806585371</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.1329936990286836</v>
+        <v>0.1338540215469064</v>
       </c>
       <c r="FH2" t="n">
         <v>0</v>

--- a/log/c620_wt_log.xlsx
+++ b/log/c620_wt_log.xlsx
@@ -1258,125 +1258,125 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>8888</t>
+          <t>12345</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.695121119820783</v>
+        <v>2.633483965834324</v>
       </c>
       <c r="D2" t="n">
-        <v>53.22629144110505</v>
+        <v>52.20275356396684</v>
       </c>
       <c r="E2" t="n">
-        <v>31.79237954480439</v>
+        <v>31.27731347149251</v>
       </c>
       <c r="F2" t="n">
-        <v>4.126155099681022</v>
+        <v>4.103461883953127</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8892608616973514</v>
+        <v>0.9210077612122523</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05334499499737236</v>
+        <v>0.05540657818842977</v>
       </c>
       <c r="I2" t="n">
-        <v>7.183924095174841</v>
+        <v>8.778181718840072</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00791708864297481</v>
+        <v>0.008449570810177302</v>
       </c>
       <c r="K2" t="n">
-        <v>0.003251720400886572</v>
+        <v>0.003529805244438353</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0001005860311042243</v>
+        <v>0.0001030568886318935</v>
       </c>
       <c r="N2" t="n">
-        <v>0.02224508265172144</v>
+        <v>0.01630457213383087</v>
       </c>
       <c r="O2" t="n">
-        <v>8.260192472266214e-06</v>
+        <v>3.973089675111704e-06</v>
       </c>
       <c r="P2" t="n">
-        <v>5.253463542075714e-09</v>
+        <v>3.684569475847891e-09</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.05646499269611e-09</v>
+        <v>1.652698050477428e-09</v>
       </c>
       <c r="R2" t="n">
-        <v>1.018118318181719e-08</v>
+        <v>8.602286991364238e-09</v>
       </c>
       <c r="S2" t="n">
-        <v>3.356951160746248e-08</v>
+        <v>2.55777719106813e-08</v>
       </c>
       <c r="T2" t="n">
-        <v>5.183407436739801e-08</v>
+        <v>3.72548063669531e-08</v>
       </c>
       <c r="U2" t="n">
-        <v>1.828574776341576e-09</v>
+        <v>1.52832594902369e-09</v>
       </c>
       <c r="V2" t="n">
-        <v>7.354611382276559e-11</v>
+        <v>4.126367600207386e-11</v>
       </c>
       <c r="W2" t="n">
-        <v>7.755460305682264e-14</v>
+        <v>1.87781706692646e-13</v>
       </c>
       <c r="X2" t="n">
-        <v>4.617405755312308e-14</v>
+        <v>3.482471502476989e-14</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.018578143534463e-15</v>
+        <v>1.020712411184433e-14</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.017811509836999e-12</v>
+        <v>2.458397582346352e-12</v>
       </c>
       <c r="AA2" t="n">
-        <v>6.479575468591266e-13</v>
+        <v>7.725547707918011e-13</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.104183452272686e-13</v>
+        <v>1.437485645480808e-13</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.936947303444761e-13</v>
+        <v>3.314783333512599e-13</v>
       </c>
       <c r="AD2" t="n">
-        <v>3.119397612171628e-14</v>
+        <v>4.078789306231247e-14</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.910466392077587e-16</v>
+        <v>2.628475021394309e-16</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.374692621607527e-17</v>
+        <v>2.606408330531969e-17</v>
       </c>
       <c r="AH2" t="n">
-        <v>2.149528009347665e-20</v>
+        <v>2.350695417859316e-20</v>
       </c>
       <c r="AI2" t="n">
-        <v>5.820029424819391e-19</v>
+        <v>6.127357206547005e-19</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.256058367865531e-17</v>
+        <v>1.228341835568575e-17</v>
       </c>
       <c r="AK2" t="n">
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>6.326385616406068e-21</v>
+        <v>6.833970453019401e-21</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.35838686258928e-22</v>
+        <v>1.953981488500816e-22</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.352512686945632e-27</v>
+        <v>4.565550507189004e-27</v>
       </c>
       <c r="AO2" t="n">
         <v>0</v>
@@ -1388,118 +1388,118 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.01920402482046825</v>
+        <v>0.0155914582393788</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.101565262962691</v>
+        <v>1.712585139930041</v>
       </c>
       <c r="AT2" t="n">
-        <v>4.276597848030337</v>
+        <v>3.495802651445558</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.969586541348478</v>
+        <v>1.627503791349767</v>
       </c>
       <c r="AV2" t="n">
-        <v>1.075752209372199</v>
+        <v>0.9257387526427747</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.2068809090475599</v>
+        <v>0.1785377893028478</v>
       </c>
       <c r="AX2" t="n">
-        <v>88.50131675090518</v>
+        <v>89.85338168312421</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.06088367616538314</v>
+        <v>0.05398984770093361</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.05580157947338826</v>
+        <v>0.05032987916777911</v>
       </c>
       <c r="BA2" t="n">
         <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.00479859058081611</v>
+        <v>0.004391914777808772</v>
       </c>
       <c r="BC2" t="n">
-        <v>1.727194885800787</v>
+        <v>2.081800081441572</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.0003011232158506502</v>
+        <v>0.0002654074687669719</v>
       </c>
       <c r="BE2" t="n">
-        <v>1.730832374575276e-06</v>
+        <v>1.532239343205661e-06</v>
       </c>
       <c r="BF2" t="n">
-        <v>8.188398576225588e-07</v>
+        <v>7.248833732587497e-07</v>
       </c>
       <c r="BG2" t="n">
-        <v>9.978364528421539e-06</v>
+        <v>7.840332746073341e-06</v>
       </c>
       <c r="BH2" t="n">
-        <v>3.881773865400224e-05</v>
+        <v>2.709425962986264e-05</v>
       </c>
       <c r="BI2" t="n">
-        <v>6.207472238795227e-05</v>
+        <v>4.206148663664889e-05</v>
       </c>
       <c r="BJ2" t="n">
-        <v>3.1157437128423e-06</v>
+        <v>2.293108589199612e-06</v>
       </c>
       <c r="BK2" t="n">
-        <v>5.366115343610393e-08</v>
+        <v>4.75029492308013e-08</v>
       </c>
       <c r="BL2" t="n">
-        <v>1.66338799390675e-10</v>
+        <v>3.65750951142101e-10</v>
       </c>
       <c r="BM2" t="n">
-        <v>4.739687403230992e-11</v>
+        <v>4.195885993267389e-11</v>
       </c>
       <c r="BN2" t="n">
-        <v>1.295629482512342e-11</v>
+        <v>3.005383287851359e-11</v>
       </c>
       <c r="BO2" t="n">
-        <v>5.057063117729815e-09</v>
+        <v>5.64998696378464e-09</v>
       </c>
       <c r="BP2" t="n">
-        <v>1.650529969743057e-09</v>
+        <v>1.844499311476798e-09</v>
       </c>
       <c r="BQ2" t="n">
-        <v>5.801640042208907e-10</v>
+        <v>6.889389860973381e-10</v>
       </c>
       <c r="BR2" t="n">
-        <v>6.614656750091046e-10</v>
+        <v>7.386438421951086e-10</v>
       </c>
       <c r="BS2" t="n">
-        <v>1.962293909290885e-10</v>
+        <v>2.330083599620291e-10</v>
       </c>
       <c r="BT2" t="n">
         <v>0</v>
       </c>
       <c r="BU2" t="n">
-        <v>1.829254426476914e-12</v>
+        <v>2.171066241174851e-12</v>
       </c>
       <c r="BV2" t="n">
-        <v>9.188161893319496e-14</v>
+        <v>1.491925878938256e-13</v>
       </c>
       <c r="BW2" t="n">
-        <v>2.28043464730278e-16</v>
+        <v>2.314310867307464e-16</v>
       </c>
       <c r="BX2" t="n">
-        <v>4.879893235916287e-15</v>
+        <v>4.737052635953615e-15</v>
       </c>
       <c r="BY2" t="n">
-        <v>1.437955144413786e-13</v>
+        <v>1.355420370779097e-13</v>
       </c>
       <c r="BZ2" t="n">
         <v>0</v>
       </c>
       <c r="CA2" t="n">
-        <v>2.045553785841264e-16</v>
+        <v>1.931354516585887e-16</v>
       </c>
       <c r="CB2" t="n">
-        <v>4.977394160853814e-18</v>
+        <v>6.709675852482943e-18</v>
       </c>
       <c r="CC2" t="n">
-        <v>3.610283738736229e-22</v>
+        <v>4.853062115244562e-22</v>
       </c>
       <c r="CD2" t="n">
         <v>0</v>
@@ -1511,118 +1511,118 @@
         <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.0003067626616073767</v>
+        <v>0.0002722775429460253</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.01986748628586861</v>
+        <v>0.01769973342125668</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.03786735881447621</v>
+        <v>0.03383986328985861</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.0253278644959872</v>
+        <v>0.02288025558761776</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.02529467168487283</v>
+        <v>0.02379691705262982</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.01848556460394706</v>
+        <v>0.01744045894929944</v>
       </c>
       <c r="CM2" t="n">
-        <v>67.01889199037713</v>
+        <v>74.38710476391627</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.02302909667529066</v>
+        <v>0.02232562433956503</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.05492602647912397</v>
+        <v>0.05415934421159896</v>
       </c>
       <c r="CP2" t="n">
         <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.0254560863782893</v>
+        <v>0.02277208680142683</v>
       </c>
       <c r="CR2" t="n">
-        <v>32.74211540682237</v>
+        <v>25.39226316847565</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.003043338821000077</v>
+        <v>0.001645552512421801</v>
       </c>
       <c r="CT2" t="n">
-        <v>2.991203318738563e-05</v>
+        <v>2.446278750628918e-05</v>
       </c>
       <c r="CU2" t="n">
-        <v>1.585122672056609e-05</v>
+        <v>1.384727763562398e-05</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.0003606487121681038</v>
+        <v>0.0002862209632671398</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.001741319530784126</v>
+        <v>0.001210898730205196</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.002956226107860752</v>
+        <v>0.002052839899815704</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.0002785102677090944</v>
+        <v>0.0002056396276596385</v>
       </c>
       <c r="CZ2" t="n">
-        <v>2.569299377876625e-06</v>
+        <v>2.230887668609554e-06</v>
       </c>
       <c r="DA2" t="n">
-        <v>3.40064353866902e-08</v>
+        <v>7.259930312979356e-08</v>
       </c>
       <c r="DB2" t="n">
-        <v>9.633139853891721e-09</v>
+        <v>8.829139338687435e-09</v>
       </c>
       <c r="DC2" t="n">
-        <v>5.554746166753464e-09</v>
+        <v>1.311514215382403e-08</v>
       </c>
       <c r="DD2" t="n">
-        <v>1.625370510223623e-06</v>
+        <v>1.810200324990609e-06</v>
       </c>
       <c r="DE2" t="n">
-        <v>5.980731797697055e-07</v>
+        <v>6.77890688215548e-07</v>
       </c>
       <c r="DF2" t="n">
-        <v>4.849561484478674e-07</v>
+        <v>5.756589147676441e-07</v>
       </c>
       <c r="DG2" t="n">
-        <v>2.590597131221323e-07</v>
+        <v>2.965071269212473e-07</v>
       </c>
       <c r="DH2" t="n">
-        <v>2.843996094583119e-07</v>
+        <v>3.498280565655494e-07</v>
       </c>
       <c r="DI2" t="n">
         <v>0</v>
       </c>
       <c r="DJ2" t="n">
-        <v>6.28896748818226e-09</v>
+        <v>7.640047418892138e-09</v>
       </c>
       <c r="DK2" t="n">
-        <v>2.680512567135028e-10</v>
+        <v>4.504760842904491e-10</v>
       </c>
       <c r="DL2" t="n">
-        <v>1.427929183561139e-12</v>
+        <v>1.450324586237098e-12</v>
       </c>
       <c r="DM2" t="n">
-        <v>3.351137033083174e-11</v>
+        <v>3.038003792249302e-11</v>
       </c>
       <c r="DN2" t="n">
-        <v>1.065267283018654e-09</v>
+        <v>9.637291439134571e-10</v>
       </c>
       <c r="DO2" t="n">
         <v>0</v>
       </c>
       <c r="DP2" t="n">
-        <v>1.098758823452899e-11</v>
+        <v>1.023095900252428e-11</v>
       </c>
       <c r="DQ2" t="n">
-        <v>5.303724519500336e-13</v>
+        <v>7.037068956921497e-13</v>
       </c>
       <c r="DR2" t="n">
-        <v>5.931700783872297e-16</v>
+        <v>7.055194292574936e-16</v>
       </c>
       <c r="DS2" t="n">
         <v>0</v>
@@ -1643,109 +1643,109 @@
         <v>0</v>
       </c>
       <c r="DY2" t="n">
-        <v>9.451423474033581e-24</v>
+        <v>6.402159146805853e-24</v>
       </c>
       <c r="DZ2" t="n">
-        <v>2.870007322460189e-16</v>
+        <v>2.298340608822932e-16</v>
       </c>
       <c r="EA2" t="n">
-        <v>2.145753006480015e-09</v>
+        <v>1.767404715868373e-09</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.2268537389750746</v>
+        <v>0.2245370172748392</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.0001911761413062874</v>
+        <v>0.0001521979604970789</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.003565066877047534</v>
+        <v>0.003140460799621149</v>
       </c>
       <c r="EE2" t="n">
         <v>0</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.009444984176994633</v>
+        <v>0.008476531487228576</v>
       </c>
       <c r="EG2" t="n">
-        <v>43.36933570197773</v>
+        <v>53.76202197088693</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.009187613606005183</v>
+        <v>0.008167408547389347</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.01152344946251314</v>
+        <v>0.009964526647567837</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.01152622025874376</v>
+        <v>0.009966407255919888</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.201718346158344</v>
+        <v>0.9222473456423789</v>
       </c>
       <c r="EL2" t="n">
-        <v>9.351915113139516</v>
+        <v>6.375475548514814</v>
       </c>
       <c r="EM2" t="n">
-        <v>20.42184257783063</v>
+        <v>13.51553634003686</v>
       </c>
       <c r="EN2" t="n">
-        <v>8.355321889872723</v>
+        <v>6.006158373400879</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.01673232964847522</v>
+        <v>0.01446766137740359</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.007044941816189998</v>
+        <v>0.01512985607605547</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.003162910749800845</v>
+        <v>0.00273481274878614</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.008219106337294979</v>
+        <v>0.01862137344296968</v>
       </c>
       <c r="ES2" t="n">
-        <v>1.151848923195963</v>
+        <v>1.256942652575957</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.6035171414540885</v>
+        <v>0.6587310490138459</v>
       </c>
       <c r="EU2" t="n">
-        <v>3.057507375207313</v>
+        <v>3.546208171352651</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.3393316462198112</v>
+        <v>0.3700997823956372</v>
       </c>
       <c r="EW2" t="n">
-        <v>7.809325155245324</v>
+        <v>9.056970820731417</v>
       </c>
       <c r="EX2" t="n">
         <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>1.24695585565852</v>
+        <v>1.445484009949459</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.0410955330248788</v>
+        <v>0.06517481654764364</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.001174158188246717</v>
+        <v>0.001163835978612657</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.0270056347659182</v>
+        <v>0.02560439021233908</v>
       </c>
       <c r="FC2" t="n">
-        <v>1.055568084032904</v>
+        <v>0.9718030385607521</v>
       </c>
       <c r="FD2" t="n">
         <v>0</v>
       </c>
       <c r="FE2" t="n">
-        <v>1.214079421627429</v>
+        <v>1.119610132857762</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.3111518806585371</v>
+        <v>0.4096702434475067</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.1338540215469064</v>
+        <v>0.1757392225088437</v>
       </c>
       <c r="FH2" t="n">
         <v>0</v>

--- a/log/c620_wt_log.xlsx
+++ b/log/c620_wt_log.xlsx
@@ -1258,125 +1258,125 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>12345</t>
+          <t>4321</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.633483965834324</v>
+        <v>2.623506763098155</v>
       </c>
       <c r="D2" t="n">
-        <v>52.20275356396684</v>
+        <v>52.00498326119875</v>
       </c>
       <c r="E2" t="n">
-        <v>31.27731347149251</v>
+        <v>31.24623822297922</v>
       </c>
       <c r="F2" t="n">
-        <v>4.103461883953127</v>
+        <v>4.147599854365454</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9210077612122523</v>
+        <v>0.9595637160643303</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05540657818842977</v>
+        <v>0.0577136022515311</v>
       </c>
       <c r="I2" t="n">
-        <v>8.778181718840072</v>
+        <v>8.932258806047592</v>
       </c>
       <c r="J2" t="n">
-        <v>0.008449570810177302</v>
+        <v>0.008958260162054971</v>
       </c>
       <c r="K2" t="n">
-        <v>0.003529805244438353</v>
+        <v>0.003708414130446731</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0001030568886318935</v>
+        <v>0.000109247469866481</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01630457213383087</v>
+        <v>0.01535628732957194</v>
       </c>
       <c r="O2" t="n">
-        <v>3.973089675111704e-06</v>
+        <v>3.486784743956679e-06</v>
       </c>
       <c r="P2" t="n">
-        <v>3.684569475847891e-09</v>
+        <v>3.860334250593882e-09</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.652698050477428e-09</v>
+        <v>1.736003328474806e-09</v>
       </c>
       <c r="R2" t="n">
-        <v>8.602286991364238e-09</v>
+        <v>8.555898255606335e-09</v>
       </c>
       <c r="S2" t="n">
-        <v>2.55777719106813e-08</v>
+        <v>2.544049889070801e-08</v>
       </c>
       <c r="T2" t="n">
-        <v>3.72548063669531e-08</v>
+        <v>3.695920713126576e-08</v>
       </c>
       <c r="U2" t="n">
-        <v>1.52832594902369e-09</v>
+        <v>1.519687976238585e-09</v>
       </c>
       <c r="V2" t="n">
-        <v>4.126367600207386e-11</v>
+        <v>4.271268534219681e-11</v>
       </c>
       <c r="W2" t="n">
-        <v>1.87781706692646e-13</v>
+        <v>1.864821733589795e-13</v>
       </c>
       <c r="X2" t="n">
-        <v>3.482471502476989e-14</v>
+        <v>3.635247036461264e-14</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.020712411184433e-14</v>
+        <v>1.013433024825873e-14</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.458397582346352e-12</v>
+        <v>2.442383414208816e-12</v>
       </c>
       <c r="AA2" t="n">
-        <v>7.725547707918011e-13</v>
+        <v>7.661604758626842e-13</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.437485645480808e-13</v>
+        <v>1.428378381077278e-13</v>
       </c>
       <c r="AC2" t="n">
-        <v>3.314783333512599e-13</v>
+        <v>3.275013655253006e-13</v>
       </c>
       <c r="AD2" t="n">
-        <v>4.078789306231247e-14</v>
+        <v>4.052069522622197e-14</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.628475021394309e-16</v>
+        <v>2.614216745054872e-16</v>
       </c>
       <c r="AG2" t="n">
-        <v>2.606408330531969e-17</v>
+        <v>2.593839989475544e-17</v>
       </c>
       <c r="AH2" t="n">
-        <v>2.350695417859316e-20</v>
+        <v>2.336084922086028e-20</v>
       </c>
       <c r="AI2" t="n">
-        <v>6.127357206547005e-19</v>
+        <v>6.088044554430664e-19</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.228341835568575e-17</v>
+        <v>1.219042458298281e-17</v>
       </c>
       <c r="AK2" t="n">
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>6.833970453019401e-21</v>
+        <v>6.799807448345208e-21</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.953981488500816e-22</v>
+        <v>1.943341129521042e-22</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.565550507189004e-27</v>
+        <v>4.529693235418907e-27</v>
       </c>
       <c r="AO2" t="n">
         <v>0</v>
@@ -1388,118 +1388,118 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.0155914582393788</v>
+        <v>0.01528326933957013</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.712585139930041</v>
+        <v>1.678733183308714</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.495802651445558</v>
+        <v>3.436316773105426</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.627503791349767</v>
+        <v>1.618625744254329</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.9257387526427747</v>
+        <v>0.9490234847893276</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.1785377893028478</v>
+        <v>0.1829890038952574</v>
       </c>
       <c r="AX2" t="n">
-        <v>89.85338168312421</v>
+        <v>89.96408397745276</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.05398984770093361</v>
+        <v>0.05632213035023522</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.05032987916777911</v>
+        <v>0.05202850782899979</v>
       </c>
       <c r="BA2" t="n">
         <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.004391914777808772</v>
+        <v>0.004608316663057037</v>
       </c>
       <c r="BC2" t="n">
-        <v>2.081800081441572</v>
+        <v>2.041628632529632</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.0002654074687669719</v>
+        <v>0.0002767206782975946</v>
       </c>
       <c r="BE2" t="n">
-        <v>1.532239343205661e-06</v>
+        <v>1.597837391423054e-06</v>
       </c>
       <c r="BF2" t="n">
-        <v>7.248833732587497e-07</v>
+        <v>7.559148938451406e-07</v>
       </c>
       <c r="BG2" t="n">
-        <v>7.840332746073341e-06</v>
+        <v>7.711052637592731e-06</v>
       </c>
       <c r="BH2" t="n">
-        <v>2.709425962986264e-05</v>
+        <v>2.659871277698889e-05</v>
       </c>
       <c r="BI2" t="n">
-        <v>4.206148663664889e-05</v>
+        <v>4.128452305306744e-05</v>
       </c>
       <c r="BJ2" t="n">
-        <v>2.293108589199612e-06</v>
+        <v>2.248818444756267e-06</v>
       </c>
       <c r="BK2" t="n">
-        <v>4.75029492308013e-08</v>
+        <v>4.953689860554196e-08</v>
       </c>
       <c r="BL2" t="n">
-        <v>3.65750951142101e-10</v>
+        <v>3.585224840674446e-10</v>
       </c>
       <c r="BM2" t="n">
-        <v>4.195885993267389e-11</v>
+        <v>4.375489534936021e-11</v>
       </c>
       <c r="BN2" t="n">
-        <v>3.005383287851359e-11</v>
+        <v>2.945990229988288e-11</v>
       </c>
       <c r="BO2" t="n">
-        <v>5.64998696378464e-09</v>
+        <v>5.53834528922085e-09</v>
       </c>
       <c r="BP2" t="n">
-        <v>1.844499311476798e-09</v>
+        <v>1.808043280983357e-09</v>
       </c>
       <c r="BQ2" t="n">
-        <v>6.889389860973381e-10</v>
+        <v>6.753239989670142e-10</v>
       </c>
       <c r="BR2" t="n">
-        <v>7.386438421951086e-10</v>
+        <v>7.240459355658777e-10</v>
       </c>
       <c r="BS2" t="n">
-        <v>2.330083599620291e-10</v>
+        <v>2.284028369481039e-10</v>
       </c>
       <c r="BT2" t="n">
         <v>0</v>
       </c>
       <c r="BU2" t="n">
-        <v>2.171066241174851e-12</v>
+        <v>2.12815640569726e-12</v>
       </c>
       <c r="BV2" t="n">
-        <v>1.491925878938256e-13</v>
+        <v>1.462441778311512e-13</v>
       </c>
       <c r="BW2" t="n">
-        <v>2.314310867307464e-16</v>
+        <v>2.268565565274775e-16</v>
       </c>
       <c r="BX2" t="n">
-        <v>4.737052635953615e-15</v>
+        <v>4.643422207308702e-15</v>
       </c>
       <c r="BY2" t="n">
-        <v>1.355420370779097e-13</v>
+        <v>1.328630724761975e-13</v>
       </c>
       <c r="BZ2" t="n">
         <v>0</v>
       </c>
       <c r="CA2" t="n">
-        <v>1.931354516585887e-16</v>
+        <v>1.893190913170702e-16</v>
       </c>
       <c r="CB2" t="n">
-        <v>6.709675852482943e-18</v>
+        <v>6.577058567105002e-18</v>
       </c>
       <c r="CC2" t="n">
-        <v>4.853062115244562e-22</v>
+        <v>4.757141150800488e-22</v>
       </c>
       <c r="CD2" t="n">
         <v>0</v>
@@ -1511,118 +1511,118 @@
         <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.0002722775429460253</v>
+        <v>0.000269430234987655</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.01769973342125668</v>
+        <v>0.01751464002111282</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.03383986328985861</v>
+        <v>0.03357995157420891</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.02288025558761776</v>
+        <v>0.02297156608128238</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.02379691705262982</v>
+        <v>0.02462717374254652</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.01744045894929944</v>
+        <v>0.01804505090051646</v>
       </c>
       <c r="CM2" t="n">
-        <v>74.38710476391627</v>
+        <v>75.18611598747499</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.02232562433956503</v>
+        <v>0.02351126273913969</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.05415934421159896</v>
+        <v>0.05651897169420677</v>
       </c>
       <c r="CP2" t="n">
         <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.02277208680142683</v>
+        <v>0.02365741453189669</v>
       </c>
       <c r="CR2" t="n">
-        <v>25.39226316847565</v>
+        <v>24.58771727780258</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.001645552512421801</v>
+        <v>0.001708062194464512</v>
       </c>
       <c r="CT2" t="n">
-        <v>2.446278750628918e-05</v>
+        <v>2.569237585933565e-05</v>
       </c>
       <c r="CU2" t="n">
-        <v>1.384727763562398e-05</v>
+        <v>1.455770137064414e-05</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.0002862209632671398</v>
+        <v>0.0002836967832058506</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.001210898730205196</v>
+        <v>0.001198061059575695</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.002052839899815704</v>
+        <v>0.002031716347022669</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.0002056396276596385</v>
+        <v>0.0002033728905297013</v>
       </c>
       <c r="CZ2" t="n">
-        <v>2.230887668609554e-06</v>
+        <v>2.344816333710113e-06</v>
       </c>
       <c r="DA2" t="n">
-        <v>7.259930312979356e-08</v>
+        <v>7.170669668724331e-08</v>
       </c>
       <c r="DB2" t="n">
-        <v>8.829139338687435e-09</v>
+        <v>9.290038788231786e-09</v>
       </c>
       <c r="DC2" t="n">
-        <v>1.311514215382403e-08</v>
+        <v>1.295995265754117e-08</v>
       </c>
       <c r="DD2" t="n">
-        <v>1.810200324990609e-06</v>
+        <v>1.789756217300796e-06</v>
       </c>
       <c r="DE2" t="n">
-        <v>6.77890688215548e-07</v>
+        <v>6.691685096138615e-07</v>
       </c>
       <c r="DF2" t="n">
-        <v>5.756589147676441e-07</v>
+        <v>5.682150463852842e-07</v>
       </c>
       <c r="DG2" t="n">
-        <v>2.965071269212473e-07</v>
+        <v>2.929802377344204e-07</v>
       </c>
       <c r="DH2" t="n">
-        <v>3.498280565655494e-07</v>
+        <v>3.459684135842356e-07</v>
       </c>
       <c r="DI2" t="n">
         <v>0</v>
       </c>
       <c r="DJ2" t="n">
-        <v>7.640047418892138e-09</v>
+        <v>7.551347204748039e-09</v>
       </c>
       <c r="DK2" t="n">
-        <v>4.504760842904491e-10</v>
+        <v>4.453031659665708e-10</v>
       </c>
       <c r="DL2" t="n">
-        <v>1.450324586237098e-12</v>
+        <v>1.433098372032098e-12</v>
       </c>
       <c r="DM2" t="n">
-        <v>3.038003792249302e-11</v>
+        <v>2.996521653741895e-11</v>
       </c>
       <c r="DN2" t="n">
-        <v>9.637291439134571e-10</v>
+        <v>9.501982824633944e-10</v>
       </c>
       <c r="DO2" t="n">
         <v>0</v>
       </c>
       <c r="DP2" t="n">
-        <v>1.023095900252428e-11</v>
+        <v>1.008941654518849e-11</v>
       </c>
       <c r="DQ2" t="n">
-        <v>7.037068956921497e-13</v>
+        <v>6.944470254771494e-13</v>
       </c>
       <c r="DR2" t="n">
-        <v>7.055194292574936e-16</v>
+        <v>6.9273315405506e-16</v>
       </c>
       <c r="DS2" t="n">
         <v>0</v>
@@ -1643,109 +1643,109 @@
         <v>0</v>
       </c>
       <c r="DY2" t="n">
-        <v>6.402159146805853e-24</v>
+        <v>5.082245176888003e-24</v>
       </c>
       <c r="DZ2" t="n">
-        <v>2.298340608822932e-16</v>
+        <v>2.200604801753684e-16</v>
       </c>
       <c r="EA2" t="n">
-        <v>1.767404715868373e-09</v>
+        <v>1.760449563101285e-09</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.2245370172748392</v>
+        <v>0.2287552987760178</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.0001521979604970789</v>
+        <v>0.0001583815981496801</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.003140460799621149</v>
+        <v>0.003304192896574527</v>
       </c>
       <c r="EE2" t="n">
         <v>0</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.008476531487228576</v>
+        <v>0.009049013075800595</v>
       </c>
       <c r="EG2" t="n">
-        <v>53.76202197088693</v>
+        <v>53.82820585780131</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.008167408547389347</v>
+        <v>0.008672693529236679</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.009964526647567837</v>
+        <v>0.01057587676821758</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.009966407255919888</v>
+        <v>0.01057786455636933</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.9222473456423789</v>
+        <v>0.9231724683836323</v>
       </c>
       <c r="EL2" t="n">
-        <v>6.375475548514814</v>
+        <v>6.370200500094169</v>
       </c>
       <c r="EM2" t="n">
-        <v>13.51553634003686</v>
+        <v>13.50179101222188</v>
       </c>
       <c r="EN2" t="n">
-        <v>6.006158373400879</v>
+        <v>5.99489078246325</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.01446766137740359</v>
+        <v>0.01535527784141461</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.01512985607605547</v>
+        <v>0.01509462194543433</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.00273481274878614</v>
+        <v>0.002902597192906137</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.01862137344296968</v>
+        <v>0.0185780093333236</v>
       </c>
       <c r="ES2" t="n">
-        <v>1.256942652575957</v>
+        <v>1.254015499951722</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.6587310490138459</v>
+        <v>0.6571969575927961</v>
       </c>
       <c r="EU2" t="n">
-        <v>3.546208171352651</v>
+        <v>3.537949528283757</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.3700997823956372</v>
+        <v>0.3692378959082015</v>
       </c>
       <c r="EW2" t="n">
-        <v>9.056970820731417</v>
+        <v>9.035879992043888</v>
       </c>
       <c r="EX2" t="n">
         <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>1.445484009949459</v>
+        <v>1.44211787373244</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.06517481654764364</v>
+        <v>0.06502303689845003</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.001163835978612657</v>
+        <v>0.001161125648316303</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.02560439021233908</v>
+        <v>0.02554476498919957</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.9718030385607521</v>
+        <v>0.9695398075071028</v>
       </c>
       <c r="FD2" t="n">
         <v>0</v>
       </c>
       <c r="FE2" t="n">
-        <v>1.119610132857762</v>
+        <v>1.117002871239572</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.4096702434475067</v>
+        <v>0.4087162399526668</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.1757392225088437</v>
+        <v>0.1753299560137977</v>
       </c>
       <c r="FH2" t="n">
         <v>0</v>

--- a/log/c620_wt_log.xlsx
+++ b/log/c620_wt_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FI2"/>
+  <dimension ref="A1:FI4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1256,127 +1256,125 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>4321</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>123</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.623506763098155</v>
+        <v>2.623506205286517</v>
       </c>
       <c r="D2" t="n">
-        <v>52.00498326119875</v>
+        <v>52.0049722038669</v>
       </c>
       <c r="E2" t="n">
-        <v>31.24623822297922</v>
+        <v>31.24623157938463</v>
       </c>
       <c r="F2" t="n">
-        <v>4.147599854365454</v>
+        <v>4.147598972500195</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9595637160643303</v>
+        <v>0.9595635120412968</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0577136022515311</v>
+        <v>0.05771358998042912</v>
       </c>
       <c r="I2" t="n">
-        <v>8.932258806047592</v>
+        <v>8.932256906865176</v>
       </c>
       <c r="J2" t="n">
-        <v>0.008958260162054971</v>
+        <v>0.008958231186687015</v>
       </c>
       <c r="K2" t="n">
-        <v>0.003708414130446731</v>
+        <v>0.003708413341961415</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.000109247469866481</v>
+        <v>0.0001092792079851189</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01535628732957194</v>
+        <v>0.01537752953025738</v>
       </c>
       <c r="O2" t="n">
-        <v>3.486784743956679e-06</v>
+        <v>3.498685026863363e-06</v>
       </c>
       <c r="P2" t="n">
-        <v>3.860334250593882e-09</v>
+        <v>3.860984786774161e-09</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.736003328474806e-09</v>
+        <v>1.736256125135636e-09</v>
       </c>
       <c r="R2" t="n">
-        <v>8.555898255606335e-09</v>
+        <v>8.556317035556077e-09</v>
       </c>
       <c r="S2" t="n">
-        <v>2.544049889070801e-08</v>
+        <v>2.5441658047644e-08</v>
       </c>
       <c r="T2" t="n">
-        <v>3.695920713126576e-08</v>
+        <v>3.69612831276578e-08</v>
       </c>
       <c r="U2" t="n">
-        <v>1.519687976238585e-09</v>
+        <v>1.51974254211151e-09</v>
       </c>
       <c r="V2" t="n">
-        <v>4.271268534219681e-11</v>
+        <v>4.27405291682498e-11</v>
       </c>
       <c r="W2" t="n">
-        <v>1.864821733589795e-13</v>
+        <v>1.864914284866711e-13</v>
       </c>
       <c r="X2" t="n">
-        <v>3.635247036461264e-14</v>
+        <v>3.635854983281055e-14</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.013433024825873e-14</v>
+        <v>1.013480350098978e-14</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.442383414208816e-12</v>
+        <v>2.442491040750496e-12</v>
       </c>
       <c r="AA2" t="n">
-        <v>7.661604758626842e-13</v>
+        <v>7.662065942936583e-13</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.428378381077278e-13</v>
+        <v>1.428446803189982e-13</v>
       </c>
       <c r="AC2" t="n">
-        <v>3.275013655253006e-13</v>
+        <v>3.275254012953733e-13</v>
       </c>
       <c r="AD2" t="n">
-        <v>4.052069522622197e-14</v>
+        <v>4.052248595422373e-14</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.614216745054872e-16</v>
+        <v>2.614288018069862e-16</v>
       </c>
       <c r="AG2" t="n">
-        <v>2.593839989475544e-17</v>
+        <v>2.593896214487374e-17</v>
       </c>
       <c r="AH2" t="n">
-        <v>2.336084922086028e-20</v>
+        <v>2.336194379905039e-20</v>
       </c>
       <c r="AI2" t="n">
-        <v>6.088044554430664e-19</v>
+        <v>6.08837508702635e-19</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.219042458298281e-17</v>
+        <v>1.219128496435046e-17</v>
       </c>
       <c r="AK2" t="n">
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>6.799807448345208e-21</v>
+        <v>6.800038672612346e-21</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.943341129521042e-22</v>
+        <v>1.943438890007e-22</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.529693235418907e-27</v>
+        <v>4.530317815709129e-27</v>
       </c>
       <c r="AO2" t="n">
         <v>0</v>
@@ -1388,118 +1386,118 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.01528326933957013</v>
+        <v>0.01528327155740068</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.678733183308714</v>
+        <v>1.678733426917962</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.436316773105426</v>
+        <v>3.436317271766294</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.618625744254329</v>
+        <v>1.618625979141091</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.9490234847893276</v>
+        <v>0.9490236225068039</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.1829890038952574</v>
+        <v>0.1829890304496939</v>
       </c>
       <c r="AX2" t="n">
-        <v>89.96408397745276</v>
+        <v>89.96409703258449</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.05632213035023522</v>
+        <v>0.05632197383826994</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.05202850782899979</v>
+        <v>0.05202852227156102</v>
       </c>
       <c r="BA2" t="n">
         <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.004608316663057037</v>
+        <v>0.004608594894870035</v>
       </c>
       <c r="BC2" t="n">
-        <v>2.041628632529632</v>
+        <v>2.041614295450054</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.0002767206782975946</v>
+        <v>0.0002767228056092547</v>
       </c>
       <c r="BE2" t="n">
-        <v>1.597837391423054e-06</v>
+        <v>1.597837491831442e-06</v>
       </c>
       <c r="BF2" t="n">
-        <v>7.559148938451406e-07</v>
+        <v>7.559150035396773e-07</v>
       </c>
       <c r="BG2" t="n">
-        <v>7.711052637592731e-06</v>
+        <v>7.711053756581593e-06</v>
       </c>
       <c r="BH2" t="n">
-        <v>2.659871277698889e-05</v>
+        <v>2.659871663685923e-05</v>
       </c>
       <c r="BI2" t="n">
-        <v>4.128452305306744e-05</v>
+        <v>4.12845290440681e-05</v>
       </c>
       <c r="BJ2" t="n">
-        <v>2.248818444756267e-06</v>
+        <v>2.248818771093397e-06</v>
       </c>
       <c r="BK2" t="n">
-        <v>4.953689860554196e-08</v>
+        <v>4.953689983177465e-08</v>
       </c>
       <c r="BL2" t="n">
-        <v>3.585224840674446e-10</v>
+        <v>3.585225360944096e-10</v>
       </c>
       <c r="BM2" t="n">
-        <v>4.375489534936021e-11</v>
+        <v>4.375490169884878e-11</v>
       </c>
       <c r="BN2" t="n">
-        <v>2.945990229988288e-11</v>
+        <v>2.945990657495453e-11</v>
       </c>
       <c r="BO2" t="n">
-        <v>5.53834528922085e-09</v>
+        <v>5.538346092917437e-09</v>
       </c>
       <c r="BP2" t="n">
-        <v>1.808043280983357e-09</v>
+        <v>1.808043543357431e-09</v>
       </c>
       <c r="BQ2" t="n">
-        <v>6.753239989670142e-10</v>
+        <v>6.753240969666088e-10</v>
       </c>
       <c r="BR2" t="n">
-        <v>7.240459355658777e-10</v>
+        <v>7.240460406357527e-10</v>
       </c>
       <c r="BS2" t="n">
-        <v>2.284028369481039e-10</v>
+        <v>2.284028700927656e-10</v>
       </c>
       <c r="BT2" t="n">
         <v>0</v>
       </c>
       <c r="BU2" t="n">
-        <v>2.12815640569726e-12</v>
+        <v>2.128156581022996e-12</v>
       </c>
       <c r="BV2" t="n">
-        <v>1.462441778311512e-13</v>
+        <v>1.462441870145777e-13</v>
       </c>
       <c r="BW2" t="n">
-        <v>2.268565565274775e-16</v>
+        <v>2.268565894477507e-16</v>
       </c>
       <c r="BX2" t="n">
-        <v>4.643422207308702e-15</v>
+        <v>4.64342288113859e-15</v>
       </c>
       <c r="BY2" t="n">
-        <v>1.328630724761975e-13</v>
+        <v>1.32863091756613e-13</v>
       </c>
       <c r="BZ2" t="n">
         <v>0</v>
       </c>
       <c r="CA2" t="n">
-        <v>1.893190913170702e-16</v>
+        <v>1.893191187900968e-16</v>
       </c>
       <c r="CB2" t="n">
-        <v>6.577058567105002e-18</v>
+        <v>6.577059521534394e-18</v>
       </c>
       <c r="CC2" t="n">
-        <v>4.757141150800488e-22</v>
+        <v>4.757141841132693e-22</v>
       </c>
       <c r="CD2" t="n">
         <v>0</v>
@@ -1511,118 +1509,118 @@
         <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.000269430234987655</v>
+        <v>0.0002694413420580073</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.01751464002111282</v>
+        <v>0.01751536204972597</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.03357995157420891</v>
+        <v>0.033581335883897</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.02297156608128238</v>
+        <v>0.0229725130678022</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.02462717374254652</v>
+        <v>0.02462818898031799</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.01804505090051646</v>
+        <v>0.01804579479494194</v>
       </c>
       <c r="CM2" t="n">
-        <v>75.18611598747499</v>
+        <v>75.18921548178314</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.02351126273913969</v>
+        <v>0.02351216379319265</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.05651897169420677</v>
+        <v>0.05652130164873052</v>
       </c>
       <c r="CP2" t="n">
         <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.02365741453189669</v>
+        <v>0.02365351789154008</v>
       </c>
       <c r="CR2" t="n">
-        <v>24.58771727780258</v>
+        <v>24.58461316687048</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.001708062194464512</v>
+        <v>0.001708084252745605</v>
       </c>
       <c r="CT2" t="n">
-        <v>2.569237585933565e-05</v>
+        <v>2.569614218598912e-05</v>
       </c>
       <c r="CU2" t="n">
-        <v>1.455770137064414e-05</v>
+        <v>1.455963908162655e-05</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.0002836967832058506</v>
+        <v>0.0002837298190281865</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.001198061059575695</v>
+        <v>0.001198210447911089</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.002031716347022669</v>
+        <v>0.002031939416351523</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.0002033728905297013</v>
+        <v>0.0002033975412411801</v>
       </c>
       <c r="CZ2" t="n">
-        <v>2.344816333710113e-06</v>
+        <v>2.345119192161602e-06</v>
       </c>
       <c r="DA2" t="n">
-        <v>7.170669668724331e-08</v>
+        <v>7.171678970509603e-08</v>
       </c>
       <c r="DB2" t="n">
-        <v>9.290038788231786e-09</v>
+        <v>9.290849682495059e-09</v>
       </c>
       <c r="DC2" t="n">
-        <v>1.295995265754117e-08</v>
+        <v>1.296140649230705e-08</v>
       </c>
       <c r="DD2" t="n">
-        <v>1.789756217300796e-06</v>
+        <v>1.789998815289467e-06</v>
       </c>
       <c r="DE2" t="n">
-        <v>6.691685096138615e-07</v>
+        <v>6.692537644904324e-07</v>
       </c>
       <c r="DF2" t="n">
-        <v>5.682150463852842e-07</v>
+        <v>5.682891844603598e-07</v>
       </c>
       <c r="DG2" t="n">
-        <v>2.929802377344204e-07</v>
+        <v>2.930108345605475e-07</v>
       </c>
       <c r="DH2" t="n">
-        <v>3.459684135842356e-07</v>
+        <v>3.460046492747037e-07</v>
       </c>
       <c r="DI2" t="n">
         <v>0</v>
       </c>
       <c r="DJ2" t="n">
-        <v>7.551347204748039e-09</v>
+        <v>7.552233744088717e-09</v>
       </c>
       <c r="DK2" t="n">
-        <v>4.453031659665708e-10</v>
+        <v>4.453536314927103e-10</v>
       </c>
       <c r="DL2" t="n">
-        <v>1.433098372032098e-12</v>
+        <v>1.433271191924638e-12</v>
       </c>
       <c r="DM2" t="n">
-        <v>2.996521653741895e-11</v>
+        <v>2.997060869992973e-11</v>
       </c>
       <c r="DN2" t="n">
-        <v>9.501982824633944e-10</v>
+        <v>9.503572205390712e-10</v>
       </c>
       <c r="DO2" t="n">
         <v>0</v>
       </c>
       <c r="DP2" t="n">
-        <v>1.008941654518849e-11</v>
+        <v>1.009095733460517e-11</v>
       </c>
       <c r="DQ2" t="n">
-        <v>6.944470254771494e-13</v>
+        <v>6.945474516786088e-13</v>
       </c>
       <c r="DR2" t="n">
-        <v>6.9273315405506e-16</v>
+        <v>6.929707018657411e-16</v>
       </c>
       <c r="DS2" t="n">
         <v>0</v>
@@ -1643,114 +1641,1110 @@
         <v>0</v>
       </c>
       <c r="DY2" t="n">
-        <v>5.082245176888003e-24</v>
+        <v>5.104371547846132e-24</v>
       </c>
       <c r="DZ2" t="n">
-        <v>2.200604801753684e-16</v>
+        <v>2.204345382722976e-16</v>
       </c>
       <c r="EA2" t="n">
-        <v>1.760449563101285e-09</v>
+        <v>1.762364745614978e-09</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.2287552987760178</v>
+        <v>0.2287541631651899</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.0001583815981496801</v>
+        <v>0.0001584045932744546</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.003304192896574527</v>
+        <v>0.003304168995756306</v>
       </c>
       <c r="EE2" t="n">
         <v>0</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.009049013075800595</v>
+        <v>0.009049770553485381</v>
       </c>
       <c r="EG2" t="n">
-        <v>53.82820585780131</v>
+        <v>53.82853846661114</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.008672693529236679</v>
+        <v>0.00867263990345675</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.01057587676821758</v>
+        <v>0.01057579900653076</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.01057786455636933</v>
+        <v>0.01057778804158165</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.9231724683836323</v>
+        <v>0.923165790632652</v>
       </c>
       <c r="EL2" t="n">
-        <v>6.370200500094169</v>
+        <v>6.370154421366639</v>
       </c>
       <c r="EM2" t="n">
-        <v>13.50179101222188</v>
+        <v>13.50169334726624</v>
       </c>
       <c r="EN2" t="n">
-        <v>5.99489078246325</v>
+        <v>5.994847418531623</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.01535527784141461</v>
+        <v>0.01535516676929627</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.01509462194543433</v>
+        <v>0.0150945127587656</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.002902597192906137</v>
+        <v>0.002902576197023013</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.0185780093333236</v>
+        <v>0.01857787494963661</v>
       </c>
       <c r="ES2" t="n">
-        <v>1.254015499951722</v>
+        <v>1.25400642905379</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.6571969575927961</v>
+        <v>0.6571922037707552</v>
       </c>
       <c r="EU2" t="n">
-        <v>3.537949528283757</v>
+        <v>3.537923936591262</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.3692378959082015</v>
+        <v>0.3692352250327088</v>
       </c>
       <c r="EW2" t="n">
-        <v>9.035879992043888</v>
+        <v>9.035814631173043</v>
       </c>
       <c r="EX2" t="n">
         <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>1.44211787373244</v>
+        <v>1.442107442199466</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.06502303689845003</v>
+        <v>0.06502256655551492</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.001161125648316303</v>
+        <v>0.001161117249335396</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.02554476498919957</v>
+        <v>0.02554458021161436</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.9695398075071028</v>
+        <v>0.9695327943588323</v>
       </c>
       <c r="FD2" t="n">
         <v>0</v>
       </c>
       <c r="FE2" t="n">
-        <v>1.117002871239572</v>
+        <v>1.116994791419957</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.4087162399526668</v>
+        <v>0.4087132835113024</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.1753299560137977</v>
+        <v>0.1753286877678028</v>
       </c>
       <c r="FH2" t="n">
         <v>0</v>
       </c>
       <c r="FI2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.623506205286517</v>
+      </c>
+      <c r="D3" t="n">
+        <v>52.0049722038669</v>
+      </c>
+      <c r="E3" t="n">
+        <v>31.24623157938463</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.147598972500195</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.9595635120412968</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.05771358998042912</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8.932256906865176</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.008958231186687015</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.003708413341961415</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0001092792079851189</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.01537752953025738</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3.498685026863363e-06</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.860984786774161e-09</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.736256125135636e-09</v>
+      </c>
+      <c r="R3" t="n">
+        <v>8.556317035556077e-09</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.5441658047644e-08</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3.69612831276578e-08</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.51974254211151e-09</v>
+      </c>
+      <c r="V3" t="n">
+        <v>4.27405291682498e-11</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.864914284866711e-13</v>
+      </c>
+      <c r="X3" t="n">
+        <v>3.635854983281055e-14</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1.013480350098978e-14</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>2.442491040750496e-12</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>7.662065942936583e-13</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1.428446803189982e-13</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>3.275254012953733e-13</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>4.052248595422373e-14</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>2.614288018069862e-16</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2.593896214487374e-17</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>2.336194379905039e-20</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>6.08837508702635e-19</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1.219128496435046e-17</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>6.800038672612346e-21</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1.943438890007e-22</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4.530317815709129e-27</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.01528327155740068</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>1.678733426917962</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>3.436317271766294</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>1.618625979141091</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.9490236225068039</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.1829890304496939</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>89.96409703258449</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.05632197383826994</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.05202852227156102</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.004608594894870035</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>2.041614295450054</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0.0002767228056092547</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>1.597837491831442e-06</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>7.559150035396773e-07</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>7.711053756581593e-06</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>2.659871663685923e-05</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>4.12845290440681e-05</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>2.248818771093397e-06</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>4.953689983177465e-08</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>3.585225360944096e-10</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>4.375490169884878e-11</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>2.945990657495453e-11</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>5.538346092917437e-09</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>1.808043543357431e-09</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>6.753240969666088e-10</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>7.240460406357527e-10</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>2.284028700927656e-10</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>2.128156581022996e-12</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>1.462441870145777e-13</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>2.268565894477507e-16</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>4.64342288113859e-15</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>1.32863091756613e-13</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>1.893191187900968e-16</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>6.577059521534394e-18</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>4.757141841132693e-22</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0.0002694413420580073</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0.01751536204972597</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0.033581335883897</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0.0229725130678022</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>0.02462818898031799</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0.01804579479494194</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>75.18921548178314</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0.02351216379319265</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>0.05652130164873052</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>0.02365351789154008</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>24.58461316687048</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>0.001708084252745605</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>2.569614218598912e-05</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>1.455963908162655e-05</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>0.0002837298190281865</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>0.001198210447911089</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>0.002031939416351523</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>0.0002033975412411801</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>2.345119192161602e-06</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>7.171678970509603e-08</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>9.290849682495059e-09</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>1.296140649230705e-08</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>1.789998815289467e-06</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>6.692537644904324e-07</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>5.682891844603598e-07</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>2.930108345605475e-07</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>3.460046492747037e-07</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>7.552233744088717e-09</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>4.453536314927103e-10</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>1.433271191924638e-12</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>2.997060869992973e-11</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>9.503572205390712e-10</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>1.009095733460517e-11</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>6.945474516786088e-13</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>6.929707018657411e-16</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY3" t="n">
+        <v>5.104371547846132e-24</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>2.204345382722976e-16</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>1.762364745614978e-09</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>0.2287541631651899</v>
+      </c>
+      <c r="EC3" t="n">
+        <v>0.0001584045932744546</v>
+      </c>
+      <c r="ED3" t="n">
+        <v>0.003304168995756306</v>
+      </c>
+      <c r="EE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF3" t="n">
+        <v>0.009049770553485381</v>
+      </c>
+      <c r="EG3" t="n">
+        <v>53.82853846661114</v>
+      </c>
+      <c r="EH3" t="n">
+        <v>0.00867263990345675</v>
+      </c>
+      <c r="EI3" t="n">
+        <v>0.01057579900653076</v>
+      </c>
+      <c r="EJ3" t="n">
+        <v>0.01057778804158165</v>
+      </c>
+      <c r="EK3" t="n">
+        <v>0.923165790632652</v>
+      </c>
+      <c r="EL3" t="n">
+        <v>6.370154421366639</v>
+      </c>
+      <c r="EM3" t="n">
+        <v>13.50169334726624</v>
+      </c>
+      <c r="EN3" t="n">
+        <v>5.994847418531623</v>
+      </c>
+      <c r="EO3" t="n">
+        <v>0.01535516676929627</v>
+      </c>
+      <c r="EP3" t="n">
+        <v>0.0150945127587656</v>
+      </c>
+      <c r="EQ3" t="n">
+        <v>0.002902576197023013</v>
+      </c>
+      <c r="ER3" t="n">
+        <v>0.01857787494963661</v>
+      </c>
+      <c r="ES3" t="n">
+        <v>1.25400642905379</v>
+      </c>
+      <c r="ET3" t="n">
+        <v>0.6571922037707552</v>
+      </c>
+      <c r="EU3" t="n">
+        <v>3.537923936591262</v>
+      </c>
+      <c r="EV3" t="n">
+        <v>0.3692352250327088</v>
+      </c>
+      <c r="EW3" t="n">
+        <v>9.035814631173043</v>
+      </c>
+      <c r="EX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY3" t="n">
+        <v>1.442107442199466</v>
+      </c>
+      <c r="EZ3" t="n">
+        <v>0.06502256655551492</v>
+      </c>
+      <c r="FA3" t="n">
+        <v>0.001161117249335396</v>
+      </c>
+      <c r="FB3" t="n">
+        <v>0.02554458021161436</v>
+      </c>
+      <c r="FC3" t="n">
+        <v>0.9695327943588323</v>
+      </c>
+      <c r="FD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE3" t="n">
+        <v>1.116994791419957</v>
+      </c>
+      <c r="FF3" t="n">
+        <v>0.4087132835113024</v>
+      </c>
+      <c r="FG3" t="n">
+        <v>0.1753286877678028</v>
+      </c>
+      <c r="FH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.623506205286517</v>
+      </c>
+      <c r="D4" t="n">
+        <v>52.0049722038669</v>
+      </c>
+      <c r="E4" t="n">
+        <v>31.24623157938463</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4.147598972500195</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.9595635120412968</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.05771358998042912</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8.932256906865176</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.008958231186687015</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.003708413341961415</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0001092792079851189</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.01537752953025738</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3.498685026863363e-06</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.860984786774161e-09</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.736256125135636e-09</v>
+      </c>
+      <c r="R4" t="n">
+        <v>8.556317035556077e-09</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.5441658047644e-08</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3.69612831276578e-08</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.51974254211151e-09</v>
+      </c>
+      <c r="V4" t="n">
+        <v>4.27405291682498e-11</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.864914284866711e-13</v>
+      </c>
+      <c r="X4" t="n">
+        <v>3.635854983281055e-14</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1.013480350098978e-14</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>2.442491040750496e-12</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>7.662065942936583e-13</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1.428446803189982e-13</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>3.275254012953733e-13</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>4.052248595422373e-14</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>2.614288018069862e-16</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>2.593896214487374e-17</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>2.336194379905039e-20</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>6.08837508702635e-19</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1.219128496435046e-17</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>6.800038672612346e-21</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1.943438890007e-22</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.530317815709129e-27</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.01528327155740068</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>1.678733426917962</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3.436317271766294</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>1.618625979141091</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.9490236225068039</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0.1829890304496939</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>89.96409703258449</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0.05632197383826994</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0.05202852227156102</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0.004608594894870035</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>2.041614295450054</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0.0002767228056092547</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>1.597837491831442e-06</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>7.559150035396773e-07</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>7.711053756581593e-06</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>2.659871663685923e-05</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>4.12845290440681e-05</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>2.248818771093397e-06</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>4.953689983177465e-08</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>3.585225360944096e-10</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>4.375490169884878e-11</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>2.945990657495453e-11</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>5.538346092917437e-09</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>1.808043543357431e-09</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>6.753240969666088e-10</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>7.240460406357527e-10</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>2.284028700927656e-10</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>2.128156581022996e-12</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>1.462441870145777e-13</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>2.268565894477507e-16</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>4.64342288113859e-15</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>1.32863091756613e-13</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>1.893191187900968e-16</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>6.577059521534394e-18</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>4.757141841132693e-22</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>0.0002694413420580073</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>0.01751536204972597</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>0.033581335883897</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>0.0229725130678022</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>0.02462818898031799</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>0.01804579479494194</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>75.18921548178314</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>0.02351216379319265</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>0.05652130164873052</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>0.02365351789154008</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>24.58461316687048</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>0.001708084252745605</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>2.569614218598912e-05</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>1.455963908162655e-05</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>0.0002837298190281865</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>0.001198210447911089</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>0.002031939416351523</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>0.0002033975412411801</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>2.345119192161602e-06</v>
+      </c>
+      <c r="DA4" t="n">
+        <v>7.171678970509603e-08</v>
+      </c>
+      <c r="DB4" t="n">
+        <v>9.290849682495059e-09</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>1.296140649230705e-08</v>
+      </c>
+      <c r="DD4" t="n">
+        <v>1.789998815289467e-06</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>6.692537644904324e-07</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>5.682891844603598e-07</v>
+      </c>
+      <c r="DG4" t="n">
+        <v>2.930108345605475e-07</v>
+      </c>
+      <c r="DH4" t="n">
+        <v>3.460046492747037e-07</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>7.552233744088717e-09</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>4.453536314927103e-10</v>
+      </c>
+      <c r="DL4" t="n">
+        <v>1.433271191924638e-12</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>2.997060869992973e-11</v>
+      </c>
+      <c r="DN4" t="n">
+        <v>9.503572205390712e-10</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP4" t="n">
+        <v>1.009095733460517e-11</v>
+      </c>
+      <c r="DQ4" t="n">
+        <v>6.945474516786088e-13</v>
+      </c>
+      <c r="DR4" t="n">
+        <v>6.929707018657411e-16</v>
+      </c>
+      <c r="DS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY4" t="n">
+        <v>5.104371547846132e-24</v>
+      </c>
+      <c r="DZ4" t="n">
+        <v>2.204345382722976e-16</v>
+      </c>
+      <c r="EA4" t="n">
+        <v>1.762364745614978e-09</v>
+      </c>
+      <c r="EB4" t="n">
+        <v>0.2287541631651899</v>
+      </c>
+      <c r="EC4" t="n">
+        <v>0.0001584045932744546</v>
+      </c>
+      <c r="ED4" t="n">
+        <v>0.003304168995756306</v>
+      </c>
+      <c r="EE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF4" t="n">
+        <v>0.009049770553485381</v>
+      </c>
+      <c r="EG4" t="n">
+        <v>53.82853846661114</v>
+      </c>
+      <c r="EH4" t="n">
+        <v>0.00867263990345675</v>
+      </c>
+      <c r="EI4" t="n">
+        <v>0.01057579900653076</v>
+      </c>
+      <c r="EJ4" t="n">
+        <v>0.01057778804158165</v>
+      </c>
+      <c r="EK4" t="n">
+        <v>0.923165790632652</v>
+      </c>
+      <c r="EL4" t="n">
+        <v>6.370154421366639</v>
+      </c>
+      <c r="EM4" t="n">
+        <v>13.50169334726624</v>
+      </c>
+      <c r="EN4" t="n">
+        <v>5.994847418531623</v>
+      </c>
+      <c r="EO4" t="n">
+        <v>0.01535516676929627</v>
+      </c>
+      <c r="EP4" t="n">
+        <v>0.0150945127587656</v>
+      </c>
+      <c r="EQ4" t="n">
+        <v>0.002902576197023013</v>
+      </c>
+      <c r="ER4" t="n">
+        <v>0.01857787494963661</v>
+      </c>
+      <c r="ES4" t="n">
+        <v>1.25400642905379</v>
+      </c>
+      <c r="ET4" t="n">
+        <v>0.6571922037707552</v>
+      </c>
+      <c r="EU4" t="n">
+        <v>3.537923936591262</v>
+      </c>
+      <c r="EV4" t="n">
+        <v>0.3692352250327088</v>
+      </c>
+      <c r="EW4" t="n">
+        <v>9.035814631173043</v>
+      </c>
+      <c r="EX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY4" t="n">
+        <v>1.442107442199466</v>
+      </c>
+      <c r="EZ4" t="n">
+        <v>0.06502256655551492</v>
+      </c>
+      <c r="FA4" t="n">
+        <v>0.001161117249335396</v>
+      </c>
+      <c r="FB4" t="n">
+        <v>0.02554458021161436</v>
+      </c>
+      <c r="FC4" t="n">
+        <v>0.9695327943588323</v>
+      </c>
+      <c r="FD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE4" t="n">
+        <v>1.116994791419957</v>
+      </c>
+      <c r="FF4" t="n">
+        <v>0.4087132835113024</v>
+      </c>
+      <c r="FG4" t="n">
+        <v>0.1753286877678028</v>
+      </c>
+      <c r="FH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI4" t="n">
         <v>0</v>
       </c>
     </row>

--- a/log/c620_wt_log.xlsx
+++ b/log/c620_wt_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FI4"/>
+  <dimension ref="A1:FI6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2250,10 +2250,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>456</t>
-        </is>
+      <c r="A4" s="1" t="n">
+        <v>456</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -2745,6 +2743,1004 @@
         <v>0</v>
       </c>
       <c r="FI4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.623506205286517</v>
+      </c>
+      <c r="D5" t="n">
+        <v>52.0049722038669</v>
+      </c>
+      <c r="E5" t="n">
+        <v>31.24623157938463</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4.147598972500195</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.9595635120412968</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.05771358998042912</v>
+      </c>
+      <c r="I5" t="n">
+        <v>8.932256906865176</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.008958231186687015</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.003708413341961415</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.0001092792079851189</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.01537752953025738</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3.498685026863363e-06</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.860984786774161e-09</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.736256125135636e-09</v>
+      </c>
+      <c r="R5" t="n">
+        <v>8.556317035556077e-09</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.5441658047644e-08</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.69612831276578e-08</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.51974254211151e-09</v>
+      </c>
+      <c r="V5" t="n">
+        <v>4.27405291682498e-11</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.864914284866711e-13</v>
+      </c>
+      <c r="X5" t="n">
+        <v>3.635854983281055e-14</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1.013480350098978e-14</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>2.442491040750496e-12</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>7.662065942936583e-13</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1.428446803189982e-13</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>3.275254012953733e-13</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>4.052248595422373e-14</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>2.614288018069862e-16</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>2.593896214487374e-17</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>2.336194379905039e-20</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>6.08837508702635e-19</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1.219128496435046e-17</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>6.800038672612346e-21</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1.943438890007e-22</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4.530317815709129e-27</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.01528327155740068</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>1.678733426917962</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3.436317271766294</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>1.618625979141091</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.9490236225068039</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0.1829890304496939</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>89.96409703258449</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0.05632197383826994</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0.05202852227156102</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0.004608594894870035</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>2.041614295450054</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0.0002767228056092547</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>1.597837491831442e-06</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>7.559150035396773e-07</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>7.711053756581593e-06</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>2.659871663685923e-05</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>4.12845290440681e-05</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>2.248818771093397e-06</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>4.953689983177465e-08</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>3.585225360944096e-10</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>4.375490169884878e-11</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>2.945990657495453e-11</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>5.538346092917437e-09</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>1.808043543357431e-09</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>6.753240969666088e-10</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>7.240460406357527e-10</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>2.284028700927656e-10</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>2.128156581022996e-12</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>1.462441870145777e-13</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>2.268565894477507e-16</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>4.64342288113859e-15</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>1.32863091756613e-13</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>1.893191187900968e-16</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>6.577059521534394e-18</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>4.757141841132693e-22</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>0.0002694413420580073</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>0.01751536204972597</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>0.033581335883897</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>0.0229725130678022</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>0.02462818898031799</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>0.01804579479494194</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>75.18921548178314</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>0.02351216379319265</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>0.05652130164873052</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>0.02365351789154008</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>24.58461316687048</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>0.001708084252745605</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>2.569614218598912e-05</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>1.455963908162655e-05</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>0.0002837298190281865</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>0.001198210447911089</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>0.002031939416351523</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>0.0002033975412411801</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>2.345119192161602e-06</v>
+      </c>
+      <c r="DA5" t="n">
+        <v>7.171678970509603e-08</v>
+      </c>
+      <c r="DB5" t="n">
+        <v>9.290849682495059e-09</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>1.296140649230705e-08</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>1.789998815289467e-06</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>6.692537644904324e-07</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>5.682891844603598e-07</v>
+      </c>
+      <c r="DG5" t="n">
+        <v>2.930108345605475e-07</v>
+      </c>
+      <c r="DH5" t="n">
+        <v>3.460046492747037e-07</v>
+      </c>
+      <c r="DI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>7.552233744088717e-09</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>4.453536314927103e-10</v>
+      </c>
+      <c r="DL5" t="n">
+        <v>1.433271191924638e-12</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>2.997060869992973e-11</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>9.503572205390712e-10</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>1.009095733460517e-11</v>
+      </c>
+      <c r="DQ5" t="n">
+        <v>6.945474516786088e-13</v>
+      </c>
+      <c r="DR5" t="n">
+        <v>6.929707018657411e-16</v>
+      </c>
+      <c r="DS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY5" t="n">
+        <v>5.104371547846132e-24</v>
+      </c>
+      <c r="DZ5" t="n">
+        <v>2.204345382722976e-16</v>
+      </c>
+      <c r="EA5" t="n">
+        <v>1.762364745614978e-09</v>
+      </c>
+      <c r="EB5" t="n">
+        <v>0.2287541631651899</v>
+      </c>
+      <c r="EC5" t="n">
+        <v>0.0001584045932744546</v>
+      </c>
+      <c r="ED5" t="n">
+        <v>0.003304168995756306</v>
+      </c>
+      <c r="EE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF5" t="n">
+        <v>0.009049770553485381</v>
+      </c>
+      <c r="EG5" t="n">
+        <v>53.82853846661114</v>
+      </c>
+      <c r="EH5" t="n">
+        <v>0.00867263990345675</v>
+      </c>
+      <c r="EI5" t="n">
+        <v>0.01057579900653076</v>
+      </c>
+      <c r="EJ5" t="n">
+        <v>0.01057778804158165</v>
+      </c>
+      <c r="EK5" t="n">
+        <v>0.923165790632652</v>
+      </c>
+      <c r="EL5" t="n">
+        <v>6.370154421366639</v>
+      </c>
+      <c r="EM5" t="n">
+        <v>13.50169334726624</v>
+      </c>
+      <c r="EN5" t="n">
+        <v>5.994847418531623</v>
+      </c>
+      <c r="EO5" t="n">
+        <v>0.01535516676929627</v>
+      </c>
+      <c r="EP5" t="n">
+        <v>0.0150945127587656</v>
+      </c>
+      <c r="EQ5" t="n">
+        <v>0.002902576197023013</v>
+      </c>
+      <c r="ER5" t="n">
+        <v>0.01857787494963661</v>
+      </c>
+      <c r="ES5" t="n">
+        <v>1.25400642905379</v>
+      </c>
+      <c r="ET5" t="n">
+        <v>0.6571922037707552</v>
+      </c>
+      <c r="EU5" t="n">
+        <v>3.537923936591262</v>
+      </c>
+      <c r="EV5" t="n">
+        <v>0.3692352250327088</v>
+      </c>
+      <c r="EW5" t="n">
+        <v>9.035814631173043</v>
+      </c>
+      <c r="EX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY5" t="n">
+        <v>1.442107442199466</v>
+      </c>
+      <c r="EZ5" t="n">
+        <v>0.06502256655551492</v>
+      </c>
+      <c r="FA5" t="n">
+        <v>0.001161117249335396</v>
+      </c>
+      <c r="FB5" t="n">
+        <v>0.02554458021161436</v>
+      </c>
+      <c r="FC5" t="n">
+        <v>0.9695327943588323</v>
+      </c>
+      <c r="FD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE5" t="n">
+        <v>1.116994791419957</v>
+      </c>
+      <c r="FF5" t="n">
+        <v>0.4087132835113024</v>
+      </c>
+      <c r="FG5" t="n">
+        <v>0.1753286877678028</v>
+      </c>
+      <c r="FH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.623506763098155</v>
+      </c>
+      <c r="D6" t="n">
+        <v>52.00498326119875</v>
+      </c>
+      <c r="E6" t="n">
+        <v>31.24623822297922</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4.147599854365454</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9595637160643303</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0577136022515311</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8.932258806047592</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.008958260162054971</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.003708414130446731</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.000109247469866481</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.01535628732957194</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3.486784743956679e-06</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.860334250593882e-09</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.736003328474806e-09</v>
+      </c>
+      <c r="R6" t="n">
+        <v>8.555898255606335e-09</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.544049889070801e-08</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.695920713126576e-08</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.519687976238585e-09</v>
+      </c>
+      <c r="V6" t="n">
+        <v>4.271268534219681e-11</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.864821733589795e-13</v>
+      </c>
+      <c r="X6" t="n">
+        <v>3.635247036461264e-14</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1.013433024825873e-14</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>2.442383414208816e-12</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>7.661604758626842e-13</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1.428378381077278e-13</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>3.275013655253006e-13</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>4.052069522622197e-14</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>2.614216745054872e-16</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>2.593839989475544e-17</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2.336084922086028e-20</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>6.088044554430664e-19</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1.219042458298281e-17</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>6.799807448345208e-21</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1.943341129521042e-22</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.529693235418907e-27</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.01528326933957013</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>1.678733183308714</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3.436316773105426</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>1.618625744254329</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.9490234847893276</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0.1829890038952574</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>89.96408397745276</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0.05632213035023522</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0.05202850782899979</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0.004608316663057037</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>2.041628632529632</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0.0002767206782975946</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>1.597837391423054e-06</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>7.559148938451406e-07</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>7.711052637592731e-06</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>2.659871277698889e-05</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>4.128452305306744e-05</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>2.248818444756267e-06</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>4.953689860554196e-08</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>3.585224840674446e-10</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>4.375489534936021e-11</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>2.945990229988288e-11</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>5.53834528922085e-09</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>1.808043280983357e-09</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>6.753239989670142e-10</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>7.240459355658777e-10</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>2.284028369481039e-10</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>2.12815640569726e-12</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>1.462441778311512e-13</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>2.268565565274775e-16</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>4.643422207308702e-15</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>1.328630724761975e-13</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>1.893190913170702e-16</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>6.577058567105002e-18</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>4.757141150800488e-22</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>0.000269430234987655</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>0.01751464002111282</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>0.03357995157420891</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>0.02297156608128238</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>0.02462717374254652</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>0.01804505090051646</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>75.18611598747499</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>0.02351126273913969</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>0.05651897169420677</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>0.02365741453189669</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>24.58771727780258</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>0.001708062194464512</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>2.569237585933565e-05</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>1.455770137064414e-05</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>0.0002836967832058506</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>0.001198061059575695</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>0.002031716347022669</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>0.0002033728905297013</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>2.344816333710113e-06</v>
+      </c>
+      <c r="DA6" t="n">
+        <v>7.170669668724331e-08</v>
+      </c>
+      <c r="DB6" t="n">
+        <v>9.290038788231786e-09</v>
+      </c>
+      <c r="DC6" t="n">
+        <v>1.295995265754117e-08</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>1.789756217300796e-06</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>6.691685096138615e-07</v>
+      </c>
+      <c r="DF6" t="n">
+        <v>5.682150463852842e-07</v>
+      </c>
+      <c r="DG6" t="n">
+        <v>2.929802377344204e-07</v>
+      </c>
+      <c r="DH6" t="n">
+        <v>3.459684135842356e-07</v>
+      </c>
+      <c r="DI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ6" t="n">
+        <v>7.551347204748039e-09</v>
+      </c>
+      <c r="DK6" t="n">
+        <v>4.453031659665708e-10</v>
+      </c>
+      <c r="DL6" t="n">
+        <v>1.433098372032098e-12</v>
+      </c>
+      <c r="DM6" t="n">
+        <v>2.996521653741895e-11</v>
+      </c>
+      <c r="DN6" t="n">
+        <v>9.501982824633944e-10</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP6" t="n">
+        <v>1.008941654518849e-11</v>
+      </c>
+      <c r="DQ6" t="n">
+        <v>6.944470254771494e-13</v>
+      </c>
+      <c r="DR6" t="n">
+        <v>6.9273315405506e-16</v>
+      </c>
+      <c r="DS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY6" t="n">
+        <v>5.082245176888003e-24</v>
+      </c>
+      <c r="DZ6" t="n">
+        <v>2.200604801753684e-16</v>
+      </c>
+      <c r="EA6" t="n">
+        <v>1.760449563101285e-09</v>
+      </c>
+      <c r="EB6" t="n">
+        <v>0.2287552987760178</v>
+      </c>
+      <c r="EC6" t="n">
+        <v>0.0001583815981496801</v>
+      </c>
+      <c r="ED6" t="n">
+        <v>0.003304192896574527</v>
+      </c>
+      <c r="EE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF6" t="n">
+        <v>0.009049013075800595</v>
+      </c>
+      <c r="EG6" t="n">
+        <v>53.82820585780131</v>
+      </c>
+      <c r="EH6" t="n">
+        <v>0.008672693529236679</v>
+      </c>
+      <c r="EI6" t="n">
+        <v>0.01057587676821758</v>
+      </c>
+      <c r="EJ6" t="n">
+        <v>0.01057786455636933</v>
+      </c>
+      <c r="EK6" t="n">
+        <v>0.9231724683836323</v>
+      </c>
+      <c r="EL6" t="n">
+        <v>6.370200500094169</v>
+      </c>
+      <c r="EM6" t="n">
+        <v>13.50179101222188</v>
+      </c>
+      <c r="EN6" t="n">
+        <v>5.99489078246325</v>
+      </c>
+      <c r="EO6" t="n">
+        <v>0.01535527784141461</v>
+      </c>
+      <c r="EP6" t="n">
+        <v>0.01509462194543433</v>
+      </c>
+      <c r="EQ6" t="n">
+        <v>0.002902597192906137</v>
+      </c>
+      <c r="ER6" t="n">
+        <v>0.0185780093333236</v>
+      </c>
+      <c r="ES6" t="n">
+        <v>1.254015499951722</v>
+      </c>
+      <c r="ET6" t="n">
+        <v>0.6571969575927961</v>
+      </c>
+      <c r="EU6" t="n">
+        <v>3.537949528283757</v>
+      </c>
+      <c r="EV6" t="n">
+        <v>0.3692378959082015</v>
+      </c>
+      <c r="EW6" t="n">
+        <v>9.035879992043888</v>
+      </c>
+      <c r="EX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY6" t="n">
+        <v>1.44211787373244</v>
+      </c>
+      <c r="EZ6" t="n">
+        <v>0.06502303689845003</v>
+      </c>
+      <c r="FA6" t="n">
+        <v>0.001161125648316303</v>
+      </c>
+      <c r="FB6" t="n">
+        <v>0.02554476498919957</v>
+      </c>
+      <c r="FC6" t="n">
+        <v>0.9695398075071028</v>
+      </c>
+      <c r="FD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE6" t="n">
+        <v>1.117002871239572</v>
+      </c>
+      <c r="FF6" t="n">
+        <v>0.4087162399526668</v>
+      </c>
+      <c r="FG6" t="n">
+        <v>0.1753299560137977</v>
+      </c>
+      <c r="FH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI6" t="n">
         <v>0</v>
       </c>
     </row>

--- a/log/c620_wt_log.xlsx
+++ b/log/c620_wt_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FI6"/>
+  <dimension ref="A1:FI8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3744,6 +3744,1004 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.598305842476279</v>
+      </c>
+      <c r="D7" t="n">
+        <v>51.50543951451338</v>
+      </c>
+      <c r="E7" t="n">
+        <v>31.16742599597234</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4.258863675201241</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.056793505147231</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.06353140626154063</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9.320671523399811</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.01023373335740843</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.004158830126264144</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0001285637541733014</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.01444400804360804</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3.323798869188713e-06</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4.353728220697508e-09</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.961925133339872e-09</v>
+      </c>
+      <c r="R7" t="n">
+        <v>8.485590254492418e-09</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.517200017541414e-08</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.642096472706921e-08</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.501676190244253e-09</v>
+      </c>
+      <c r="V7" t="n">
+        <v>4.807390552682693e-11</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.840474756842591e-13</v>
+      </c>
+      <c r="X7" t="n">
+        <v>4.078040261658826e-14</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9.995168382840823e-15</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>2.408840620969784e-12</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>7.541791353791227e-13</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1.408989222118458e-13</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>3.206723940839607e-13</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>3.996604204341381e-14</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>2.582391302583239e-16</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>2.565608363901613e-17</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>2.308540254639245e-20</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>6.013616547206893e-19</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1.20151189943135e-17</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>6.724142812192292e-21</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1.921807528063854e-22</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.469866205371541e-27</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.01454847919631769</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>1.598023128028724</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3.294500958061927</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>1.597484233197451</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>1.004584623398545</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0.1936103460199946</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>90.2294905325778</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0.06184189372697138</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0.05608128015492498</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0.005234118075935938</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>1.944220010668491</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0.0003033541557622196</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>1.75434494150938e-06</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>8.299458692300326e-07</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>7.40282051373091e-06</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>2.541722905693818e-05</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>3.943184041252878e-05</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>2.143205035036791e-06</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>5.43888709694314e-08</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>3.412872884437011e-10</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>4.803981711680048e-11</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>2.804378191395179e-11</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>5.272136487519178e-09</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>1.721122076908615e-09</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>6.428602440131308e-10</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>6.89240488159044e-10</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>2.174220148391036e-10</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>2.025844747059195e-12</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>1.392140110576935e-13</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>2.159498603293262e-16</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>4.420182735185514e-15</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>1.264756660063012e-13</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>1.802184769970499e-16</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>6.260858938615566e-18</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>4.528437939613383e-22</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>0.0002711975470577192</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>0.01762952303297098</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0.03404198362790177</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>0.02397282665632248</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>0.02756530111955153</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>0.0201883247375805</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>79.73618264289385</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>0.02729720732264617</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>0.06441826959471283</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>0.02518353031595424</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>20.01767083148066</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>0.001788052637497496</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>2.950002153546877e-05</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>1.678144141370301e-05</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>0.0002865976628999058</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>0.001204097416335504</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>0.002042934613753144</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>0.0002039208298505403</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>2.701463549556472e-06</v>
+      </c>
+      <c r="DA7" t="n">
+        <v>7.158817026616794e-08</v>
+      </c>
+      <c r="DB7" t="n">
+        <v>1.075680471894077e-08</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>1.299405880782798e-08</v>
+      </c>
+      <c r="DD7" t="n">
+        <v>1.793177415731068e-06</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>6.69086853382651e-07</v>
+      </c>
+      <c r="DF7" t="n">
+        <v>5.680119241240874e-07</v>
+      </c>
+      <c r="DG7" t="n">
+        <v>2.938730439796412e-07</v>
+      </c>
+      <c r="DH7" t="n">
+        <v>3.470911221708254e-07</v>
+      </c>
+      <c r="DI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ7" t="n">
+        <v>7.56941570895172e-09</v>
+      </c>
+      <c r="DK7" t="n">
+        <v>4.465596245744859e-10</v>
+      </c>
+      <c r="DL7" t="n">
+        <v>1.434894372053936e-12</v>
+      </c>
+      <c r="DM7" t="n">
+        <v>2.982133273447261e-11</v>
+      </c>
+      <c r="DN7" t="n">
+        <v>9.465916868629856e-10</v>
+      </c>
+      <c r="DO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP7" t="n">
+        <v>1.007430280322403e-11</v>
+      </c>
+      <c r="DQ7" t="n">
+        <v>6.930788694037974e-13</v>
+      </c>
+      <c r="DR7" t="n">
+        <v>6.836784561793773e-16</v>
+      </c>
+      <c r="DS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY7" t="n">
+        <v>3.418568208555885e-24</v>
+      </c>
+      <c r="DZ7" t="n">
+        <v>1.820345185165017e-16</v>
+      </c>
+      <c r="EA7" t="n">
+        <v>1.593090825193606e-09</v>
+      </c>
+      <c r="EB7" t="n">
+        <v>0.2382122479497648</v>
+      </c>
+      <c r="EC7" t="n">
+        <v>0.0001798624602656845</v>
+      </c>
+      <c r="ED7" t="n">
+        <v>0.00369814131969511</v>
+      </c>
+      <c r="EE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF7" t="n">
+        <v>0.01069063773472701</v>
+      </c>
+      <c r="EG7" t="n">
+        <v>54.25741044704761</v>
+      </c>
+      <c r="EH7" t="n">
+        <v>0.009920251244325138</v>
+      </c>
+      <c r="EI7" t="n">
+        <v>0.01205680495179951</v>
+      </c>
+      <c r="EJ7" t="n">
+        <v>0.01205903728671882</v>
+      </c>
+      <c r="EK7" t="n">
+        <v>0.9202506795587261</v>
+      </c>
+      <c r="EL7" t="n">
+        <v>6.320651755777595</v>
+      </c>
+      <c r="EM7" t="n">
+        <v>13.3902997863129</v>
+      </c>
+      <c r="EN7" t="n">
+        <v>5.932368369783462</v>
+      </c>
+      <c r="EO7" t="n">
+        <v>0.01750537921359408</v>
+      </c>
+      <c r="EP7" t="n">
+        <v>0.01491989534584642</v>
+      </c>
+      <c r="EQ7" t="n">
+        <v>0.003309029307115738</v>
+      </c>
+      <c r="ER7" t="n">
+        <v>0.01836296222646635</v>
+      </c>
+      <c r="ES7" t="n">
+        <v>1.239499929593332</v>
+      </c>
+      <c r="ET7" t="n">
+        <v>0.6495897091817214</v>
+      </c>
+      <c r="EU7" t="n">
+        <v>3.49699655389669</v>
+      </c>
+      <c r="EV7" t="n">
+        <v>0.3649638582949725</v>
+      </c>
+      <c r="EW7" t="n">
+        <v>8.931286484695583</v>
+      </c>
+      <c r="EX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY7" t="n">
+        <v>1.425425039019363</v>
+      </c>
+      <c r="EZ7" t="n">
+        <v>0.0642703772104268</v>
+      </c>
+      <c r="FA7" t="n">
+        <v>0.001147685275968893</v>
+      </c>
+      <c r="FB7" t="n">
+        <v>0.02524907358759119</v>
+      </c>
+      <c r="FC7" t="n">
+        <v>0.9583171288525215</v>
+      </c>
+      <c r="FD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE7" t="n">
+        <v>1.104073195366162</v>
+      </c>
+      <c r="FF7" t="n">
+        <v>0.4039852147827664</v>
+      </c>
+      <c r="FG7" t="n">
+        <v>0.1733004611292089</v>
+      </c>
+      <c r="FH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.598307891396049</v>
+      </c>
+      <c r="D8" t="n">
+        <v>51.50548012963711</v>
+      </c>
+      <c r="E8" t="n">
+        <v>31.16745057335436</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4.258867033570313</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.056794338492202</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.06353145635985938</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9.320678873307525</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.01023374569252173</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.004158833405750771</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.0001285081147045908</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.01436526848407125</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3.270279599084137e-06</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4.346703944849269e-09</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.959679230772089e-09</v>
+      </c>
+      <c r="R8" t="n">
+        <v>8.481474297833965e-09</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.516294048446699e-08</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.640203817462737e-08</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.50132966879395e-09</v>
+      </c>
+      <c r="V8" t="n">
+        <v>4.787413534413458e-11</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.839793747843049e-13</v>
+      </c>
+      <c r="X8" t="n">
+        <v>4.072635764951946e-14</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9.991437339627481e-15</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>2.407997174901375e-12</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>7.538016255571783e-13</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1.408516410435552e-13</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>3.204624978744216e-13</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>3.995191568085481e-14</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>2.581990920774012e-16</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>2.565276326216815e-17</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>2.307626514970993e-20</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>6.011460822270416e-19</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>1.20089892050355e-17</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>6.722847296857941e-21</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1.921023791287214e-22</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.466358367442952e-27</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.01454849887653683</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>1.598025289728578</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3.294505414644637</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>1.597486394168324</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>1.004585982334093</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0.1936106079232483</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>90.22961258905691</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0.0618420037509636</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0.05608135601796665</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0.00523590464469739</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>1.944085575763411</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0.0003033402518602086</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>1.754346592996569e-06</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>8.299469197583931e-07</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>7.40282915122265e-06</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>2.541726343968232e-05</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>3.943189375331102e-05</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>2.143207518277915e-06</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>5.438892817768887e-08</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>3.412877501145423e-10</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>4.803987726835131e-11</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>2.804381817328833e-11</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>5.272142261404365e-09</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>1.721124405128575e-09</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>6.428610737249032e-10</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>6.892413538796666e-10</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>2.174223089532059e-10</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>2.025847487487802e-12</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>1.392141993771879e-13</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>2.159501524519954e-16</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>4.420188714515979e-15</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>1.26475837094206e-13</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>1.802186967531235e-16</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>6.260867407890897e-18</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>4.52844406538432e-22</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>0.0002714386214454296</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>0.01764519436376623</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>0.03407224441177899</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>0.02399413671082172</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>0.02758980461584619</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>0.02020627065220184</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>79.80706216085981</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>0.02732148430247454</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>0.06447553263071149</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>0.02518872388660588</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>19.94659585337205</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>0.001784723507098906</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>2.950714429183297e-05</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>1.678926177057798e-05</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>0.0002867629402797082</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>0.001204716553711497</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>0.002044151224989888</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>0.0002040248329032531</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>2.702621103372722e-06</v>
+      </c>
+      <c r="DA8" t="n">
+        <v>7.161593733445081e-08</v>
+      </c>
+      <c r="DB8" t="n">
+        <v>1.076384412296298e-08</v>
+      </c>
+      <c r="DC8" t="n">
+        <v>1.300188557112609e-08</v>
+      </c>
+      <c r="DD8" t="n">
+        <v>1.793959030106487e-06</v>
+      </c>
+      <c r="DE8" t="n">
+        <v>6.694598335151108e-07</v>
+      </c>
+      <c r="DF8" t="n">
+        <v>5.683184096622083e-07</v>
+      </c>
+      <c r="DG8" t="n">
+        <v>2.940598335068914e-07</v>
+      </c>
+      <c r="DH8" t="n">
+        <v>3.472980855063064e-07</v>
+      </c>
+      <c r="DI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ8" t="n">
+        <v>7.573674935699098e-09</v>
+      </c>
+      <c r="DK8" t="n">
+        <v>4.468338769863724e-10</v>
+      </c>
+      <c r="DL8" t="n">
+        <v>1.435629875215994e-12</v>
+      </c>
+      <c r="DM8" t="n">
+        <v>2.982822350000825e-11</v>
+      </c>
+      <c r="DN8" t="n">
+        <v>9.469325872712386e-10</v>
+      </c>
+      <c r="DO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP8" t="n">
+        <v>1.007894729562178e-11</v>
+      </c>
+      <c r="DQ8" t="n">
+        <v>6.93404095953161e-13</v>
+      </c>
+      <c r="DR8" t="n">
+        <v>6.835895990840956e-16</v>
+      </c>
+      <c r="DS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY8" t="n">
+        <v>3.365436763557885e-24</v>
+      </c>
+      <c r="DZ8" t="n">
+        <v>1.792628436493903e-16</v>
+      </c>
+      <c r="EA8" t="n">
+        <v>1.575252139961857e-09</v>
+      </c>
+      <c r="EB8" t="n">
+        <v>0.2381758563270786</v>
+      </c>
+      <c r="EC8" t="n">
+        <v>0.0001798310664168813</v>
+      </c>
+      <c r="ED8" t="n">
+        <v>0.003697582366629099</v>
+      </c>
+      <c r="EE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF8" t="n">
+        <v>0.01069180841002004</v>
+      </c>
+      <c r="EG8" t="n">
+        <v>54.26431735892116</v>
+      </c>
+      <c r="EH8" t="n">
+        <v>0.009919589875755887</v>
+      </c>
+      <c r="EI8" t="n">
+        <v>0.01205498714872031</v>
+      </c>
+      <c r="EJ8" t="n">
+        <v>0.01205721627104594</v>
+      </c>
+      <c r="EK8" t="n">
+        <v>0.9201117688308835</v>
+      </c>
+      <c r="EL8" t="n">
+        <v>6.319696907627401</v>
+      </c>
+      <c r="EM8" t="n">
+        <v>13.38827694065148</v>
+      </c>
+      <c r="EN8" t="n">
+        <v>5.93147217882357</v>
+      </c>
+      <c r="EO8" t="n">
+        <v>0.01750273679770274</v>
+      </c>
+      <c r="EP8" t="n">
+        <v>0.01491764142725977</v>
+      </c>
+      <c r="EQ8" t="n">
+        <v>0.003308529418712624</v>
+      </c>
+      <c r="ER8" t="n">
+        <v>0.0183601881706899</v>
+      </c>
+      <c r="ES8" t="n">
+        <v>1.239312680831548</v>
+      </c>
+      <c r="ET8" t="n">
+        <v>0.6494915769706515</v>
+      </c>
+      <c r="EU8" t="n">
+        <v>3.496468269659598</v>
+      </c>
+      <c r="EV8" t="n">
+        <v>0.3649087239388261</v>
+      </c>
+      <c r="EW8" t="n">
+        <v>8.929937253206763</v>
+      </c>
+      <c r="EX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY8" t="n">
+        <v>1.425209702925185</v>
+      </c>
+      <c r="EZ8" t="n">
+        <v>0.06426066801378651</v>
+      </c>
+      <c r="FA8" t="n">
+        <v>0.001147511897462197</v>
+      </c>
+      <c r="FB8" t="n">
+        <v>0.02524525926081909</v>
+      </c>
+      <c r="FC8" t="n">
+        <v>0.9581723578109992</v>
+      </c>
+      <c r="FD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE8" t="n">
+        <v>1.10390640524878</v>
+      </c>
+      <c r="FF8" t="n">
+        <v>0.4039241855487656</v>
+      </c>
+      <c r="FG8" t="n">
+        <v>0.1732742809770457</v>
+      </c>
+      <c r="FH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI8" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/log/c620_wt_log.xlsx
+++ b/log/c620_wt_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FI8"/>
+  <dimension ref="A1:FI10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4742,6 +4742,1004 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.598305842476279</v>
+      </c>
+      <c r="D9" t="n">
+        <v>51.50543951451338</v>
+      </c>
+      <c r="E9" t="n">
+        <v>31.16742599597234</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4.258863675201241</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.056793505147231</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.06353140626154063</v>
+      </c>
+      <c r="I9" t="n">
+        <v>9.320671523399811</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.01023373335740843</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.004158830126264144</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.0001285637541733014</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.01444400804360804</v>
+      </c>
+      <c r="O9" t="n">
+        <v>3.323798869188713e-06</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4.353728220697508e-09</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.961925133339872e-09</v>
+      </c>
+      <c r="R9" t="n">
+        <v>8.485590254492418e-09</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.517200017541414e-08</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.642096472706921e-08</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.501676190244253e-09</v>
+      </c>
+      <c r="V9" t="n">
+        <v>4.807390552682693e-11</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.840474756842591e-13</v>
+      </c>
+      <c r="X9" t="n">
+        <v>4.078040261658826e-14</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9.995168382840823e-15</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>2.408840620969784e-12</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>7.541791353791227e-13</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1.408989222118458e-13</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>3.206723940839607e-13</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>3.996604204341381e-14</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>2.582391302583239e-16</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>2.565608363901613e-17</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>2.308540254639245e-20</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>6.013616547206893e-19</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>1.20151189943135e-17</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>6.724142812192292e-21</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>1.921807528063854e-22</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.469866205371541e-27</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.01454847919631769</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>1.598023128028724</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.294500958061927</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>1.597484233197451</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>1.004584623398545</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0.1936103460199946</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>90.2294905325778</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0.06184189372697138</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0.05608128015492498</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0.005234118075935938</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>1.944220010668491</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0.0003033541557622196</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>1.75434494150938e-06</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>8.299458692300326e-07</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>7.40282051373091e-06</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>2.541722905693818e-05</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>3.943184041252878e-05</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>2.143205035036791e-06</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>5.43888709694314e-08</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>3.412872884437011e-10</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>4.803981711680048e-11</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>2.804378191395179e-11</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>5.272136487519178e-09</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>1.721122076908615e-09</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>6.428602440131308e-10</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>6.89240488159044e-10</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>2.174220148391036e-10</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>2.025844747059195e-12</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>1.392140110576935e-13</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>2.159498603293262e-16</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>4.420182735185514e-15</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>1.264756660063012e-13</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>1.802184769970499e-16</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>6.260858938615566e-18</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>4.528437939613383e-22</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>0.0002711975470577192</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>0.01762952303297098</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>0.03404198362790177</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>0.02397282665632248</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>0.02756530111955153</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>0.0201883247375805</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>79.73618264289385</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>0.02729720732264617</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>0.06441826959471283</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>0.02518353031595424</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>20.01767083148066</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>0.001788052637497496</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>2.950002153546877e-05</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>1.678144141370301e-05</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>0.0002865976628999058</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>0.001204097416335504</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>0.002042934613753144</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>0.0002039208298505403</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>2.701463549556472e-06</v>
+      </c>
+      <c r="DA9" t="n">
+        <v>7.158817026616794e-08</v>
+      </c>
+      <c r="DB9" t="n">
+        <v>1.075680471894077e-08</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>1.299405880782798e-08</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>1.793177415731068e-06</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>6.69086853382651e-07</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>5.680119241240874e-07</v>
+      </c>
+      <c r="DG9" t="n">
+        <v>2.938730439796412e-07</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>3.470911221708254e-07</v>
+      </c>
+      <c r="DI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>7.56941570895172e-09</v>
+      </c>
+      <c r="DK9" t="n">
+        <v>4.465596245744859e-10</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>1.434894372053936e-12</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>2.982133273447261e-11</v>
+      </c>
+      <c r="DN9" t="n">
+        <v>9.465916868629856e-10</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>1.007430280322403e-11</v>
+      </c>
+      <c r="DQ9" t="n">
+        <v>6.930788694037974e-13</v>
+      </c>
+      <c r="DR9" t="n">
+        <v>6.836784561793773e-16</v>
+      </c>
+      <c r="DS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY9" t="n">
+        <v>3.418568208555885e-24</v>
+      </c>
+      <c r="DZ9" t="n">
+        <v>1.820345185165017e-16</v>
+      </c>
+      <c r="EA9" t="n">
+        <v>1.593090825193606e-09</v>
+      </c>
+      <c r="EB9" t="n">
+        <v>0.2382122479497648</v>
+      </c>
+      <c r="EC9" t="n">
+        <v>0.0001798624602656845</v>
+      </c>
+      <c r="ED9" t="n">
+        <v>0.00369814131969511</v>
+      </c>
+      <c r="EE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF9" t="n">
+        <v>0.01069063773472701</v>
+      </c>
+      <c r="EG9" t="n">
+        <v>54.25741044704761</v>
+      </c>
+      <c r="EH9" t="n">
+        <v>0.009920251244325138</v>
+      </c>
+      <c r="EI9" t="n">
+        <v>0.01205680495179951</v>
+      </c>
+      <c r="EJ9" t="n">
+        <v>0.01205903728671882</v>
+      </c>
+      <c r="EK9" t="n">
+        <v>0.9202506795587261</v>
+      </c>
+      <c r="EL9" t="n">
+        <v>6.320651755777595</v>
+      </c>
+      <c r="EM9" t="n">
+        <v>13.3902997863129</v>
+      </c>
+      <c r="EN9" t="n">
+        <v>5.932368369783462</v>
+      </c>
+      <c r="EO9" t="n">
+        <v>0.01750537921359408</v>
+      </c>
+      <c r="EP9" t="n">
+        <v>0.01491989534584642</v>
+      </c>
+      <c r="EQ9" t="n">
+        <v>0.003309029307115738</v>
+      </c>
+      <c r="ER9" t="n">
+        <v>0.01836296222646635</v>
+      </c>
+      <c r="ES9" t="n">
+        <v>1.239499929593332</v>
+      </c>
+      <c r="ET9" t="n">
+        <v>0.6495897091817214</v>
+      </c>
+      <c r="EU9" t="n">
+        <v>3.49699655389669</v>
+      </c>
+      <c r="EV9" t="n">
+        <v>0.3649638582949725</v>
+      </c>
+      <c r="EW9" t="n">
+        <v>8.931286484695583</v>
+      </c>
+      <c r="EX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY9" t="n">
+        <v>1.425425039019363</v>
+      </c>
+      <c r="EZ9" t="n">
+        <v>0.0642703772104268</v>
+      </c>
+      <c r="FA9" t="n">
+        <v>0.001147685275968893</v>
+      </c>
+      <c r="FB9" t="n">
+        <v>0.02524907358759119</v>
+      </c>
+      <c r="FC9" t="n">
+        <v>0.9583171288525215</v>
+      </c>
+      <c r="FD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE9" t="n">
+        <v>1.104073195366162</v>
+      </c>
+      <c r="FF9" t="n">
+        <v>0.4039852147827664</v>
+      </c>
+      <c r="FG9" t="n">
+        <v>0.1733004611292089</v>
+      </c>
+      <c r="FH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.598307891396049</v>
+      </c>
+      <c r="D10" t="n">
+        <v>51.50548012963711</v>
+      </c>
+      <c r="E10" t="n">
+        <v>31.16745057335436</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4.258867033570313</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.056794338492202</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.06353145635985938</v>
+      </c>
+      <c r="I10" t="n">
+        <v>9.320678873307525</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.01023374569252173</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.004158833405750771</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.0001285081147045908</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.01436526848407125</v>
+      </c>
+      <c r="O10" t="n">
+        <v>3.270279599084137e-06</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4.346703944849269e-09</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.959679230772089e-09</v>
+      </c>
+      <c r="R10" t="n">
+        <v>8.481474297833965e-09</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.516294048446699e-08</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.640203817462737e-08</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.50132966879395e-09</v>
+      </c>
+      <c r="V10" t="n">
+        <v>4.787413534413458e-11</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.839793747843049e-13</v>
+      </c>
+      <c r="X10" t="n">
+        <v>4.072635764951946e-14</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9.991437339627481e-15</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>2.407997174901375e-12</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>7.538016255571783e-13</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1.408516410435552e-13</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>3.204624978744216e-13</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>3.995191568085481e-14</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>2.581990920774012e-16</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>2.565276326216815e-17</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>2.307626514970993e-20</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>6.011460822270416e-19</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>1.20089892050355e-17</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>6.722847296857941e-21</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>1.921023791287214e-22</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4.466358367442952e-27</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.01454849887653683</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>1.598025289728578</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3.294505414644637</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>1.597486394168324</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>1.004585982334093</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0.1936106079232483</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>90.22961258905691</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0.0618420037509636</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0.05608135601796665</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0.00523590464469739</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>1.944085575763411</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0.0003033402518602086</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>1.754346592996569e-06</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>8.299469197583931e-07</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>7.40282915122265e-06</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>2.541726343968232e-05</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>3.943189375331102e-05</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>2.143207518277915e-06</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>5.438892817768887e-08</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>3.412877501145423e-10</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>4.803987726835131e-11</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>2.804381817328833e-11</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>5.272142261404365e-09</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>1.721124405128575e-09</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>6.428610737249032e-10</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>6.892413538796666e-10</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>2.174223089532059e-10</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>2.025847487487802e-12</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>1.392141993771879e-13</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>2.159501524519954e-16</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>4.420188714515979e-15</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>1.26475837094206e-13</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>1.802186967531235e-16</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>6.260867407890897e-18</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>4.52844406538432e-22</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>0.0002714386214454296</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>0.01764519436376623</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>0.03407224441177899</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>0.02399413671082172</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>0.02758980461584619</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>0.02020627065220184</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>79.80706216085981</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>0.02732148430247454</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>0.06447553263071149</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>0.02518872388660588</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>19.94659585337205</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>0.001784723507098906</v>
+      </c>
+      <c r="CT10" t="n">
+        <v>2.950714429183297e-05</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>1.678926177057798e-05</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>0.0002867629402797082</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>0.001204716553711497</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>0.002044151224989888</v>
+      </c>
+      <c r="CY10" t="n">
+        <v>0.0002040248329032531</v>
+      </c>
+      <c r="CZ10" t="n">
+        <v>2.702621103372722e-06</v>
+      </c>
+      <c r="DA10" t="n">
+        <v>7.161593733445081e-08</v>
+      </c>
+      <c r="DB10" t="n">
+        <v>1.076384412296298e-08</v>
+      </c>
+      <c r="DC10" t="n">
+        <v>1.300188557112609e-08</v>
+      </c>
+      <c r="DD10" t="n">
+        <v>1.793959030106487e-06</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>6.694598335151108e-07</v>
+      </c>
+      <c r="DF10" t="n">
+        <v>5.683184096622083e-07</v>
+      </c>
+      <c r="DG10" t="n">
+        <v>2.940598335068914e-07</v>
+      </c>
+      <c r="DH10" t="n">
+        <v>3.472980855063064e-07</v>
+      </c>
+      <c r="DI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ10" t="n">
+        <v>7.573674935699098e-09</v>
+      </c>
+      <c r="DK10" t="n">
+        <v>4.468338769863724e-10</v>
+      </c>
+      <c r="DL10" t="n">
+        <v>1.435629875215994e-12</v>
+      </c>
+      <c r="DM10" t="n">
+        <v>2.982822350000825e-11</v>
+      </c>
+      <c r="DN10" t="n">
+        <v>9.469325872712386e-10</v>
+      </c>
+      <c r="DO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP10" t="n">
+        <v>1.007894729562178e-11</v>
+      </c>
+      <c r="DQ10" t="n">
+        <v>6.93404095953161e-13</v>
+      </c>
+      <c r="DR10" t="n">
+        <v>6.835895990840956e-16</v>
+      </c>
+      <c r="DS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY10" t="n">
+        <v>3.365436763557885e-24</v>
+      </c>
+      <c r="DZ10" t="n">
+        <v>1.792628436493903e-16</v>
+      </c>
+      <c r="EA10" t="n">
+        <v>1.575252139961857e-09</v>
+      </c>
+      <c r="EB10" t="n">
+        <v>0.2381758563270786</v>
+      </c>
+      <c r="EC10" t="n">
+        <v>0.0001798310664168813</v>
+      </c>
+      <c r="ED10" t="n">
+        <v>0.003697582366629099</v>
+      </c>
+      <c r="EE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF10" t="n">
+        <v>0.01069180841002004</v>
+      </c>
+      <c r="EG10" t="n">
+        <v>54.26431735892116</v>
+      </c>
+      <c r="EH10" t="n">
+        <v>0.009919589875755887</v>
+      </c>
+      <c r="EI10" t="n">
+        <v>0.01205498714872031</v>
+      </c>
+      <c r="EJ10" t="n">
+        <v>0.01205721627104594</v>
+      </c>
+      <c r="EK10" t="n">
+        <v>0.9201117688308835</v>
+      </c>
+      <c r="EL10" t="n">
+        <v>6.319696907627401</v>
+      </c>
+      <c r="EM10" t="n">
+        <v>13.38827694065148</v>
+      </c>
+      <c r="EN10" t="n">
+        <v>5.93147217882357</v>
+      </c>
+      <c r="EO10" t="n">
+        <v>0.01750273679770274</v>
+      </c>
+      <c r="EP10" t="n">
+        <v>0.01491764142725977</v>
+      </c>
+      <c r="EQ10" t="n">
+        <v>0.003308529418712624</v>
+      </c>
+      <c r="ER10" t="n">
+        <v>0.0183601881706899</v>
+      </c>
+      <c r="ES10" t="n">
+        <v>1.239312680831548</v>
+      </c>
+      <c r="ET10" t="n">
+        <v>0.6494915769706515</v>
+      </c>
+      <c r="EU10" t="n">
+        <v>3.496468269659598</v>
+      </c>
+      <c r="EV10" t="n">
+        <v>0.3649087239388261</v>
+      </c>
+      <c r="EW10" t="n">
+        <v>8.929937253206763</v>
+      </c>
+      <c r="EX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY10" t="n">
+        <v>1.425209702925185</v>
+      </c>
+      <c r="EZ10" t="n">
+        <v>0.06426066801378651</v>
+      </c>
+      <c r="FA10" t="n">
+        <v>0.001147511897462197</v>
+      </c>
+      <c r="FB10" t="n">
+        <v>0.02524525926081909</v>
+      </c>
+      <c r="FC10" t="n">
+        <v>0.9581723578109992</v>
+      </c>
+      <c r="FD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE10" t="n">
+        <v>1.10390640524878</v>
+      </c>
+      <c r="FF10" t="n">
+        <v>0.4039241855487656</v>
+      </c>
+      <c r="FG10" t="n">
+        <v>0.1732742809770457</v>
+      </c>
+      <c r="FH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI10" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/log/c620_wt_log.xlsx
+++ b/log/c620_wt_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FI10"/>
+  <dimension ref="A1:FI12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5740,6 +5740,1004 @@
         <v>0</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.598305842476279</v>
+      </c>
+      <c r="D11" t="n">
+        <v>51.50543951451338</v>
+      </c>
+      <c r="E11" t="n">
+        <v>31.16742599597234</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4.258863675201241</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.056793505147231</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.06353140626154063</v>
+      </c>
+      <c r="I11" t="n">
+        <v>9.320671523399811</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.01023373335740843</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.004158830126264144</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.0001285637541733014</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.01444400804360804</v>
+      </c>
+      <c r="O11" t="n">
+        <v>3.323798869188713e-06</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4.353728220697508e-09</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.961925133339872e-09</v>
+      </c>
+      <c r="R11" t="n">
+        <v>8.485590254492418e-09</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.517200017541414e-08</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.642096472706921e-08</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.501676190244253e-09</v>
+      </c>
+      <c r="V11" t="n">
+        <v>4.807390552682693e-11</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.840474756842591e-13</v>
+      </c>
+      <c r="X11" t="n">
+        <v>4.078040261658826e-14</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9.995168382840823e-15</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>2.408840620969784e-12</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>7.541791353791227e-13</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1.408989222118458e-13</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>3.206723940839607e-13</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>3.996604204341381e-14</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>2.582391302583239e-16</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>2.565608363901613e-17</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>2.308540254639245e-20</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>6.013616547206893e-19</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>1.20151189943135e-17</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>6.724142812192292e-21</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1.921807528063854e-22</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4.469866205371541e-27</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0.01454847919631769</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>1.598023128028724</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3.294500958061927</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>1.597484233197451</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>1.004584623398545</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0.1936103460199946</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>90.2294905325778</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0.06184189372697138</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0.05608128015492498</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>0.005234118075935938</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>1.944220010668491</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0.0003033541557622196</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>1.75434494150938e-06</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>8.299458692300326e-07</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>7.40282051373091e-06</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>2.541722905693818e-05</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>3.943184041252878e-05</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>2.143205035036791e-06</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>5.43888709694314e-08</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>3.412872884437011e-10</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>4.803981711680048e-11</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>2.804378191395179e-11</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>5.272136487519178e-09</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>1.721122076908615e-09</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>6.428602440131308e-10</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>6.89240488159044e-10</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>2.174220148391036e-10</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>2.025844747059195e-12</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>1.392140110576935e-13</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>2.159498603293262e-16</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>4.420182735185514e-15</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>1.264756660063012e-13</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>1.802184769970499e-16</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>6.260858938615566e-18</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>4.528437939613383e-22</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>0.0002711975470577192</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>0.01762952303297098</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>0.03404198362790177</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>0.02397282665632248</v>
+      </c>
+      <c r="CK11" t="n">
+        <v>0.02756530111955153</v>
+      </c>
+      <c r="CL11" t="n">
+        <v>0.0201883247375805</v>
+      </c>
+      <c r="CM11" t="n">
+        <v>79.73618264289385</v>
+      </c>
+      <c r="CN11" t="n">
+        <v>0.02729720732264617</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>0.06441826959471283</v>
+      </c>
+      <c r="CP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>0.02518353031595424</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>20.01767083148066</v>
+      </c>
+      <c r="CS11" t="n">
+        <v>0.001788052637497496</v>
+      </c>
+      <c r="CT11" t="n">
+        <v>2.950002153546877e-05</v>
+      </c>
+      <c r="CU11" t="n">
+        <v>1.678144141370301e-05</v>
+      </c>
+      <c r="CV11" t="n">
+        <v>0.0002865976628999058</v>
+      </c>
+      <c r="CW11" t="n">
+        <v>0.001204097416335504</v>
+      </c>
+      <c r="CX11" t="n">
+        <v>0.002042934613753144</v>
+      </c>
+      <c r="CY11" t="n">
+        <v>0.0002039208298505403</v>
+      </c>
+      <c r="CZ11" t="n">
+        <v>2.701463549556472e-06</v>
+      </c>
+      <c r="DA11" t="n">
+        <v>7.158817026616794e-08</v>
+      </c>
+      <c r="DB11" t="n">
+        <v>1.075680471894077e-08</v>
+      </c>
+      <c r="DC11" t="n">
+        <v>1.299405880782798e-08</v>
+      </c>
+      <c r="DD11" t="n">
+        <v>1.793177415731068e-06</v>
+      </c>
+      <c r="DE11" t="n">
+        <v>6.69086853382651e-07</v>
+      </c>
+      <c r="DF11" t="n">
+        <v>5.680119241240874e-07</v>
+      </c>
+      <c r="DG11" t="n">
+        <v>2.938730439796412e-07</v>
+      </c>
+      <c r="DH11" t="n">
+        <v>3.470911221708254e-07</v>
+      </c>
+      <c r="DI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ11" t="n">
+        <v>7.56941570895172e-09</v>
+      </c>
+      <c r="DK11" t="n">
+        <v>4.465596245744859e-10</v>
+      </c>
+      <c r="DL11" t="n">
+        <v>1.434894372053936e-12</v>
+      </c>
+      <c r="DM11" t="n">
+        <v>2.982133273447261e-11</v>
+      </c>
+      <c r="DN11" t="n">
+        <v>9.465916868629856e-10</v>
+      </c>
+      <c r="DO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP11" t="n">
+        <v>1.007430280322403e-11</v>
+      </c>
+      <c r="DQ11" t="n">
+        <v>6.930788694037974e-13</v>
+      </c>
+      <c r="DR11" t="n">
+        <v>6.836784561793773e-16</v>
+      </c>
+      <c r="DS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY11" t="n">
+        <v>3.418568208555885e-24</v>
+      </c>
+      <c r="DZ11" t="n">
+        <v>1.820345185165017e-16</v>
+      </c>
+      <c r="EA11" t="n">
+        <v>1.593090825193606e-09</v>
+      </c>
+      <c r="EB11" t="n">
+        <v>0.2382122479497648</v>
+      </c>
+      <c r="EC11" t="n">
+        <v>0.0001798624602656845</v>
+      </c>
+      <c r="ED11" t="n">
+        <v>0.00369814131969511</v>
+      </c>
+      <c r="EE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF11" t="n">
+        <v>0.01069063773472701</v>
+      </c>
+      <c r="EG11" t="n">
+        <v>54.25741044704761</v>
+      </c>
+      <c r="EH11" t="n">
+        <v>0.009920251244325138</v>
+      </c>
+      <c r="EI11" t="n">
+        <v>0.01205680495179951</v>
+      </c>
+      <c r="EJ11" t="n">
+        <v>0.01205903728671882</v>
+      </c>
+      <c r="EK11" t="n">
+        <v>0.9202506795587261</v>
+      </c>
+      <c r="EL11" t="n">
+        <v>6.320651755777595</v>
+      </c>
+      <c r="EM11" t="n">
+        <v>13.3902997863129</v>
+      </c>
+      <c r="EN11" t="n">
+        <v>5.932368369783462</v>
+      </c>
+      <c r="EO11" t="n">
+        <v>0.01750537921359408</v>
+      </c>
+      <c r="EP11" t="n">
+        <v>0.01491989534584642</v>
+      </c>
+      <c r="EQ11" t="n">
+        <v>0.003309029307115738</v>
+      </c>
+      <c r="ER11" t="n">
+        <v>0.01836296222646635</v>
+      </c>
+      <c r="ES11" t="n">
+        <v>1.239499929593332</v>
+      </c>
+      <c r="ET11" t="n">
+        <v>0.6495897091817214</v>
+      </c>
+      <c r="EU11" t="n">
+        <v>3.49699655389669</v>
+      </c>
+      <c r="EV11" t="n">
+        <v>0.3649638582949725</v>
+      </c>
+      <c r="EW11" t="n">
+        <v>8.931286484695583</v>
+      </c>
+      <c r="EX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY11" t="n">
+        <v>1.425425039019363</v>
+      </c>
+      <c r="EZ11" t="n">
+        <v>0.0642703772104268</v>
+      </c>
+      <c r="FA11" t="n">
+        <v>0.001147685275968893</v>
+      </c>
+      <c r="FB11" t="n">
+        <v>0.02524907358759119</v>
+      </c>
+      <c r="FC11" t="n">
+        <v>0.9583171288525215</v>
+      </c>
+      <c r="FD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE11" t="n">
+        <v>1.104073195366162</v>
+      </c>
+      <c r="FF11" t="n">
+        <v>0.4039852147827664</v>
+      </c>
+      <c r="FG11" t="n">
+        <v>0.1733004611292089</v>
+      </c>
+      <c r="FH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.598307891396049</v>
+      </c>
+      <c r="D12" t="n">
+        <v>51.50548012963711</v>
+      </c>
+      <c r="E12" t="n">
+        <v>31.16745057335436</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4.258867033570313</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.056794338492202</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.06353145635985938</v>
+      </c>
+      <c r="I12" t="n">
+        <v>9.320678873307525</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.01023374569252173</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.004158833405750771</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.0001285081147045908</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.01436526848407125</v>
+      </c>
+      <c r="O12" t="n">
+        <v>3.270279599084137e-06</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4.346703944849269e-09</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.959679230772089e-09</v>
+      </c>
+      <c r="R12" t="n">
+        <v>8.481474297833965e-09</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.516294048446699e-08</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.640203817462737e-08</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.50132966879395e-09</v>
+      </c>
+      <c r="V12" t="n">
+        <v>4.787413534413458e-11</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.839793747843049e-13</v>
+      </c>
+      <c r="X12" t="n">
+        <v>4.072635764951946e-14</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9.991437339627481e-15</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>2.407997174901375e-12</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>7.538016255571783e-13</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1.408516410435552e-13</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>3.204624978744216e-13</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>3.995191568085481e-14</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>2.581990920774012e-16</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>2.565276326216815e-17</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>2.307626514970993e-20</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>6.011460822270416e-19</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1.20089892050355e-17</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>6.722847296857941e-21</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1.921023791287214e-22</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4.466358367442952e-27</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0.01454849887653683</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>1.598025289728578</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3.294505414644637</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>1.597486394168324</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>1.004585982334093</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0.1936106079232483</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>90.22961258905691</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0.0618420037509636</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0.05608135601796665</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>0.00523590464469739</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>1.944085575763411</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>0.0003033402518602086</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>1.754346592996569e-06</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>8.299469197583931e-07</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>7.40282915122265e-06</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>2.541726343968232e-05</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>3.943189375331102e-05</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>2.143207518277915e-06</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>5.438892817768887e-08</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>3.412877501145423e-10</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>4.803987726835131e-11</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>2.804381817328833e-11</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>5.272142261404365e-09</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>1.721124405128575e-09</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>6.428610737249032e-10</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>6.892413538796666e-10</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>2.174223089532059e-10</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>2.025847487487802e-12</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>1.392141993771879e-13</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>2.159501524519954e-16</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>4.420188714515979e-15</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>1.26475837094206e-13</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>1.802186967531235e-16</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>6.260867407890897e-18</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>4.52844406538432e-22</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>0.0002714386214454296</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>0.01764519436376623</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>0.03407224441177899</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>0.02399413671082172</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>0.02758980461584619</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>0.02020627065220184</v>
+      </c>
+      <c r="CM12" t="n">
+        <v>79.80706216085981</v>
+      </c>
+      <c r="CN12" t="n">
+        <v>0.02732148430247454</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>0.06447553263071149</v>
+      </c>
+      <c r="CP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ12" t="n">
+        <v>0.02518872388660588</v>
+      </c>
+      <c r="CR12" t="n">
+        <v>19.94659585337205</v>
+      </c>
+      <c r="CS12" t="n">
+        <v>0.001784723507098906</v>
+      </c>
+      <c r="CT12" t="n">
+        <v>2.950714429183297e-05</v>
+      </c>
+      <c r="CU12" t="n">
+        <v>1.678926177057798e-05</v>
+      </c>
+      <c r="CV12" t="n">
+        <v>0.0002867629402797082</v>
+      </c>
+      <c r="CW12" t="n">
+        <v>0.001204716553711497</v>
+      </c>
+      <c r="CX12" t="n">
+        <v>0.002044151224989888</v>
+      </c>
+      <c r="CY12" t="n">
+        <v>0.0002040248329032531</v>
+      </c>
+      <c r="CZ12" t="n">
+        <v>2.702621103372722e-06</v>
+      </c>
+      <c r="DA12" t="n">
+        <v>7.161593733445081e-08</v>
+      </c>
+      <c r="DB12" t="n">
+        <v>1.076384412296298e-08</v>
+      </c>
+      <c r="DC12" t="n">
+        <v>1.300188557112609e-08</v>
+      </c>
+      <c r="DD12" t="n">
+        <v>1.793959030106487e-06</v>
+      </c>
+      <c r="DE12" t="n">
+        <v>6.694598335151108e-07</v>
+      </c>
+      <c r="DF12" t="n">
+        <v>5.683184096622083e-07</v>
+      </c>
+      <c r="DG12" t="n">
+        <v>2.940598335068914e-07</v>
+      </c>
+      <c r="DH12" t="n">
+        <v>3.472980855063064e-07</v>
+      </c>
+      <c r="DI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ12" t="n">
+        <v>7.573674935699098e-09</v>
+      </c>
+      <c r="DK12" t="n">
+        <v>4.468338769863724e-10</v>
+      </c>
+      <c r="DL12" t="n">
+        <v>1.435629875215994e-12</v>
+      </c>
+      <c r="DM12" t="n">
+        <v>2.982822350000825e-11</v>
+      </c>
+      <c r="DN12" t="n">
+        <v>9.469325872712386e-10</v>
+      </c>
+      <c r="DO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP12" t="n">
+        <v>1.007894729562178e-11</v>
+      </c>
+      <c r="DQ12" t="n">
+        <v>6.93404095953161e-13</v>
+      </c>
+      <c r="DR12" t="n">
+        <v>6.835895990840956e-16</v>
+      </c>
+      <c r="DS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY12" t="n">
+        <v>3.365436763557885e-24</v>
+      </c>
+      <c r="DZ12" t="n">
+        <v>1.792628436493903e-16</v>
+      </c>
+      <c r="EA12" t="n">
+        <v>1.575252139961857e-09</v>
+      </c>
+      <c r="EB12" t="n">
+        <v>0.2381758563270786</v>
+      </c>
+      <c r="EC12" t="n">
+        <v>0.0001798310664168813</v>
+      </c>
+      <c r="ED12" t="n">
+        <v>0.003697582366629099</v>
+      </c>
+      <c r="EE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF12" t="n">
+        <v>0.01069180841002004</v>
+      </c>
+      <c r="EG12" t="n">
+        <v>54.26431735892116</v>
+      </c>
+      <c r="EH12" t="n">
+        <v>0.009919589875755887</v>
+      </c>
+      <c r="EI12" t="n">
+        <v>0.01205498714872031</v>
+      </c>
+      <c r="EJ12" t="n">
+        <v>0.01205721627104594</v>
+      </c>
+      <c r="EK12" t="n">
+        <v>0.9201117688308835</v>
+      </c>
+      <c r="EL12" t="n">
+        <v>6.319696907627401</v>
+      </c>
+      <c r="EM12" t="n">
+        <v>13.38827694065148</v>
+      </c>
+      <c r="EN12" t="n">
+        <v>5.93147217882357</v>
+      </c>
+      <c r="EO12" t="n">
+        <v>0.01750273679770274</v>
+      </c>
+      <c r="EP12" t="n">
+        <v>0.01491764142725977</v>
+      </c>
+      <c r="EQ12" t="n">
+        <v>0.003308529418712624</v>
+      </c>
+      <c r="ER12" t="n">
+        <v>0.0183601881706899</v>
+      </c>
+      <c r="ES12" t="n">
+        <v>1.239312680831548</v>
+      </c>
+      <c r="ET12" t="n">
+        <v>0.6494915769706515</v>
+      </c>
+      <c r="EU12" t="n">
+        <v>3.496468269659598</v>
+      </c>
+      <c r="EV12" t="n">
+        <v>0.3649087239388261</v>
+      </c>
+      <c r="EW12" t="n">
+        <v>8.929937253206763</v>
+      </c>
+      <c r="EX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY12" t="n">
+        <v>1.425209702925185</v>
+      </c>
+      <c r="EZ12" t="n">
+        <v>0.06426066801378651</v>
+      </c>
+      <c r="FA12" t="n">
+        <v>0.001147511897462197</v>
+      </c>
+      <c r="FB12" t="n">
+        <v>0.02524525926081909</v>
+      </c>
+      <c r="FC12" t="n">
+        <v>0.9581723578109992</v>
+      </c>
+      <c r="FD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE12" t="n">
+        <v>1.10390640524878</v>
+      </c>
+      <c r="FF12" t="n">
+        <v>0.4039241855487656</v>
+      </c>
+      <c r="FG12" t="n">
+        <v>0.1732742809770457</v>
+      </c>
+      <c r="FH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI12" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/log/c620_wt_log.xlsx
+++ b/log/c620_wt_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FI12"/>
+  <dimension ref="A1:FI18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6738,6 +6738,3000 @@
         <v>0</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>60000</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.598305842476279</v>
+      </c>
+      <c r="D13" t="n">
+        <v>51.50543951451338</v>
+      </c>
+      <c r="E13" t="n">
+        <v>31.16742599597234</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4.258863675201241</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.056793505147231</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.06353140626154063</v>
+      </c>
+      <c r="I13" t="n">
+        <v>9.320671523399811</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.01023373335740843</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.004158830126264144</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.0001285637541733014</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.01444400804360804</v>
+      </c>
+      <c r="O13" t="n">
+        <v>3.323798869188713e-06</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4.353728220697508e-09</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.961925133339872e-09</v>
+      </c>
+      <c r="R13" t="n">
+        <v>8.485590254492418e-09</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.517200017541414e-08</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3.642096472706921e-08</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.501676190244253e-09</v>
+      </c>
+      <c r="V13" t="n">
+        <v>4.807390552682693e-11</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.840474756842591e-13</v>
+      </c>
+      <c r="X13" t="n">
+        <v>4.078040261658826e-14</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>9.995168382840823e-15</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>2.408840620969784e-12</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>7.541791353791227e-13</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1.408989222118458e-13</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>3.206723940839607e-13</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>3.996604204341381e-14</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>2.582391302583239e-16</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>2.565608363901613e-17</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>2.308540254639245e-20</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>6.013616547206893e-19</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>1.20151189943135e-17</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>6.724142812192292e-21</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>1.921807528063854e-22</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4.469866205371541e-27</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0.01454847919631769</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>1.598023128028724</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3.294500958061927</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>1.597484233197451</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>1.004584623398545</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0.1936103460199946</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>90.2294905325778</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0.06184189372697138</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0.05608128015492498</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0.005234118075935938</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>1.944220010668491</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>0.0003033541557622196</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>1.75434494150938e-06</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>8.299458692300326e-07</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>7.40282051373091e-06</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>2.541722905693818e-05</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>3.943184041252878e-05</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>2.143205035036791e-06</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>5.43888709694314e-08</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>3.412872884437011e-10</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>4.803981711680048e-11</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>2.804378191395179e-11</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>5.272136487519178e-09</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>1.721122076908615e-09</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>6.428602440131308e-10</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>6.89240488159044e-10</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>2.174220148391036e-10</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>2.025844747059195e-12</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>1.392140110576935e-13</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>2.159498603293262e-16</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>4.420182735185514e-15</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>1.264756660063012e-13</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>1.802184769970499e-16</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>6.260858938615566e-18</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>4.528437939613383e-22</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>0.0002711975470577192</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>0.01762952303297098</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>0.03404198362790177</v>
+      </c>
+      <c r="CJ13" t="n">
+        <v>0.02397282665632248</v>
+      </c>
+      <c r="CK13" t="n">
+        <v>0.02756530111955153</v>
+      </c>
+      <c r="CL13" t="n">
+        <v>0.0201883247375805</v>
+      </c>
+      <c r="CM13" t="n">
+        <v>79.73618264289385</v>
+      </c>
+      <c r="CN13" t="n">
+        <v>0.02729720732264617</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>0.06441826959471283</v>
+      </c>
+      <c r="CP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ13" t="n">
+        <v>0.02518353031595424</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>20.01767083148066</v>
+      </c>
+      <c r="CS13" t="n">
+        <v>0.001788052637497496</v>
+      </c>
+      <c r="CT13" t="n">
+        <v>2.950002153546877e-05</v>
+      </c>
+      <c r="CU13" t="n">
+        <v>1.678144141370301e-05</v>
+      </c>
+      <c r="CV13" t="n">
+        <v>0.0002865976628999058</v>
+      </c>
+      <c r="CW13" t="n">
+        <v>0.001204097416335504</v>
+      </c>
+      <c r="CX13" t="n">
+        <v>0.002042934613753144</v>
+      </c>
+      <c r="CY13" t="n">
+        <v>0.0002039208298505403</v>
+      </c>
+      <c r="CZ13" t="n">
+        <v>2.701463549556472e-06</v>
+      </c>
+      <c r="DA13" t="n">
+        <v>7.158817026616794e-08</v>
+      </c>
+      <c r="DB13" t="n">
+        <v>1.075680471894077e-08</v>
+      </c>
+      <c r="DC13" t="n">
+        <v>1.299405880782798e-08</v>
+      </c>
+      <c r="DD13" t="n">
+        <v>1.793177415731068e-06</v>
+      </c>
+      <c r="DE13" t="n">
+        <v>6.69086853382651e-07</v>
+      </c>
+      <c r="DF13" t="n">
+        <v>5.680119241240874e-07</v>
+      </c>
+      <c r="DG13" t="n">
+        <v>2.938730439796412e-07</v>
+      </c>
+      <c r="DH13" t="n">
+        <v>3.470911221708254e-07</v>
+      </c>
+      <c r="DI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ13" t="n">
+        <v>7.56941570895172e-09</v>
+      </c>
+      <c r="DK13" t="n">
+        <v>4.465596245744859e-10</v>
+      </c>
+      <c r="DL13" t="n">
+        <v>1.434894372053936e-12</v>
+      </c>
+      <c r="DM13" t="n">
+        <v>2.982133273447261e-11</v>
+      </c>
+      <c r="DN13" t="n">
+        <v>9.465916868629856e-10</v>
+      </c>
+      <c r="DO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP13" t="n">
+        <v>1.007430280322403e-11</v>
+      </c>
+      <c r="DQ13" t="n">
+        <v>6.930788694037974e-13</v>
+      </c>
+      <c r="DR13" t="n">
+        <v>6.836784561793773e-16</v>
+      </c>
+      <c r="DS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY13" t="n">
+        <v>3.418568208555885e-24</v>
+      </c>
+      <c r="DZ13" t="n">
+        <v>1.820345185165017e-16</v>
+      </c>
+      <c r="EA13" t="n">
+        <v>1.593090825193606e-09</v>
+      </c>
+      <c r="EB13" t="n">
+        <v>0.2382122479497648</v>
+      </c>
+      <c r="EC13" t="n">
+        <v>0.0001798624602656845</v>
+      </c>
+      <c r="ED13" t="n">
+        <v>0.00369814131969511</v>
+      </c>
+      <c r="EE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF13" t="n">
+        <v>0.01069063773472701</v>
+      </c>
+      <c r="EG13" t="n">
+        <v>54.25741044704761</v>
+      </c>
+      <c r="EH13" t="n">
+        <v>0.009920251244325138</v>
+      </c>
+      <c r="EI13" t="n">
+        <v>0.01205680495179951</v>
+      </c>
+      <c r="EJ13" t="n">
+        <v>0.01205903728671882</v>
+      </c>
+      <c r="EK13" t="n">
+        <v>0.9202506795587261</v>
+      </c>
+      <c r="EL13" t="n">
+        <v>6.320651755777595</v>
+      </c>
+      <c r="EM13" t="n">
+        <v>13.3902997863129</v>
+      </c>
+      <c r="EN13" t="n">
+        <v>5.932368369783462</v>
+      </c>
+      <c r="EO13" t="n">
+        <v>0.01750537921359408</v>
+      </c>
+      <c r="EP13" t="n">
+        <v>0.01491989534584642</v>
+      </c>
+      <c r="EQ13" t="n">
+        <v>0.003309029307115738</v>
+      </c>
+      <c r="ER13" t="n">
+        <v>0.01836296222646635</v>
+      </c>
+      <c r="ES13" t="n">
+        <v>1.239499929593332</v>
+      </c>
+      <c r="ET13" t="n">
+        <v>0.6495897091817214</v>
+      </c>
+      <c r="EU13" t="n">
+        <v>3.49699655389669</v>
+      </c>
+      <c r="EV13" t="n">
+        <v>0.3649638582949725</v>
+      </c>
+      <c r="EW13" t="n">
+        <v>8.931286484695583</v>
+      </c>
+      <c r="EX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY13" t="n">
+        <v>1.425425039019363</v>
+      </c>
+      <c r="EZ13" t="n">
+        <v>0.0642703772104268</v>
+      </c>
+      <c r="FA13" t="n">
+        <v>0.001147685275968893</v>
+      </c>
+      <c r="FB13" t="n">
+        <v>0.02524907358759119</v>
+      </c>
+      <c r="FC13" t="n">
+        <v>0.9583171288525215</v>
+      </c>
+      <c r="FD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE13" t="n">
+        <v>1.104073195366162</v>
+      </c>
+      <c r="FF13" t="n">
+        <v>0.4039852147827664</v>
+      </c>
+      <c r="FG13" t="n">
+        <v>0.1733004611292089</v>
+      </c>
+      <c r="FH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>70000</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.598307891396049</v>
+      </c>
+      <c r="D14" t="n">
+        <v>51.50548012963711</v>
+      </c>
+      <c r="E14" t="n">
+        <v>31.16745057335436</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4.258867033570313</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.056794338492202</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.06353145635985938</v>
+      </c>
+      <c r="I14" t="n">
+        <v>9.320678873307525</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.01023374569252173</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.004158833405750771</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.0001285081147045908</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.01436526848407125</v>
+      </c>
+      <c r="O14" t="n">
+        <v>3.270279599084137e-06</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4.346703944849269e-09</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.959679230772089e-09</v>
+      </c>
+      <c r="R14" t="n">
+        <v>8.481474297833965e-09</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.516294048446699e-08</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3.640203817462737e-08</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.50132966879395e-09</v>
+      </c>
+      <c r="V14" t="n">
+        <v>4.787413534413458e-11</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.839793747843049e-13</v>
+      </c>
+      <c r="X14" t="n">
+        <v>4.072635764951946e-14</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>9.991437339627481e-15</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>2.407997174901375e-12</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>7.538016255571783e-13</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1.408516410435552e-13</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>3.204624978744216e-13</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>3.995191568085481e-14</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>2.581990920774012e-16</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>2.565276326216815e-17</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>2.307626514970993e-20</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>6.011460822270416e-19</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>1.20089892050355e-17</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>6.722847296857941e-21</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>1.921023791287214e-22</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4.466358367442952e-27</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0.01454849887653683</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>1.598025289728578</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>3.294505414644637</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>1.597486394168324</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>1.004585982334093</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>0.1936106079232483</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>90.22961258905691</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0.0618420037509636</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0.05608135601796665</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0.00523590464469739</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>1.944085575763411</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>0.0003033402518602086</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>1.754346592996569e-06</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>8.299469197583931e-07</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>7.40282915122265e-06</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>2.541726343968232e-05</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>3.943189375331102e-05</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>2.143207518277915e-06</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>5.438892817768887e-08</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>3.412877501145423e-10</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>4.803987726835131e-11</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>2.804381817328833e-11</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>5.272142261404365e-09</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>1.721124405128575e-09</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>6.428610737249032e-10</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>6.892413538796666e-10</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>2.174223089532059e-10</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>2.025847487487802e-12</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>1.392141993771879e-13</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>2.159501524519954e-16</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>4.420188714515979e-15</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>1.26475837094206e-13</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>1.802186967531235e-16</v>
+      </c>
+      <c r="CB14" t="n">
+        <v>6.260867407890897e-18</v>
+      </c>
+      <c r="CC14" t="n">
+        <v>4.52844406538432e-22</v>
+      </c>
+      <c r="CD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG14" t="n">
+        <v>0.0002714386214454296</v>
+      </c>
+      <c r="CH14" t="n">
+        <v>0.01764519436376623</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>0.03407224441177899</v>
+      </c>
+      <c r="CJ14" t="n">
+        <v>0.02399413671082172</v>
+      </c>
+      <c r="CK14" t="n">
+        <v>0.02758980461584619</v>
+      </c>
+      <c r="CL14" t="n">
+        <v>0.02020627065220184</v>
+      </c>
+      <c r="CM14" t="n">
+        <v>79.80706216085981</v>
+      </c>
+      <c r="CN14" t="n">
+        <v>0.02732148430247454</v>
+      </c>
+      <c r="CO14" t="n">
+        <v>0.06447553263071149</v>
+      </c>
+      <c r="CP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ14" t="n">
+        <v>0.02518872388660588</v>
+      </c>
+      <c r="CR14" t="n">
+        <v>19.94659585337205</v>
+      </c>
+      <c r="CS14" t="n">
+        <v>0.001784723507098906</v>
+      </c>
+      <c r="CT14" t="n">
+        <v>2.950714429183297e-05</v>
+      </c>
+      <c r="CU14" t="n">
+        <v>1.678926177057798e-05</v>
+      </c>
+      <c r="CV14" t="n">
+        <v>0.0002867629402797082</v>
+      </c>
+      <c r="CW14" t="n">
+        <v>0.001204716553711497</v>
+      </c>
+      <c r="CX14" t="n">
+        <v>0.002044151224989888</v>
+      </c>
+      <c r="CY14" t="n">
+        <v>0.0002040248329032531</v>
+      </c>
+      <c r="CZ14" t="n">
+        <v>2.702621103372722e-06</v>
+      </c>
+      <c r="DA14" t="n">
+        <v>7.161593733445081e-08</v>
+      </c>
+      <c r="DB14" t="n">
+        <v>1.076384412296298e-08</v>
+      </c>
+      <c r="DC14" t="n">
+        <v>1.300188557112609e-08</v>
+      </c>
+      <c r="DD14" t="n">
+        <v>1.793959030106487e-06</v>
+      </c>
+      <c r="DE14" t="n">
+        <v>6.694598335151108e-07</v>
+      </c>
+      <c r="DF14" t="n">
+        <v>5.683184096622083e-07</v>
+      </c>
+      <c r="DG14" t="n">
+        <v>2.940598335068914e-07</v>
+      </c>
+      <c r="DH14" t="n">
+        <v>3.472980855063064e-07</v>
+      </c>
+      <c r="DI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ14" t="n">
+        <v>7.573674935699098e-09</v>
+      </c>
+      <c r="DK14" t="n">
+        <v>4.468338769863724e-10</v>
+      </c>
+      <c r="DL14" t="n">
+        <v>1.435629875215994e-12</v>
+      </c>
+      <c r="DM14" t="n">
+        <v>2.982822350000825e-11</v>
+      </c>
+      <c r="DN14" t="n">
+        <v>9.469325872712386e-10</v>
+      </c>
+      <c r="DO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP14" t="n">
+        <v>1.007894729562178e-11</v>
+      </c>
+      <c r="DQ14" t="n">
+        <v>6.93404095953161e-13</v>
+      </c>
+      <c r="DR14" t="n">
+        <v>6.835895990840956e-16</v>
+      </c>
+      <c r="DS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY14" t="n">
+        <v>3.365436763557885e-24</v>
+      </c>
+      <c r="DZ14" t="n">
+        <v>1.792628436493903e-16</v>
+      </c>
+      <c r="EA14" t="n">
+        <v>1.575252139961857e-09</v>
+      </c>
+      <c r="EB14" t="n">
+        <v>0.2381758563270786</v>
+      </c>
+      <c r="EC14" t="n">
+        <v>0.0001798310664168813</v>
+      </c>
+      <c r="ED14" t="n">
+        <v>0.003697582366629099</v>
+      </c>
+      <c r="EE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF14" t="n">
+        <v>0.01069180841002004</v>
+      </c>
+      <c r="EG14" t="n">
+        <v>54.26431735892116</v>
+      </c>
+      <c r="EH14" t="n">
+        <v>0.009919589875755887</v>
+      </c>
+      <c r="EI14" t="n">
+        <v>0.01205498714872031</v>
+      </c>
+      <c r="EJ14" t="n">
+        <v>0.01205721627104594</v>
+      </c>
+      <c r="EK14" t="n">
+        <v>0.9201117688308835</v>
+      </c>
+      <c r="EL14" t="n">
+        <v>6.319696907627401</v>
+      </c>
+      <c r="EM14" t="n">
+        <v>13.38827694065148</v>
+      </c>
+      <c r="EN14" t="n">
+        <v>5.93147217882357</v>
+      </c>
+      <c r="EO14" t="n">
+        <v>0.01750273679770274</v>
+      </c>
+      <c r="EP14" t="n">
+        <v>0.01491764142725977</v>
+      </c>
+      <c r="EQ14" t="n">
+        <v>0.003308529418712624</v>
+      </c>
+      <c r="ER14" t="n">
+        <v>0.0183601881706899</v>
+      </c>
+      <c r="ES14" t="n">
+        <v>1.239312680831548</v>
+      </c>
+      <c r="ET14" t="n">
+        <v>0.6494915769706515</v>
+      </c>
+      <c r="EU14" t="n">
+        <v>3.496468269659598</v>
+      </c>
+      <c r="EV14" t="n">
+        <v>0.3649087239388261</v>
+      </c>
+      <c r="EW14" t="n">
+        <v>8.929937253206763</v>
+      </c>
+      <c r="EX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY14" t="n">
+        <v>1.425209702925185</v>
+      </c>
+      <c r="EZ14" t="n">
+        <v>0.06426066801378651</v>
+      </c>
+      <c r="FA14" t="n">
+        <v>0.001147511897462197</v>
+      </c>
+      <c r="FB14" t="n">
+        <v>0.02524525926081909</v>
+      </c>
+      <c r="FC14" t="n">
+        <v>0.9581723578109992</v>
+      </c>
+      <c r="FD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE14" t="n">
+        <v>1.10390640524878</v>
+      </c>
+      <c r="FF14" t="n">
+        <v>0.4039241855487656</v>
+      </c>
+      <c r="FG14" t="n">
+        <v>0.1732742809770457</v>
+      </c>
+      <c r="FH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>80000</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.598307891396049</v>
+      </c>
+      <c r="D15" t="n">
+        <v>51.50548012963711</v>
+      </c>
+      <c r="E15" t="n">
+        <v>31.16745057335436</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4.258867033570313</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.056794338492202</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.06353145635985938</v>
+      </c>
+      <c r="I15" t="n">
+        <v>9.320678873307525</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.01023374569252173</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.004158833405750771</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.0001285081147045908</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.01436526848407125</v>
+      </c>
+      <c r="O15" t="n">
+        <v>3.270279599084137e-06</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4.346703944849269e-09</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.959679230772089e-09</v>
+      </c>
+      <c r="R15" t="n">
+        <v>8.481474297833965e-09</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.516294048446699e-08</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3.640203817462737e-08</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.50132966879395e-09</v>
+      </c>
+      <c r="V15" t="n">
+        <v>4.787413534413458e-11</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.839793747843049e-13</v>
+      </c>
+      <c r="X15" t="n">
+        <v>4.072635764951946e-14</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>9.991437339627481e-15</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>2.407997174901375e-12</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>7.538016255571783e-13</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1.408516410435552e-13</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>3.204624978744216e-13</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>3.995191568085481e-14</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>2.581990920774012e-16</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>2.565276326216815e-17</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>2.307626514970993e-20</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>6.011460822270416e-19</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>1.20089892050355e-17</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>6.722847296857941e-21</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>1.921023791287214e-22</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4.466358367442952e-27</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0.01454849887653683</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1.598025289728578</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>3.294505414644637</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>1.597486394168324</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>1.004585982334093</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0.1936106079232483</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>90.22961258905691</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0.0618420037509636</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0.05608135601796665</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>0.00523590464469739</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>1.944085575763411</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0.0003033402518602086</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>1.754346592996569e-06</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>8.299469197583931e-07</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>7.40282915122265e-06</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>2.541726343968232e-05</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>3.943189375331102e-05</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>2.143207518277915e-06</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>5.438892817768887e-08</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>3.412877501145423e-10</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>4.803987726835131e-11</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>2.804381817328833e-11</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>5.272142261404365e-09</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>1.721124405128575e-09</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>6.428610737249032e-10</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>6.892413538796666e-10</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>2.174223089532059e-10</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>2.025847487487802e-12</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>1.392141993771879e-13</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>2.159501524519954e-16</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>4.420188714515979e-15</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>1.26475837094206e-13</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>1.802186967531235e-16</v>
+      </c>
+      <c r="CB15" t="n">
+        <v>6.260867407890897e-18</v>
+      </c>
+      <c r="CC15" t="n">
+        <v>4.52844406538432e-22</v>
+      </c>
+      <c r="CD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG15" t="n">
+        <v>0.0002714386214454296</v>
+      </c>
+      <c r="CH15" t="n">
+        <v>0.01764519436376623</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>0.03407224441177899</v>
+      </c>
+      <c r="CJ15" t="n">
+        <v>0.02399413671082172</v>
+      </c>
+      <c r="CK15" t="n">
+        <v>0.02758980461584619</v>
+      </c>
+      <c r="CL15" t="n">
+        <v>0.02020627065220184</v>
+      </c>
+      <c r="CM15" t="n">
+        <v>79.80706216085981</v>
+      </c>
+      <c r="CN15" t="n">
+        <v>0.02732148430247454</v>
+      </c>
+      <c r="CO15" t="n">
+        <v>0.06447553263071149</v>
+      </c>
+      <c r="CP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ15" t="n">
+        <v>0.02518872388660588</v>
+      </c>
+      <c r="CR15" t="n">
+        <v>19.94659585337205</v>
+      </c>
+      <c r="CS15" t="n">
+        <v>0.001784723507098906</v>
+      </c>
+      <c r="CT15" t="n">
+        <v>2.950714429183297e-05</v>
+      </c>
+      <c r="CU15" t="n">
+        <v>1.678926177057798e-05</v>
+      </c>
+      <c r="CV15" t="n">
+        <v>0.0002867629402797082</v>
+      </c>
+      <c r="CW15" t="n">
+        <v>0.001204716553711497</v>
+      </c>
+      <c r="CX15" t="n">
+        <v>0.002044151224989888</v>
+      </c>
+      <c r="CY15" t="n">
+        <v>0.0002040248329032531</v>
+      </c>
+      <c r="CZ15" t="n">
+        <v>2.702621103372722e-06</v>
+      </c>
+      <c r="DA15" t="n">
+        <v>7.161593733445081e-08</v>
+      </c>
+      <c r="DB15" t="n">
+        <v>1.076384412296298e-08</v>
+      </c>
+      <c r="DC15" t="n">
+        <v>1.300188557112609e-08</v>
+      </c>
+      <c r="DD15" t="n">
+        <v>1.793959030106487e-06</v>
+      </c>
+      <c r="DE15" t="n">
+        <v>6.694598335151108e-07</v>
+      </c>
+      <c r="DF15" t="n">
+        <v>5.683184096622083e-07</v>
+      </c>
+      <c r="DG15" t="n">
+        <v>2.940598335068914e-07</v>
+      </c>
+      <c r="DH15" t="n">
+        <v>3.472980855063064e-07</v>
+      </c>
+      <c r="DI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ15" t="n">
+        <v>7.573674935699098e-09</v>
+      </c>
+      <c r="DK15" t="n">
+        <v>4.468338769863724e-10</v>
+      </c>
+      <c r="DL15" t="n">
+        <v>1.435629875215994e-12</v>
+      </c>
+      <c r="DM15" t="n">
+        <v>2.982822350000825e-11</v>
+      </c>
+      <c r="DN15" t="n">
+        <v>9.469325872712386e-10</v>
+      </c>
+      <c r="DO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP15" t="n">
+        <v>1.007894729562178e-11</v>
+      </c>
+      <c r="DQ15" t="n">
+        <v>6.93404095953161e-13</v>
+      </c>
+      <c r="DR15" t="n">
+        <v>6.835895990840956e-16</v>
+      </c>
+      <c r="DS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY15" t="n">
+        <v>3.365436763557885e-24</v>
+      </c>
+      <c r="DZ15" t="n">
+        <v>1.792628436493903e-16</v>
+      </c>
+      <c r="EA15" t="n">
+        <v>1.575252139961857e-09</v>
+      </c>
+      <c r="EB15" t="n">
+        <v>0.2381758563270786</v>
+      </c>
+      <c r="EC15" t="n">
+        <v>0.0001798310664168813</v>
+      </c>
+      <c r="ED15" t="n">
+        <v>0.003697582366629099</v>
+      </c>
+      <c r="EE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF15" t="n">
+        <v>0.01069180841002004</v>
+      </c>
+      <c r="EG15" t="n">
+        <v>54.26431735892116</v>
+      </c>
+      <c r="EH15" t="n">
+        <v>0.009919589875755887</v>
+      </c>
+      <c r="EI15" t="n">
+        <v>0.01205498714872031</v>
+      </c>
+      <c r="EJ15" t="n">
+        <v>0.01205721627104594</v>
+      </c>
+      <c r="EK15" t="n">
+        <v>0.9201117688308835</v>
+      </c>
+      <c r="EL15" t="n">
+        <v>6.319696907627401</v>
+      </c>
+      <c r="EM15" t="n">
+        <v>13.38827694065148</v>
+      </c>
+      <c r="EN15" t="n">
+        <v>5.93147217882357</v>
+      </c>
+      <c r="EO15" t="n">
+        <v>0.01750273679770274</v>
+      </c>
+      <c r="EP15" t="n">
+        <v>0.01491764142725977</v>
+      </c>
+      <c r="EQ15" t="n">
+        <v>0.003308529418712624</v>
+      </c>
+      <c r="ER15" t="n">
+        <v>0.0183601881706899</v>
+      </c>
+      <c r="ES15" t="n">
+        <v>1.239312680831548</v>
+      </c>
+      <c r="ET15" t="n">
+        <v>0.6494915769706515</v>
+      </c>
+      <c r="EU15" t="n">
+        <v>3.496468269659598</v>
+      </c>
+      <c r="EV15" t="n">
+        <v>0.3649087239388261</v>
+      </c>
+      <c r="EW15" t="n">
+        <v>8.929937253206763</v>
+      </c>
+      <c r="EX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY15" t="n">
+        <v>1.425209702925185</v>
+      </c>
+      <c r="EZ15" t="n">
+        <v>0.06426066801378651</v>
+      </c>
+      <c r="FA15" t="n">
+        <v>0.001147511897462197</v>
+      </c>
+      <c r="FB15" t="n">
+        <v>0.02524525926081909</v>
+      </c>
+      <c r="FC15" t="n">
+        <v>0.9581723578109992</v>
+      </c>
+      <c r="FD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE15" t="n">
+        <v>1.10390640524878</v>
+      </c>
+      <c r="FF15" t="n">
+        <v>0.4039241855487656</v>
+      </c>
+      <c r="FG15" t="n">
+        <v>0.1732742809770457</v>
+      </c>
+      <c r="FH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>90000</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.598307891396049</v>
+      </c>
+      <c r="D16" t="n">
+        <v>51.50548012963711</v>
+      </c>
+      <c r="E16" t="n">
+        <v>31.16745057335436</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4.258867033570313</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.056794338492202</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.06353145635985938</v>
+      </c>
+      <c r="I16" t="n">
+        <v>9.320678873307525</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.01023374569252173</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.004158833405750771</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.0001285081147045908</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.01436526848407125</v>
+      </c>
+      <c r="O16" t="n">
+        <v>3.270279599084137e-06</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4.346703944849269e-09</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.959679230772089e-09</v>
+      </c>
+      <c r="R16" t="n">
+        <v>8.481474297833965e-09</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.516294048446699e-08</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3.640203817462737e-08</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.50132966879395e-09</v>
+      </c>
+      <c r="V16" t="n">
+        <v>4.787413534413458e-11</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.839793747843049e-13</v>
+      </c>
+      <c r="X16" t="n">
+        <v>4.072635764951946e-14</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>9.991437339627481e-15</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>2.407997174901375e-12</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>7.538016255571783e-13</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1.408516410435552e-13</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>3.204624978744216e-13</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>3.995191568085481e-14</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>2.581990920774012e-16</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>2.565276326216815e-17</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>2.307626514970993e-20</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>6.011460822270416e-19</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>1.20089892050355e-17</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>6.722847296857941e-21</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1.921023791287214e-22</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>4.466358367442952e-27</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0.01454849887653683</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1.598025289728578</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>3.294505414644637</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>1.597486394168324</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>1.004585982334093</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0.1936106079232483</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>90.22961258905691</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>0.0618420037509636</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>0.05608135601796665</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>0.00523590464469739</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>1.944085575763411</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>0.0003033402518602086</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>1.754346592996569e-06</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>8.299469197583931e-07</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>7.40282915122265e-06</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>2.541726343968232e-05</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>3.943189375331102e-05</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>2.143207518277915e-06</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>5.438892817768887e-08</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>3.412877501145423e-10</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>4.803987726835131e-11</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>2.804381817328833e-11</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>5.272142261404365e-09</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>1.721124405128575e-09</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>6.428610737249032e-10</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>6.892413538796666e-10</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>2.174223089532059e-10</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>2.025847487487802e-12</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>1.392141993771879e-13</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>2.159501524519954e-16</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>4.420188714515979e-15</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>1.26475837094206e-13</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA16" t="n">
+        <v>1.802186967531235e-16</v>
+      </c>
+      <c r="CB16" t="n">
+        <v>6.260867407890897e-18</v>
+      </c>
+      <c r="CC16" t="n">
+        <v>4.52844406538432e-22</v>
+      </c>
+      <c r="CD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG16" t="n">
+        <v>0.0002714386214454296</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>0.01764519436376623</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>0.03407224441177899</v>
+      </c>
+      <c r="CJ16" t="n">
+        <v>0.02399413671082172</v>
+      </c>
+      <c r="CK16" t="n">
+        <v>0.02758980461584619</v>
+      </c>
+      <c r="CL16" t="n">
+        <v>0.02020627065220184</v>
+      </c>
+      <c r="CM16" t="n">
+        <v>79.80706216085981</v>
+      </c>
+      <c r="CN16" t="n">
+        <v>0.02732148430247454</v>
+      </c>
+      <c r="CO16" t="n">
+        <v>0.06447553263071149</v>
+      </c>
+      <c r="CP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ16" t="n">
+        <v>0.02518872388660588</v>
+      </c>
+      <c r="CR16" t="n">
+        <v>19.94659585337205</v>
+      </c>
+      <c r="CS16" t="n">
+        <v>0.001784723507098906</v>
+      </c>
+      <c r="CT16" t="n">
+        <v>2.950714429183297e-05</v>
+      </c>
+      <c r="CU16" t="n">
+        <v>1.678926177057798e-05</v>
+      </c>
+      <c r="CV16" t="n">
+        <v>0.0002867629402797082</v>
+      </c>
+      <c r="CW16" t="n">
+        <v>0.001204716553711497</v>
+      </c>
+      <c r="CX16" t="n">
+        <v>0.002044151224989888</v>
+      </c>
+      <c r="CY16" t="n">
+        <v>0.0002040248329032531</v>
+      </c>
+      <c r="CZ16" t="n">
+        <v>2.702621103372722e-06</v>
+      </c>
+      <c r="DA16" t="n">
+        <v>7.161593733445081e-08</v>
+      </c>
+      <c r="DB16" t="n">
+        <v>1.076384412296298e-08</v>
+      </c>
+      <c r="DC16" t="n">
+        <v>1.300188557112609e-08</v>
+      </c>
+      <c r="DD16" t="n">
+        <v>1.793959030106487e-06</v>
+      </c>
+      <c r="DE16" t="n">
+        <v>6.694598335151108e-07</v>
+      </c>
+      <c r="DF16" t="n">
+        <v>5.683184096622083e-07</v>
+      </c>
+      <c r="DG16" t="n">
+        <v>2.940598335068914e-07</v>
+      </c>
+      <c r="DH16" t="n">
+        <v>3.472980855063064e-07</v>
+      </c>
+      <c r="DI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ16" t="n">
+        <v>7.573674935699098e-09</v>
+      </c>
+      <c r="DK16" t="n">
+        <v>4.468338769863724e-10</v>
+      </c>
+      <c r="DL16" t="n">
+        <v>1.435629875215994e-12</v>
+      </c>
+      <c r="DM16" t="n">
+        <v>2.982822350000825e-11</v>
+      </c>
+      <c r="DN16" t="n">
+        <v>9.469325872712386e-10</v>
+      </c>
+      <c r="DO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP16" t="n">
+        <v>1.007894729562178e-11</v>
+      </c>
+      <c r="DQ16" t="n">
+        <v>6.93404095953161e-13</v>
+      </c>
+      <c r="DR16" t="n">
+        <v>6.835895990840956e-16</v>
+      </c>
+      <c r="DS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY16" t="n">
+        <v>3.365436763557885e-24</v>
+      </c>
+      <c r="DZ16" t="n">
+        <v>1.792628436493903e-16</v>
+      </c>
+      <c r="EA16" t="n">
+        <v>1.575252139961857e-09</v>
+      </c>
+      <c r="EB16" t="n">
+        <v>0.2381758563270786</v>
+      </c>
+      <c r="EC16" t="n">
+        <v>0.0001798310664168813</v>
+      </c>
+      <c r="ED16" t="n">
+        <v>0.003697582366629099</v>
+      </c>
+      <c r="EE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF16" t="n">
+        <v>0.01069180841002004</v>
+      </c>
+      <c r="EG16" t="n">
+        <v>54.26431735892116</v>
+      </c>
+      <c r="EH16" t="n">
+        <v>0.009919589875755887</v>
+      </c>
+      <c r="EI16" t="n">
+        <v>0.01205498714872031</v>
+      </c>
+      <c r="EJ16" t="n">
+        <v>0.01205721627104594</v>
+      </c>
+      <c r="EK16" t="n">
+        <v>0.9201117688308835</v>
+      </c>
+      <c r="EL16" t="n">
+        <v>6.319696907627401</v>
+      </c>
+      <c r="EM16" t="n">
+        <v>13.38827694065148</v>
+      </c>
+      <c r="EN16" t="n">
+        <v>5.93147217882357</v>
+      </c>
+      <c r="EO16" t="n">
+        <v>0.01750273679770274</v>
+      </c>
+      <c r="EP16" t="n">
+        <v>0.01491764142725977</v>
+      </c>
+      <c r="EQ16" t="n">
+        <v>0.003308529418712624</v>
+      </c>
+      <c r="ER16" t="n">
+        <v>0.0183601881706899</v>
+      </c>
+      <c r="ES16" t="n">
+        <v>1.239312680831548</v>
+      </c>
+      <c r="ET16" t="n">
+        <v>0.6494915769706515</v>
+      </c>
+      <c r="EU16" t="n">
+        <v>3.496468269659598</v>
+      </c>
+      <c r="EV16" t="n">
+        <v>0.3649087239388261</v>
+      </c>
+      <c r="EW16" t="n">
+        <v>8.929937253206763</v>
+      </c>
+      <c r="EX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY16" t="n">
+        <v>1.425209702925185</v>
+      </c>
+      <c r="EZ16" t="n">
+        <v>0.06426066801378651</v>
+      </c>
+      <c r="FA16" t="n">
+        <v>0.001147511897462197</v>
+      </c>
+      <c r="FB16" t="n">
+        <v>0.02524525926081909</v>
+      </c>
+      <c r="FC16" t="n">
+        <v>0.9581723578109992</v>
+      </c>
+      <c r="FD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE16" t="n">
+        <v>1.10390640524878</v>
+      </c>
+      <c r="FF16" t="n">
+        <v>0.4039241855487656</v>
+      </c>
+      <c r="FG16" t="n">
+        <v>0.1732742809770457</v>
+      </c>
+      <c r="FH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>sim01</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.598305842476279</v>
+      </c>
+      <c r="D17" t="n">
+        <v>51.50543951451338</v>
+      </c>
+      <c r="E17" t="n">
+        <v>31.16742599597234</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4.258863675201241</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.056793505147231</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.06353140626154063</v>
+      </c>
+      <c r="I17" t="n">
+        <v>9.320671523399811</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.01023373335740843</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.004158830126264144</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.0001285637541733014</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.01444400804360804</v>
+      </c>
+      <c r="O17" t="n">
+        <v>3.323798869188713e-06</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4.353728220697508e-09</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.961925133339872e-09</v>
+      </c>
+      <c r="R17" t="n">
+        <v>8.485590254492418e-09</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.517200017541414e-08</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3.642096472706921e-08</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.501676190244253e-09</v>
+      </c>
+      <c r="V17" t="n">
+        <v>4.807390552682693e-11</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.840474756842591e-13</v>
+      </c>
+      <c r="X17" t="n">
+        <v>4.078040261658826e-14</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>9.995168382840823e-15</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>2.408840620969784e-12</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>7.541791353791227e-13</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1.408989222118458e-13</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>3.206723940839607e-13</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>3.996604204341381e-14</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>2.582391302583239e-16</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>2.565608363901613e-17</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>2.308540254639245e-20</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>6.013616547206893e-19</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1.20151189943135e-17</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>6.724142812192292e-21</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1.921807528063854e-22</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4.469866205371541e-27</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0.01454847919631769</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>1.598023128028724</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>3.294500958061927</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>1.597484233197451</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>1.004584623398545</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>0.1936103460199946</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>90.2294905325778</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>0.06184189372697138</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>0.05608128015492498</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>0.005234118075935938</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>1.944220010668491</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>0.0003033541557622196</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>1.75434494150938e-06</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>8.299458692300326e-07</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>7.40282051373091e-06</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>2.541722905693818e-05</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>3.943184041252878e-05</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>2.143205035036791e-06</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>5.43888709694314e-08</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>3.412872884437011e-10</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>4.803981711680048e-11</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>2.804378191395179e-11</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>5.272136487519178e-09</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>1.721122076908615e-09</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>6.428602440131308e-10</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>6.89240488159044e-10</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>2.174220148391036e-10</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>2.025844747059195e-12</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>1.392140110576935e-13</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>2.159498603293262e-16</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>4.420182735185514e-15</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>1.264756660063012e-13</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>1.802184769970499e-16</v>
+      </c>
+      <c r="CB17" t="n">
+        <v>6.260858938615566e-18</v>
+      </c>
+      <c r="CC17" t="n">
+        <v>4.528437939613383e-22</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG17" t="n">
+        <v>0.0002711975470577192</v>
+      </c>
+      <c r="CH17" t="n">
+        <v>0.01762952303297098</v>
+      </c>
+      <c r="CI17" t="n">
+        <v>0.03404198362790177</v>
+      </c>
+      <c r="CJ17" t="n">
+        <v>0.02397282665632248</v>
+      </c>
+      <c r="CK17" t="n">
+        <v>0.02756530111955153</v>
+      </c>
+      <c r="CL17" t="n">
+        <v>0.0201883247375805</v>
+      </c>
+      <c r="CM17" t="n">
+        <v>79.73618264289385</v>
+      </c>
+      <c r="CN17" t="n">
+        <v>0.02729720732264617</v>
+      </c>
+      <c r="CO17" t="n">
+        <v>0.06441826959471283</v>
+      </c>
+      <c r="CP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ17" t="n">
+        <v>0.02518353031595424</v>
+      </c>
+      <c r="CR17" t="n">
+        <v>20.01767083148066</v>
+      </c>
+      <c r="CS17" t="n">
+        <v>0.001788052637497496</v>
+      </c>
+      <c r="CT17" t="n">
+        <v>2.950002153546877e-05</v>
+      </c>
+      <c r="CU17" t="n">
+        <v>1.678144141370301e-05</v>
+      </c>
+      <c r="CV17" t="n">
+        <v>0.0002865976628999058</v>
+      </c>
+      <c r="CW17" t="n">
+        <v>0.001204097416335504</v>
+      </c>
+      <c r="CX17" t="n">
+        <v>0.002042934613753144</v>
+      </c>
+      <c r="CY17" t="n">
+        <v>0.0002039208298505403</v>
+      </c>
+      <c r="CZ17" t="n">
+        <v>2.701463549556472e-06</v>
+      </c>
+      <c r="DA17" t="n">
+        <v>7.158817026616794e-08</v>
+      </c>
+      <c r="DB17" t="n">
+        <v>1.075680471894077e-08</v>
+      </c>
+      <c r="DC17" t="n">
+        <v>1.299405880782798e-08</v>
+      </c>
+      <c r="DD17" t="n">
+        <v>1.793177415731068e-06</v>
+      </c>
+      <c r="DE17" t="n">
+        <v>6.69086853382651e-07</v>
+      </c>
+      <c r="DF17" t="n">
+        <v>5.680119241240874e-07</v>
+      </c>
+      <c r="DG17" t="n">
+        <v>2.938730439796412e-07</v>
+      </c>
+      <c r="DH17" t="n">
+        <v>3.470911221708254e-07</v>
+      </c>
+      <c r="DI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ17" t="n">
+        <v>7.56941570895172e-09</v>
+      </c>
+      <c r="DK17" t="n">
+        <v>4.465596245744859e-10</v>
+      </c>
+      <c r="DL17" t="n">
+        <v>1.434894372053936e-12</v>
+      </c>
+      <c r="DM17" t="n">
+        <v>2.982133273447261e-11</v>
+      </c>
+      <c r="DN17" t="n">
+        <v>9.465916868629856e-10</v>
+      </c>
+      <c r="DO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP17" t="n">
+        <v>1.007430280322403e-11</v>
+      </c>
+      <c r="DQ17" t="n">
+        <v>6.930788694037974e-13</v>
+      </c>
+      <c r="DR17" t="n">
+        <v>6.836784561793773e-16</v>
+      </c>
+      <c r="DS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY17" t="n">
+        <v>3.418568208555885e-24</v>
+      </c>
+      <c r="DZ17" t="n">
+        <v>1.820345185165017e-16</v>
+      </c>
+      <c r="EA17" t="n">
+        <v>1.593090825193606e-09</v>
+      </c>
+      <c r="EB17" t="n">
+        <v>0.2382122479497648</v>
+      </c>
+      <c r="EC17" t="n">
+        <v>0.0001798624602656845</v>
+      </c>
+      <c r="ED17" t="n">
+        <v>0.00369814131969511</v>
+      </c>
+      <c r="EE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF17" t="n">
+        <v>0.01069063773472701</v>
+      </c>
+      <c r="EG17" t="n">
+        <v>54.25741044704761</v>
+      </c>
+      <c r="EH17" t="n">
+        <v>0.009920251244325138</v>
+      </c>
+      <c r="EI17" t="n">
+        <v>0.01205680495179951</v>
+      </c>
+      <c r="EJ17" t="n">
+        <v>0.01205903728671882</v>
+      </c>
+      <c r="EK17" t="n">
+        <v>0.9202506795587261</v>
+      </c>
+      <c r="EL17" t="n">
+        <v>6.320651755777595</v>
+      </c>
+      <c r="EM17" t="n">
+        <v>13.3902997863129</v>
+      </c>
+      <c r="EN17" t="n">
+        <v>5.932368369783462</v>
+      </c>
+      <c r="EO17" t="n">
+        <v>0.01750537921359408</v>
+      </c>
+      <c r="EP17" t="n">
+        <v>0.01491989534584642</v>
+      </c>
+      <c r="EQ17" t="n">
+        <v>0.003309029307115738</v>
+      </c>
+      <c r="ER17" t="n">
+        <v>0.01836296222646635</v>
+      </c>
+      <c r="ES17" t="n">
+        <v>1.239499929593332</v>
+      </c>
+      <c r="ET17" t="n">
+        <v>0.6495897091817214</v>
+      </c>
+      <c r="EU17" t="n">
+        <v>3.49699655389669</v>
+      </c>
+      <c r="EV17" t="n">
+        <v>0.3649638582949725</v>
+      </c>
+      <c r="EW17" t="n">
+        <v>8.931286484695583</v>
+      </c>
+      <c r="EX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY17" t="n">
+        <v>1.425425039019363</v>
+      </c>
+      <c r="EZ17" t="n">
+        <v>0.0642703772104268</v>
+      </c>
+      <c r="FA17" t="n">
+        <v>0.001147685275968893</v>
+      </c>
+      <c r="FB17" t="n">
+        <v>0.02524907358759119</v>
+      </c>
+      <c r="FC17" t="n">
+        <v>0.9583171288525215</v>
+      </c>
+      <c r="FD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE17" t="n">
+        <v>1.104073195366162</v>
+      </c>
+      <c r="FF17" t="n">
+        <v>0.4039852147827664</v>
+      </c>
+      <c r="FG17" t="n">
+        <v>0.1733004611292089</v>
+      </c>
+      <c r="FH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>real01</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.64881852254033</v>
+      </c>
+      <c r="D18" t="n">
+        <v>52.76398538764746</v>
+      </c>
+      <c r="E18" t="n">
+        <v>31.62293002278364</v>
+      </c>
+      <c r="F18" t="n">
+        <v>4.197452831144401</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.8926767750483267</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.04762346819473894</v>
+      </c>
+      <c r="I18" t="n">
+        <v>7.780725760603572</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.001901214421326651</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.001902446295460524</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.0001185916843909058</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.04185298726964763</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.188309378080492e-05</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.847961991316513e-09</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.750040207330898e-09</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.118950397478137e-08</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3.35643089400954e-08</v>
+      </c>
+      <c r="T18" t="n">
+        <v>5.65471268289921e-08</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.332333993468392e-09</v>
+      </c>
+      <c r="V18" t="n">
+        <v>3.842773796855166e-11</v>
+      </c>
+      <c r="W18" t="n">
+        <v>9.159102213576988e-14</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2.229576827216498e-14</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>4.932672778676652e-15</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>2.024064014116291e-12</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>6.392905421298675e-13</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1.263285141731736e-13</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>2.752524708971241e-13</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>3.575357066559421e-14</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>2.319118268164738e-16</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1.656595381190789e-17</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>2.425055806849862e-20</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>8.16705662675258e-19</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>1.658563002973482e-17</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>9.269646202639024e-21</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1.325896615062807e-22</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>3.077722419785294e-27</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0.01758628445941237</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>1.941163496612886</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>3.963559386704141</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>1.866909336756944</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>1.006202027510116</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>0.1720900025695113</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>89.31326347890894</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>0.0136230493677672</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>0.03041948893831554</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>0.003068185808141523</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>1.671718173584319</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>0.0002713902623168917</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>1.792800545432171e-06</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>8.491866371017021e-07</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>1.121896571686757e-05</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>3.963178400199637e-05</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>6.828572569406823e-05</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>3.859645655220548e-06</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>5.168903103221832e-08</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>1.985381674427358e-10</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>3.023923600852374e-11</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>1.620078261295252e-11</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>5.191775321407415e-09</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>1.694974648789459e-09</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>6.777525112526722e-10</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>6.787224486331074e-10</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>2.292466324563296e-10</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>2.136610278187157e-12</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>1.060181393079478e-13</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>2.692420455653045e-16</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>7.085854927255668e-15</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>2.064261418770257e-13</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>2.93945258240785e-16</v>
+      </c>
+      <c r="CB18" t="n">
+        <v>5.134302972061925e-18</v>
+      </c>
+      <c r="CC18" t="n">
+        <v>3.710093019149105e-22</v>
+      </c>
+      <c r="CD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG18" t="n">
+        <v>0.0003366523086114887</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>0.02199171307859725</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>0.04205811154651229</v>
+      </c>
+      <c r="CJ18" t="n">
+        <v>0.02877034479170233</v>
+      </c>
+      <c r="CK18" t="n">
+        <v>0.02835309970114793</v>
+      </c>
+      <c r="CL18" t="n">
+        <v>0.01842750347687621</v>
+      </c>
+      <c r="CM18" t="n">
+        <v>81.05168363318536</v>
+      </c>
+      <c r="CN18" t="n">
+        <v>0.006175169615616686</v>
+      </c>
+      <c r="CO18" t="n">
+        <v>0.03588246168556932</v>
+      </c>
+      <c r="CP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ18" t="n">
+        <v>0.01531882246843958</v>
+      </c>
+      <c r="CR18" t="n">
+        <v>18.74295995811266</v>
+      </c>
+      <c r="CS18" t="n">
+        <v>0.00160045563875846</v>
+      </c>
+      <c r="CT18" t="n">
+        <v>3.073890158888827e-05</v>
+      </c>
+      <c r="CU18" t="n">
+        <v>1.772265667660445e-05</v>
+      </c>
+      <c r="CV18" t="n">
+        <v>0.0004462362047461213</v>
+      </c>
+      <c r="CW18" t="n">
+        <v>0.001925793163937057</v>
+      </c>
+      <c r="CX18" t="n">
+        <v>0.003639006621259882</v>
+      </c>
+      <c r="CY18" t="n">
+        <v>0.0003761072599494811</v>
+      </c>
+      <c r="CZ18" t="n">
+        <v>2.63072000021359e-06</v>
+      </c>
+      <c r="DA18" t="n">
+        <v>4.25766041808629e-08</v>
+      </c>
+      <c r="DB18" t="n">
+        <v>6.937565685353058e-09</v>
+      </c>
+      <c r="DC18" t="n">
+        <v>7.695756896365752e-09</v>
+      </c>
+      <c r="DD18" t="n">
+        <v>1.80766104317793e-06</v>
+      </c>
+      <c r="DE18" t="n">
+        <v>6.773281368379092e-07</v>
+      </c>
+      <c r="DF18" t="n">
+        <v>6.148304637945122e-07</v>
+      </c>
+      <c r="DG18" t="n">
+        <v>2.965542185299209e-07</v>
+      </c>
+      <c r="DH18" t="n">
+        <v>3.750796241732477e-07</v>
+      </c>
+      <c r="DI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ18" t="n">
+        <v>8.198753298635313e-09</v>
+      </c>
+      <c r="DK18" t="n">
+        <v>3.491613692785732e-10</v>
+      </c>
+      <c r="DL18" t="n">
+        <v>1.829682977154006e-12</v>
+      </c>
+      <c r="DM18" t="n">
+        <v>4.883277807043608e-11</v>
+      </c>
+      <c r="DN18" t="n">
+        <v>1.582570835524334e-09</v>
+      </c>
+      <c r="DO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP18" t="n">
+        <v>1.683678354611835e-11</v>
+      </c>
+      <c r="DQ18" t="n">
+        <v>5.823425938774357e-13</v>
+      </c>
+      <c r="DR18" t="n">
+        <v>5.753635228956489e-16</v>
+      </c>
+      <c r="DS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY18" t="n">
+        <v>8.666219674269314e-24</v>
+      </c>
+      <c r="DZ18" t="n">
+        <v>2.505611166022806e-16</v>
+      </c>
+      <c r="EA18" t="n">
+        <v>1.655388858825864e-09</v>
+      </c>
+      <c r="EB18" t="n">
+        <v>0.2490862773112312</v>
+      </c>
+      <c r="EC18" t="n">
+        <v>4.459040176947165e-05</v>
+      </c>
+      <c r="ED18" t="n">
+        <v>0.001792782223355963</v>
+      </c>
+      <c r="EE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF18" t="n">
+        <v>0.0055785422218034</v>
+      </c>
+      <c r="EG18" t="n">
+        <v>40.92358962199926</v>
+      </c>
+      <c r="EH18" t="n">
+        <v>0.007898379659900487</v>
+      </c>
+      <c r="EI18" t="n">
+        <v>0.01098902080812012</v>
+      </c>
+      <c r="EJ18" t="n">
+        <v>0.01100469715507958</v>
+      </c>
+      <c r="EK18" t="n">
+        <v>1.243869847535641</v>
+      </c>
+      <c r="EL18" t="n">
+        <v>8.790022576612671</v>
+      </c>
+      <c r="EM18" t="n">
+        <v>20.68170075939263</v>
+      </c>
+      <c r="EN18" t="n">
+        <v>9.52847206264271</v>
+      </c>
+      <c r="EO18" t="n">
+        <v>0.01483794458313108</v>
+      </c>
+      <c r="EP18" t="n">
+        <v>0.007741113152705975</v>
+      </c>
+      <c r="EQ18" t="n">
+        <v>0.00185772752608723</v>
+      </c>
+      <c r="ER18" t="n">
+        <v>0.009461366903658378</v>
+      </c>
+      <c r="ES18" t="n">
+        <v>1.088649102268349</v>
+      </c>
+      <c r="ET18" t="n">
+        <v>0.5705622867179946</v>
+      </c>
+      <c r="EU18" t="n">
+        <v>3.288229975206572</v>
+      </c>
+      <c r="EV18" t="n">
+        <v>0.3205404718409327</v>
+      </c>
+      <c r="EW18" t="n">
+        <v>8.398952364334129</v>
+      </c>
+      <c r="EX18" t="n">
+        <v>1.955657696230407e-06</v>
+      </c>
+      <c r="EY18" t="n">
+        <v>1.340835405600079</v>
+      </c>
+      <c r="EZ18" t="n">
+        <v>0.04365369107198054</v>
+      </c>
+      <c r="FA18" t="n">
+        <v>0.001276217732840929</v>
+      </c>
+      <c r="FB18" t="n">
+        <v>0.03610014526100502</v>
+      </c>
+      <c r="FC18" t="n">
+        <v>1.395014744323852</v>
+      </c>
+      <c r="FD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE18" t="n">
+        <v>1.606124899506375</v>
+      </c>
+      <c r="FF18" t="n">
+        <v>0.2954780000851392</v>
+      </c>
+      <c r="FG18" t="n">
+        <v>0.1266334286079168</v>
+      </c>
+      <c r="FH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI18" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/log/c620_wt_log.xlsx
+++ b/log/c620_wt_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FI18"/>
+  <dimension ref="A1:FI22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9732,6 +9732,2002 @@
         <v>0</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>test001</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.988828453616075</v>
+      </c>
+      <c r="D19" t="n">
+        <v>45.37659000995058</v>
+      </c>
+      <c r="E19" t="n">
+        <v>35.47090516272485</v>
+      </c>
+      <c r="F19" t="n">
+        <v>6.645815662618816</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.619787947315332</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.09153606661213326</v>
+      </c>
+      <c r="I19" t="n">
+        <v>8.758875498880736</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.01030085707355653</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.003228092029219934</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.0001540493944924051</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.03397356683166552</v>
+      </c>
+      <c r="O19" t="n">
+        <v>4.370258508706043e-06</v>
+      </c>
+      <c r="P19" t="n">
+        <v>9.883135021838104e-09</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4.525446095367912e-09</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.818562450559608e-08</v>
+      </c>
+      <c r="S19" t="n">
+        <v>8.759712688300777e-08</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.266329355655857e-07</v>
+      </c>
+      <c r="U19" t="n">
+        <v>5.716819710019968e-09</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.370616842913594e-10</v>
+      </c>
+      <c r="W19" t="n">
+        <v>7.236850550796869e-13</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1.123489155667611e-13</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>4.359810496430044e-14</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>9.786729466370121e-12</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>3.075611425830902e-12</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>6.567087887649673e-13</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>1.29396938293186e-12</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>1.981595166312243e-13</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>1.367912456013997e-15</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>1.291905728925809e-16</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>1.215059876542396e-19</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>3.062629524607284e-18</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>6.506242493637874e-17</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>4.371235522660512e-20</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>1.262445185152963e-21</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3.530181227028435e-26</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0.01258320517983108</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>1.624823211900377</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>4.482819643501006</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>3.213879535906618</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>2.312123588369339</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>0.4101933055147992</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>86.37469785229369</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>0.06818607620494757</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>0.04227950740062811</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>0.003026501468628159</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>1.45516269978156</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>0.0001828922632983358</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>8.69572721147406e-07</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>3.946296402977804e-07</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>4.010750292049044e-06</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>1.379891529653751e-05</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>2.174224192302989e-05</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>1.134227692661889e-06</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>2.510602046456158e-08</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>1.80772480087018e-10</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>2.143544817474562e-11</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>1.486937037001783e-11</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>2.867144046716096e-09</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>8.87573919061137e-10</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>3.271796247912091e-10</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>3.611329931596569e-10</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>1.104541791291651e-10</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>9.973439763874942e-13</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>7.018025910561634e-14</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>1.065308947038067e-16</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>2.226471548568013e-15</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>6.168388968353845e-14</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>8.596472063859025e-17</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>2.916088873935054e-18</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>2.097098798590716e-22</v>
+      </c>
+      <c r="CD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG19" t="n">
+        <v>0.00029036040578223</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>0.01881602778631512</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>0.03503230973846744</v>
+      </c>
+      <c r="CJ19" t="n">
+        <v>0.02388355159643353</v>
+      </c>
+      <c r="CK19" t="n">
+        <v>0.02989520297470784</v>
+      </c>
+      <c r="CL19" t="n">
+        <v>0.02661110906375587</v>
+      </c>
+      <c r="CM19" t="n">
+        <v>79.07748903976804</v>
+      </c>
+      <c r="CN19" t="n">
+        <v>0.02798509024328746</v>
+      </c>
+      <c r="CO19" t="n">
+        <v>0.05460498784921867</v>
+      </c>
+      <c r="CP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ19" t="n">
+        <v>0.01811262926820192</v>
+      </c>
+      <c r="CR19" t="n">
+        <v>20.66851358820298</v>
+      </c>
+      <c r="CS19" t="n">
+        <v>0.001938438999388612</v>
+      </c>
+      <c r="CT19" t="n">
+        <v>6.015307981431901e-05</v>
+      </c>
+      <c r="CU19" t="n">
+        <v>3.861323100989348e-05</v>
+      </c>
+      <c r="CV19" t="n">
+        <v>0.001206781560401704</v>
+      </c>
+      <c r="CW19" t="n">
+        <v>0.005253568651004163</v>
+      </c>
+      <c r="CX19" t="n">
+        <v>0.009251867155644135</v>
+      </c>
+      <c r="CY19" t="n">
+        <v>0.0009889946059811316</v>
+      </c>
+      <c r="CZ19" t="n">
+        <v>8.060698333428413e-06</v>
+      </c>
+      <c r="DA19" t="n">
+        <v>3.475181679035168e-07</v>
+      </c>
+      <c r="DB19" t="n">
+        <v>3.742574413699432e-08</v>
+      </c>
+      <c r="DC19" t="n">
+        <v>6.99432942196808e-08</v>
+      </c>
+      <c r="DD19" t="n">
+        <v>8.976223873742481e-06</v>
+      </c>
+      <c r="DE19" t="n">
+        <v>3.326368042250553e-06</v>
+      </c>
+      <c r="DF19" t="n">
+        <v>3.297774775438372e-06</v>
+      </c>
+      <c r="DG19" t="n">
+        <v>1.480358324715147e-06</v>
+      </c>
+      <c r="DH19" t="n">
+        <v>2.031687572464671e-06</v>
+      </c>
+      <c r="DI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ19" t="n">
+        <v>4.896054357115008e-08</v>
+      </c>
+      <c r="DK19" t="n">
+        <v>2.703290966580217e-09</v>
+      </c>
+      <c r="DL19" t="n">
+        <v>8.584581182771309e-12</v>
+      </c>
+      <c r="DM19" t="n">
+        <v>1.732854958142003e-10</v>
+      </c>
+      <c r="DN19" t="n">
+        <v>5.896656458829712e-09</v>
+      </c>
+      <c r="DO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP19" t="n">
+        <v>7.416688462438875e-11</v>
+      </c>
+      <c r="DQ19" t="n">
+        <v>4.917593385816652e-12</v>
+      </c>
+      <c r="DR19" t="n">
+        <v>5.263144901226117e-15</v>
+      </c>
+      <c r="DS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV19" t="n">
+        <v>0.0001588454668867061</v>
+      </c>
+      <c r="DW19" t="n">
+        <v>0.003487901443258347</v>
+      </c>
+      <c r="DX19" t="n">
+        <v>0.002736881353873273</v>
+      </c>
+      <c r="DY19" t="n">
+        <v>3.828748579166717e-24</v>
+      </c>
+      <c r="DZ19" t="n">
+        <v>1.4224052089369e-16</v>
+      </c>
+      <c r="EA19" t="n">
+        <v>1.236446249918506e-09</v>
+      </c>
+      <c r="EB19" t="n">
+        <v>0.2446750837694027</v>
+      </c>
+      <c r="EC19" t="n">
+        <v>0.0001628171445304057</v>
+      </c>
+      <c r="ED19" t="n">
+        <v>0.00320294372865922</v>
+      </c>
+      <c r="EE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF19" t="n">
+        <v>0.008692849412377456</v>
+      </c>
+      <c r="EG19" t="n">
+        <v>53.74082520668782</v>
+      </c>
+      <c r="EH19" t="n">
+        <v>0.008042855727868536</v>
+      </c>
+      <c r="EI19" t="n">
+        <v>0.009955182980402707</v>
+      </c>
+      <c r="EJ19" t="n">
+        <v>0.009959878001103551</v>
+      </c>
+      <c r="EK19" t="n">
+        <v>0.9219845466380834</v>
+      </c>
+      <c r="EL19" t="n">
+        <v>6.37419715128079</v>
+      </c>
+      <c r="EM19" t="n">
+        <v>13.51314797622848</v>
+      </c>
+      <c r="EN19" t="n">
+        <v>6.00565393675774</v>
+      </c>
+      <c r="EO19" t="n">
+        <v>0.01446548707056223</v>
+      </c>
+      <c r="EP19" t="n">
+        <v>0.01512897485720153</v>
+      </c>
+      <c r="EQ19" t="n">
+        <v>0.002734653723359534</v>
+      </c>
+      <c r="ER19" t="n">
+        <v>0.01862035275425572</v>
+      </c>
+      <c r="ES19" t="n">
+        <v>1.256872920142467</v>
+      </c>
+      <c r="ET19" t="n">
+        <v>0.6586947754215473</v>
+      </c>
+      <c r="EU19" t="n">
+        <v>3.546015839508962</v>
+      </c>
+      <c r="EV19" t="n">
+        <v>0.3700794640938034</v>
+      </c>
+      <c r="EW19" t="n">
+        <v>9.056481492161373</v>
+      </c>
+      <c r="EX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY19" t="n">
+        <v>1.445406076042485</v>
+      </c>
+      <c r="EZ19" t="n">
+        <v>0.06517128707967104</v>
+      </c>
+      <c r="FA19" t="n">
+        <v>0.001163773087603906</v>
+      </c>
+      <c r="FB19" t="n">
+        <v>0.0256030064709994</v>
+      </c>
+      <c r="FC19" t="n">
+        <v>0.971750416660462</v>
+      </c>
+      <c r="FD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE19" t="n">
+        <v>1.119549645276403</v>
+      </c>
+      <c r="FF19" t="n">
+        <v>0.4096480661773333</v>
+      </c>
+      <c r="FG19" t="n">
+        <v>0.1757297116137925</v>
+      </c>
+      <c r="FH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>test001</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.949031315243213</v>
+      </c>
+      <c r="D20" t="n">
+        <v>45.48501267049082</v>
+      </c>
+      <c r="E20" t="n">
+        <v>36.26706226705576</v>
+      </c>
+      <c r="F20" t="n">
+        <v>6.028808183240109</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.264947606960406</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.09907689838115598</v>
+      </c>
+      <c r="I20" t="n">
+        <v>8.842444026739566</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.009736521748910328</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.003146849414325438</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>8.021480452962723e-05</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.05064559402341044</v>
+      </c>
+      <c r="O20" t="n">
+        <v>6.047901589144149e-06</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5.799497761925484e-08</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.76731229347066e-08</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.924116588095389e-07</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5.994045629384478e-07</v>
+      </c>
+      <c r="T20" t="n">
+        <v>8.844181399390118e-07</v>
+      </c>
+      <c r="U20" t="n">
+        <v>4.112931895697696e-08</v>
+      </c>
+      <c r="V20" t="n">
+        <v>8.513646381778153e-10</v>
+      </c>
+      <c r="W20" t="n">
+        <v>5.145984132231067e-12</v>
+      </c>
+      <c r="X20" t="n">
+        <v>7.876101326007752e-13</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>3.066479320814718e-13</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>6.959030345791465e-11</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>2.18446887253671e-11</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>4.817515844957163e-12</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>9.14976589524844e-12</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1.408979231040713e-12</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>9.903080761391095e-15</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>9.159418969357768e-16</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>8.784261846263085e-19</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>2.166344355615951e-17</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>4.67607297018444e-16</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>3.168776059775177e-19</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>9.114133445453726e-21</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>2.539347154944507e-25</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0.008628139219826062</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>1.411507786616054</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>5.536081126139415</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>5.345018905049058</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>3.876913507167838</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>0.6907430139408068</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>82.04917601530057</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>0.09675167069810216</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>0.03622224627144574</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>0.001110184781967136</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>0.9474793902407496</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>0.0001608893362977415</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>3.315065236596693e-06</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>1.584397066645355e-06</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>1.875403428955955e-05</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>6.784479527941309e-05</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>0.0001093986237215004</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>6.083008412004961e-06</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>1.192477256497791e-07</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>9.790972935131291e-10</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>1.120931916409676e-10</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>8.527946200483164e-11</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>1.531940327774956e-08</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>4.994471109525965e-09</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>1.919220574453545e-09</v>
+      </c>
+      <c r="BR20" t="n">
+        <v>1.983353865516502e-09</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>6.659063522844185e-10</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>6.482214684328936e-12</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>4.442115767280212e-13</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>6.755496369340251e-16</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>1.348440326071061e-14</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>3.774785470668798e-13</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>5.679523360455694e-16</v>
+      </c>
+      <c r="CB20" t="n">
+        <v>1.895506140809689e-17</v>
+      </c>
+      <c r="CC20" t="n">
+        <v>1.492867240211827e-21</v>
+      </c>
+      <c r="CD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG20" t="n">
+        <v>0.0003262807008626269</v>
+      </c>
+      <c r="CH20" t="n">
+        <v>0.02145093582654184</v>
+      </c>
+      <c r="CI20" t="n">
+        <v>0.04038876960386619</v>
+      </c>
+      <c r="CJ20" t="n">
+        <v>0.02673874601864605</v>
+      </c>
+      <c r="CK20" t="n">
+        <v>0.02811788288959527</v>
+      </c>
+      <c r="CL20" t="n">
+        <v>0.01873479871497395</v>
+      </c>
+      <c r="CM20" t="n">
+        <v>64.62902058878569</v>
+      </c>
+      <c r="CN20" t="n">
+        <v>0.02254011171876891</v>
+      </c>
+      <c r="CO20" t="n">
+        <v>0.04431998827486288</v>
+      </c>
+      <c r="CP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ20" t="n">
+        <v>0.01614759301634777</v>
+      </c>
+      <c r="CR20" t="n">
+        <v>35.09771408909287</v>
+      </c>
+      <c r="CS20" t="n">
+        <v>0.003623087968561365</v>
+      </c>
+      <c r="CT20" t="n">
+        <v>0.0002278351397899809</v>
+      </c>
+      <c r="CU20" t="n">
+        <v>0.0001378220281985006</v>
+      </c>
+      <c r="CV20" t="n">
+        <v>0.003669676300238011</v>
+      </c>
+      <c r="CW20" t="n">
+        <v>0.0159715991182336</v>
+      </c>
+      <c r="CX20" t="n">
+        <v>0.0277699287072388</v>
+      </c>
+      <c r="CY20" t="n">
+        <v>0.00301388040232264</v>
+      </c>
+      <c r="CZ20" t="n">
+        <v>2.580871916639795e-05</v>
+      </c>
+      <c r="DA20" t="n">
+        <v>1.074198547189991e-06</v>
+      </c>
+      <c r="DB20" t="n">
+        <v>1.17152292947572e-07</v>
+      </c>
+      <c r="DC20" t="n">
+        <v>2.124725766074492e-07</v>
+      </c>
+      <c r="DD20" t="n">
+        <v>2.766934291089971e-05</v>
+      </c>
+      <c r="DE20" t="n">
+        <v>1.037406852662468e-05</v>
+      </c>
+      <c r="DF20" t="n">
+        <v>9.98697726317479e-06</v>
+      </c>
+      <c r="DG20" t="n">
+        <v>4.595868411390397e-06</v>
+      </c>
+      <c r="DH20" t="n">
+        <v>6.370262435567035e-06</v>
+      </c>
+      <c r="DI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ20" t="n">
+        <v>1.495961235622463e-07</v>
+      </c>
+      <c r="DK20" t="n">
+        <v>8.396230286759368e-09</v>
+      </c>
+      <c r="DL20" t="n">
+        <v>2.664401061308574e-11</v>
+      </c>
+      <c r="DM20" t="n">
+        <v>5.329952204289584e-10</v>
+      </c>
+      <c r="DN20" t="n">
+        <v>1.783852345548506e-08</v>
+      </c>
+      <c r="DO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP20" t="n">
+        <v>2.248467642562081e-10</v>
+      </c>
+      <c r="DQ20" t="n">
+        <v>1.489622287649778e-11</v>
+      </c>
+      <c r="DR20" t="n">
+        <v>1.616030721222071e-14</v>
+      </c>
+      <c r="DS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV20" t="n">
+        <v>2.0209072734695e-06</v>
+      </c>
+      <c r="DW20" t="n">
+        <v>8.506293077653209e-05</v>
+      </c>
+      <c r="DX20" t="n">
+        <v>7.130039164146596e-05</v>
+      </c>
+      <c r="DY20" t="n">
+        <v>7.2462368863858e-24</v>
+      </c>
+      <c r="DZ20" t="n">
+        <v>2.129318878807577e-16</v>
+      </c>
+      <c r="EA20" t="n">
+        <v>1.482361528520193e-09</v>
+      </c>
+      <c r="EB20" t="n">
+        <v>0.2464486526788409</v>
+      </c>
+      <c r="EC20" t="n">
+        <v>0.0001612605768233368</v>
+      </c>
+      <c r="ED20" t="n">
+        <v>0.003353819275687964</v>
+      </c>
+      <c r="EE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF20" t="n">
+        <v>0.008642194722752721</v>
+      </c>
+      <c r="EG20" t="n">
+        <v>51.18248981770804</v>
+      </c>
+      <c r="EH20" t="n">
+        <v>0.007873457997187602</v>
+      </c>
+      <c r="EI20" t="n">
+        <v>0.01045908635090209</v>
+      </c>
+      <c r="EJ20" t="n">
+        <v>0.01048561329765393</v>
+      </c>
+      <c r="EK20" t="n">
+        <v>0.9727849731168853</v>
+      </c>
+      <c r="EL20" t="n">
+        <v>6.727467732016917</v>
+      </c>
+      <c r="EM20" t="n">
+        <v>14.26343541750976</v>
+      </c>
+      <c r="EN20" t="n">
+        <v>6.341132843022272</v>
+      </c>
+      <c r="EO20" t="n">
+        <v>0.01526938057171671</v>
+      </c>
+      <c r="EP20" t="n">
+        <v>0.01597551364236424</v>
+      </c>
+      <c r="EQ20" t="n">
+        <v>0.002887687769775869</v>
+      </c>
+      <c r="ER20" t="n">
+        <v>0.01966249818560532</v>
+      </c>
+      <c r="ES20" t="n">
+        <v>1.32721475988199</v>
+      </c>
+      <c r="ET20" t="n">
+        <v>0.6955599124210008</v>
+      </c>
+      <c r="EU20" t="n">
+        <v>3.744486017564612</v>
+      </c>
+      <c r="EV20" t="n">
+        <v>0.3907920087447424</v>
+      </c>
+      <c r="EW20" t="n">
+        <v>9.563375912492548</v>
+      </c>
+      <c r="EX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY20" t="n">
+        <v>1.526306229974391</v>
+      </c>
+      <c r="EZ20" t="n">
+        <v>0.06881895899974594</v>
+      </c>
+      <c r="FA20" t="n">
+        <v>0.001228910091999755</v>
+      </c>
+      <c r="FB20" t="n">
+        <v>0.02703602048619893</v>
+      </c>
+      <c r="FC20" t="n">
+        <v>1.026139809090908</v>
+      </c>
+      <c r="FD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE20" t="n">
+        <v>1.182211439867205</v>
+      </c>
+      <c r="FF20" t="n">
+        <v>0.4325762883295416</v>
+      </c>
+      <c r="FG20" t="n">
+        <v>0.1855653978998846</v>
+      </c>
+      <c r="FH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>test001</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.967930648534469</v>
+      </c>
+      <c r="D21" t="n">
+        <v>45.22493308595445</v>
+      </c>
+      <c r="E21" t="n">
+        <v>35.65494410733773</v>
+      </c>
+      <c r="F21" t="n">
+        <v>6.483718029468506</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.458141320310365</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.1165298950573229</v>
+      </c>
+      <c r="I21" t="n">
+        <v>9.041955973997217</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.01125676371051936</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.003296067316543891</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.0001368331156731615</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.0371520576858879</v>
+      </c>
+      <c r="O21" t="n">
+        <v>4.702449677339878e-06</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.848917211795936e-08</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>8.703131843560182e-09</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5.522901026060147e-08</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.718749676532686e-07</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.491698360468457e-07</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.130062284436975e-08</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2.630762321327468e-10</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.444675660299892e-12</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2.31112904731863e-13</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>8.644914119095288e-14</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1.96229321050058e-11</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>6.16245740979119e-12</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1.300180942088321e-12</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>2.590035838035302e-12</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>3.864394486873737e-13</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>2.651342430140279e-15</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>2.513126827757018e-16</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>2.425611924973969e-19</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>6.108315899253738e-18</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>1.284428703548145e-16</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>8.543963098624137e-20</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>2.50149159534164e-21</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>6.92366937460025e-26</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0.01243736301330072</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>1.69017891419846</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>5.044162464000529</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>3.94508143772788</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>2.923642963075195</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>0.511899051626213</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>84.36413396427218</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>0.07375473240965535</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>0.0400307511878393</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>0.002587384099995323</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>1.391852837996676</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>0.0001820664941257709</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>1.108158032577228e-06</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>5.072186698127154e-07</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>5.295727410730379e-06</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>1.841148674524215e-05</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>2.916939645518062e-05</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>1.537998149611231e-06</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>3.339001618358368e-08</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>2.467079349275808e-10</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>2.913188783834182e-11</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>2.052116928198167e-11</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>3.908316151397331e-09</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>1.217500670896363e-09</v>
+      </c>
+      <c r="BQ21" t="n">
+        <v>4.527913871404422e-10</v>
+      </c>
+      <c r="BR21" t="n">
+        <v>4.922235720664405e-10</v>
+      </c>
+      <c r="BS21" t="n">
+        <v>1.536788610847832e-10</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>1.408970008882448e-12</v>
+      </c>
+      <c r="BV21" t="n">
+        <v>9.89912744251369e-14</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>1.501764930167632e-16</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>3.105587171941163e-15</v>
+      </c>
+      <c r="BY21" t="n">
+        <v>8.577747243612674e-14</v>
+      </c>
+      <c r="BZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>1.216560451651004e-16</v>
+      </c>
+      <c r="CB21" t="n">
+        <v>4.08782136428993e-18</v>
+      </c>
+      <c r="CC21" t="n">
+        <v>3.011365370703566e-22</v>
+      </c>
+      <c r="CD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG21" t="n">
+        <v>0.0003070726047847028</v>
+      </c>
+      <c r="CH21" t="n">
+        <v>0.01992931464287028</v>
+      </c>
+      <c r="CI21" t="n">
+        <v>0.03696845589252436</v>
+      </c>
+      <c r="CJ21" t="n">
+        <v>0.024809013975886</v>
+      </c>
+      <c r="CK21" t="n">
+        <v>0.02715413769220232</v>
+      </c>
+      <c r="CL21" t="n">
+        <v>0.02192803075299003</v>
+      </c>
+      <c r="CM21" t="n">
+        <v>72.19145195995334</v>
+      </c>
+      <c r="CN21" t="n">
+        <v>0.02568695751735596</v>
+      </c>
+      <c r="CO21" t="n">
+        <v>0.04971234357609906</v>
+      </c>
+      <c r="CP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ21" t="n">
+        <v>0.01704696559856357</v>
+      </c>
+      <c r="CR21" t="n">
+        <v>27.55333660907782</v>
+      </c>
+      <c r="CS21" t="n">
+        <v>0.002703884271150188</v>
+      </c>
+      <c r="CT21" t="n">
+        <v>0.0001213139489243698</v>
+      </c>
+      <c r="CU21" t="n">
+        <v>7.425617481668359e-05</v>
+      </c>
+      <c r="CV21" t="n">
+        <v>0.00209086628045554</v>
+      </c>
+      <c r="CW21" t="n">
+        <v>0.009064045572628587</v>
+      </c>
+      <c r="CX21" t="n">
+        <v>0.0158679336364307</v>
+      </c>
+      <c r="CY21" t="n">
+        <v>0.001698654855163973</v>
+      </c>
+      <c r="CZ21" t="n">
+        <v>1.433506612450885e-05</v>
+      </c>
+      <c r="DA21" t="n">
+        <v>5.999758606157027e-07</v>
+      </c>
+      <c r="DB21" t="n">
+        <v>6.521827879632611e-08</v>
+      </c>
+      <c r="DC21" t="n">
+        <v>1.201839991154168e-07</v>
+      </c>
+      <c r="DD21" t="n">
+        <v>1.547936642378702e-05</v>
+      </c>
+      <c r="DE21" t="n">
+        <v>5.752854873861922e-06</v>
+      </c>
+      <c r="DF21" t="n">
+        <v>5.655300114940915e-06</v>
+      </c>
+      <c r="DG21" t="n">
+        <v>2.552625086022768e-06</v>
+      </c>
+      <c r="DH21" t="n">
+        <v>3.523726491253564e-06</v>
+      </c>
+      <c r="DI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ21" t="n">
+        <v>8.440869083974821e-08</v>
+      </c>
+      <c r="DK21" t="n">
+        <v>4.688098314357218e-09</v>
+      </c>
+      <c r="DL21" t="n">
+        <v>1.489351986457216e-11</v>
+      </c>
+      <c r="DM21" t="n">
+        <v>2.985801499828191e-10</v>
+      </c>
+      <c r="DN21" t="n">
+        <v>1.01118248227601e-08</v>
+      </c>
+      <c r="DO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP21" t="n">
+        <v>1.281506731103818e-10</v>
+      </c>
+      <c r="DQ21" t="n">
+        <v>8.472701696399653e-12</v>
+      </c>
+      <c r="DR21" t="n">
+        <v>9.156400564034075e-15</v>
+      </c>
+      <c r="DS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV21" t="n">
+        <v>8.192447173467515e-05</v>
+      </c>
+      <c r="DW21" t="n">
+        <v>0.001953846973685624</v>
+      </c>
+      <c r="DX21" t="n">
+        <v>0.001558067992735171</v>
+      </c>
+      <c r="DY21" t="n">
+        <v>4.335802620523699e-24</v>
+      </c>
+      <c r="DZ21" t="n">
+        <v>1.548019119291942e-16</v>
+      </c>
+      <c r="EA21" t="n">
+        <v>1.287475141630866e-09</v>
+      </c>
+      <c r="EB21" t="n">
+        <v>0.2482853670738039</v>
+      </c>
+      <c r="EC21" t="n">
+        <v>0.000165738966539258</v>
+      </c>
+      <c r="ED21" t="n">
+        <v>0.003250535015550085</v>
+      </c>
+      <c r="EE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF21" t="n">
+        <v>0.008689446327514524</v>
+      </c>
+      <c r="EG21" t="n">
+        <v>52.69666359254325</v>
+      </c>
+      <c r="EH21" t="n">
+        <v>0.007983521895055749</v>
+      </c>
+      <c r="EI21" t="n">
+        <v>0.01016491708615665</v>
+      </c>
+      <c r="EJ21" t="n">
+        <v>0.01017666416546497</v>
+      </c>
+      <c r="EK21" t="n">
+        <v>0.9427188135387583</v>
+      </c>
+      <c r="EL21" t="n">
+        <v>6.518202567014577</v>
+      </c>
+      <c r="EM21" t="n">
+        <v>13.81885138680927</v>
+      </c>
+      <c r="EN21" t="n">
+        <v>6.142157914260829</v>
+      </c>
+      <c r="EO21" t="n">
+        <v>0.01479298633902417</v>
+      </c>
+      <c r="EP21" t="n">
+        <v>0.01547328589754967</v>
+      </c>
+      <c r="EQ21" t="n">
+        <v>0.002796895194705413</v>
+      </c>
+      <c r="ER21" t="n">
+        <v>0.01904419910715362</v>
+      </c>
+      <c r="ES21" t="n">
+        <v>1.285481532614667</v>
+      </c>
+      <c r="ET21" t="n">
+        <v>0.6736880544433502</v>
+      </c>
+      <c r="EU21" t="n">
+        <v>3.626733863603018</v>
+      </c>
+      <c r="EV21" t="n">
+        <v>0.3785033641689615</v>
+      </c>
+      <c r="EW21" t="n">
+        <v>9.262634899850477</v>
+      </c>
+      <c r="EX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY21" t="n">
+        <v>1.478308145608331</v>
+      </c>
+      <c r="EZ21" t="n">
+        <v>0.06665479421080339</v>
+      </c>
+      <c r="FA21" t="n">
+        <v>0.001190264288742373</v>
+      </c>
+      <c r="FB21" t="n">
+        <v>0.02618581286289593</v>
+      </c>
+      <c r="FC21" t="n">
+        <v>0.9938705670732397</v>
+      </c>
+      <c r="FD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE21" t="n">
+        <v>1.145034179292032</v>
+      </c>
+      <c r="FF21" t="n">
+        <v>0.418972967597275</v>
+      </c>
+      <c r="FG21" t="n">
+        <v>0.1797298824253985</v>
+      </c>
+      <c r="FH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>test001</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.969112469331717</v>
+      </c>
+      <c r="D22" t="n">
+        <v>45.37998992773949</v>
+      </c>
+      <c r="E22" t="n">
+        <v>35.78030232931943</v>
+      </c>
+      <c r="F22" t="n">
+        <v>6.364983543032571</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.428784710652999</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.105778317552716</v>
+      </c>
+      <c r="I22" t="n">
+        <v>8.915125438355938</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0105934198849922</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.003231111259771521</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.0001191088383473787</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.04197348212681036</v>
+      </c>
+      <c r="O22" t="n">
+        <v>5.128562479636632e-06</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3.495740279875224e-08</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.68034759665402e-08</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.089211217785472e-07</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3.375336498806066e-07</v>
+      </c>
+      <c r="T22" t="n">
+        <v>4.921723159756784e-07</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.239537829600897e-08</v>
+      </c>
+      <c r="V22" t="n">
+        <v>4.966970118351203e-10</v>
+      </c>
+      <c r="W22" t="n">
+        <v>2.851821495619283e-12</v>
+      </c>
+      <c r="X22" t="n">
+        <v>4.648359183016097e-13</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1.684413146046509e-13</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>3.866121054212692e-11</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1.216642722551963e-11</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>2.543675353073705e-12</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>5.095112278547977e-12</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>7.428513578700663e-13</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>5.077965676024767e-15</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>4.819567923893297e-16</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>4.712147279607439e-19</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>1.183726897840487e-17</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>2.471835671732227e-16</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>1.624437768966501e-19</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>4.788652164702837e-21</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>1.304786858159945e-25</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0.01135108737944897</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1.60310903356082</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>5.056217135709943</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>4.09990838651713</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>3.014695427288136</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>0.5316250767145442</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>84.28339207587206</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>0.07829701717185455</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>0.03951682414602796</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>0.002176655578529277</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>1.279460937659957</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>0.0001753281470516481</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>1.396570264943056e-06</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>6.454127007816793e-07</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>6.972028159927402e-06</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>2.456774816679952e-05</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>3.928294480286245e-05</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>2.096415290071369e-06</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>4.422987858770126e-08</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>3.361025573071402e-10</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>3.942525692804286e-11</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>2.850800316201461e-11</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>5.306638645369003e-09</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>1.673830276710182e-09</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>6.293406177173933e-10</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>6.733114189103124e-10</v>
+      </c>
+      <c r="BS22" t="n">
+        <v>2.158053762652541e-10</v>
+      </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>2.02143492624342e-12</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>1.410401454569495e-13</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>2.13394646817995e-16</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>4.352994315549598e-15</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>1.202137234528904e-13</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>1.738673891041963e-16</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>5.808883698876262e-18</v>
+      </c>
+      <c r="CC22" t="n">
+        <v>4.417024403034689e-22</v>
+      </c>
+      <c r="CD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG22" t="n">
+        <v>0.0003117804175753543</v>
+      </c>
+      <c r="CH22" t="n">
+        <v>0.02031857291234248</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>0.03777674492603266</v>
+      </c>
+      <c r="CJ22" t="n">
+        <v>0.0251027431709173</v>
+      </c>
+      <c r="CK22" t="n">
+        <v>0.0260933333028201</v>
+      </c>
+      <c r="CL22" t="n">
+        <v>0.02043402342905156</v>
+      </c>
+      <c r="CM22" t="n">
+        <v>66.88187341590627</v>
+      </c>
+      <c r="CN22" t="n">
+        <v>0.02360521239175783</v>
+      </c>
+      <c r="CO22" t="n">
+        <v>0.04605494874580252</v>
+      </c>
+      <c r="CP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ22" t="n">
+        <v>0.01618803036073874</v>
+      </c>
+      <c r="CR22" t="n">
+        <v>32.85768518025925</v>
+      </c>
+      <c r="CS22" t="n">
+        <v>0.003355006351158109</v>
+      </c>
+      <c r="CT22" t="n">
+        <v>0.0001945887025406689</v>
+      </c>
+      <c r="CU22" t="n">
+        <v>0.0001154320352425936</v>
+      </c>
+      <c r="CV22" t="n">
+        <v>0.002988784775588397</v>
+      </c>
+      <c r="CW22" t="n">
+        <v>0.01292851349495118</v>
+      </c>
+      <c r="CX22" t="n">
+        <v>0.02248993990930518</v>
+      </c>
+      <c r="CY22" t="n">
+        <v>0.002414644486245233</v>
+      </c>
+      <c r="CZ22" t="n">
+        <v>2.095098703146866e-05</v>
+      </c>
+      <c r="DA22" t="n">
+        <v>8.557507842988547e-07</v>
+      </c>
+      <c r="DB22" t="n">
+        <v>9.374523091960552e-08</v>
+      </c>
+      <c r="DC22" t="n">
+        <v>1.698092351256587e-07</v>
+      </c>
+      <c r="DD22" t="n">
+        <v>2.202695812105092e-05</v>
+      </c>
+      <c r="DE22" t="n">
+        <v>8.225974610778104e-06</v>
+      </c>
+      <c r="DF22" t="n">
+        <v>7.966526539632468e-06</v>
+      </c>
+      <c r="DG22" t="n">
+        <v>3.64110450506401e-06</v>
+      </c>
+      <c r="DH22" t="n">
+        <v>5.033073853577787e-06</v>
+      </c>
+      <c r="DI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ22" t="n">
+        <v>1.189958472717449e-07</v>
+      </c>
+      <c r="DK22" t="n">
+        <v>6.659257497734694e-09</v>
+      </c>
+      <c r="DL22" t="n">
+        <v>2.112923895024597e-11</v>
+      </c>
+      <c r="DM22" t="n">
+        <v>4.225207612551948e-10</v>
+      </c>
+      <c r="DN22" t="n">
+        <v>1.420234317213942e-08</v>
+      </c>
+      <c r="DO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP22" t="n">
+        <v>1.795367956057724e-10</v>
+      </c>
+      <c r="DQ22" t="n">
+        <v>1.187579535185969e-11</v>
+      </c>
+      <c r="DR22" t="n">
+        <v>1.287042861910318e-14</v>
+      </c>
+      <c r="DS22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV22" t="n">
+        <v>3.307542256092088e-05</v>
+      </c>
+      <c r="DW22" t="n">
+        <v>0.0009205326934553155</v>
+      </c>
+      <c r="DX22" t="n">
+        <v>0.0007364736660550514</v>
+      </c>
+      <c r="DY22" t="n">
+        <v>5.116365908915435e-24</v>
+      </c>
+      <c r="DZ22" t="n">
+        <v>1.72650449149071e-16</v>
+      </c>
+      <c r="EA22" t="n">
+        <v>1.359727553138031e-09</v>
+      </c>
+      <c r="EB22" t="n">
+        <v>0.2510248759785868</v>
+      </c>
+      <c r="EC22" t="n">
+        <v>0.0001671356617161763</v>
+      </c>
+      <c r="ED22" t="n">
+        <v>0.003313801813030013</v>
+      </c>
+      <c r="EE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF22" t="n">
+        <v>0.008755218366242287</v>
+      </c>
+      <c r="EG22" t="n">
+        <v>51.73744987068527</v>
+      </c>
+      <c r="EH22" t="n">
+        <v>0.007910899489691495</v>
+      </c>
+      <c r="EI22" t="n">
+        <v>0.01035015766710034</v>
+      </c>
+      <c r="EJ22" t="n">
+        <v>0.01037198073827065</v>
+      </c>
+      <c r="EK22" t="n">
+        <v>0.9617163480579384</v>
+      </c>
+      <c r="EL22" t="n">
+        <v>6.650314773435419</v>
+      </c>
+      <c r="EM22" t="n">
+        <v>14.09943835042395</v>
+      </c>
+      <c r="EN22" t="n">
+        <v>6.267598065089573</v>
+      </c>
+      <c r="EO22" t="n">
+        <v>0.01509354007441903</v>
+      </c>
+      <c r="EP22" t="n">
+        <v>0.01578979749808509</v>
+      </c>
+      <c r="EQ22" t="n">
+        <v>0.002854112470988078</v>
+      </c>
+      <c r="ER22" t="n">
+        <v>0.01943384189243238</v>
+      </c>
+      <c r="ES22" t="n">
+        <v>1.311781365147685</v>
+      </c>
+      <c r="ET22" t="n">
+        <v>0.6874714940613739</v>
+      </c>
+      <c r="EU22" t="n">
+        <v>3.700938973907189</v>
+      </c>
+      <c r="EV22" t="n">
+        <v>0.3862474895996048</v>
+      </c>
+      <c r="EW22" t="n">
+        <v>9.452156117398003</v>
+      </c>
+      <c r="EX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY22" t="n">
+        <v>1.508555560376956</v>
+      </c>
+      <c r="EZ22" t="n">
+        <v>0.06801860676422869</v>
+      </c>
+      <c r="FA22" t="n">
+        <v>0.00121461808651642</v>
+      </c>
+      <c r="FB22" t="n">
+        <v>0.02672159638344987</v>
+      </c>
+      <c r="FC22" t="n">
+        <v>1.01420598588149</v>
+      </c>
+      <c r="FD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE22" t="n">
+        <v>1.168462531390468</v>
+      </c>
+      <c r="FF22" t="n">
+        <v>0.427545503144349</v>
+      </c>
+      <c r="FG22" t="n">
+        <v>0.1834073053741844</v>
+      </c>
+      <c r="FH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI22" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/log/c620_wt_log.xlsx
+++ b/log/c620_wt_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FI22"/>
+  <dimension ref="A1:FI18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9732,2002 +9732,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>test001</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1.988828453616075</v>
-      </c>
-      <c r="D19" t="n">
-        <v>45.37659000995058</v>
-      </c>
-      <c r="E19" t="n">
-        <v>35.47090516272485</v>
-      </c>
-      <c r="F19" t="n">
-        <v>6.645815662618816</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1.619787947315332</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.09153606661213326</v>
-      </c>
-      <c r="I19" t="n">
-        <v>8.758875498880736</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.01030085707355653</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.003228092029219934</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.0001540493944924051</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0.03397356683166552</v>
-      </c>
-      <c r="O19" t="n">
-        <v>4.370258508706043e-06</v>
-      </c>
-      <c r="P19" t="n">
-        <v>9.883135021838104e-09</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>4.525446095367912e-09</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2.818562450559608e-08</v>
-      </c>
-      <c r="S19" t="n">
-        <v>8.759712688300777e-08</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.266329355655857e-07</v>
-      </c>
-      <c r="U19" t="n">
-        <v>5.716819710019968e-09</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.370616842913594e-10</v>
-      </c>
-      <c r="W19" t="n">
-        <v>7.236850550796869e-13</v>
-      </c>
-      <c r="X19" t="n">
-        <v>1.123489155667611e-13</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>4.359810496430044e-14</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>9.786729466370121e-12</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>3.075611425830902e-12</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>6.567087887649673e-13</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>1.29396938293186e-12</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>1.981595166312243e-13</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>1.367912456013997e-15</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>1.291905728925809e-16</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>1.215059876542396e-19</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>3.062629524607284e-18</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>6.506242493637874e-17</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>4.371235522660512e-20</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>1.262445185152963e-21</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>3.530181227028435e-26</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>0.01258320517983108</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>1.624823211900377</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>4.482819643501006</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>3.213879535906618</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>2.312123588369339</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>0.4101933055147992</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>86.37469785229369</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>0.06818607620494757</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>0.04227950740062811</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>0.003026501468628159</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>1.45516269978156</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>0.0001828922632983358</v>
-      </c>
-      <c r="BE19" t="n">
-        <v>8.69572721147406e-07</v>
-      </c>
-      <c r="BF19" t="n">
-        <v>3.946296402977804e-07</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>4.010750292049044e-06</v>
-      </c>
-      <c r="BH19" t="n">
-        <v>1.379891529653751e-05</v>
-      </c>
-      <c r="BI19" t="n">
-        <v>2.174224192302989e-05</v>
-      </c>
-      <c r="BJ19" t="n">
-        <v>1.134227692661889e-06</v>
-      </c>
-      <c r="BK19" t="n">
-        <v>2.510602046456158e-08</v>
-      </c>
-      <c r="BL19" t="n">
-        <v>1.80772480087018e-10</v>
-      </c>
-      <c r="BM19" t="n">
-        <v>2.143544817474562e-11</v>
-      </c>
-      <c r="BN19" t="n">
-        <v>1.486937037001783e-11</v>
-      </c>
-      <c r="BO19" t="n">
-        <v>2.867144046716096e-09</v>
-      </c>
-      <c r="BP19" t="n">
-        <v>8.87573919061137e-10</v>
-      </c>
-      <c r="BQ19" t="n">
-        <v>3.271796247912091e-10</v>
-      </c>
-      <c r="BR19" t="n">
-        <v>3.611329931596569e-10</v>
-      </c>
-      <c r="BS19" t="n">
-        <v>1.104541791291651e-10</v>
-      </c>
-      <c r="BT19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU19" t="n">
-        <v>9.973439763874942e-13</v>
-      </c>
-      <c r="BV19" t="n">
-        <v>7.018025910561634e-14</v>
-      </c>
-      <c r="BW19" t="n">
-        <v>1.065308947038067e-16</v>
-      </c>
-      <c r="BX19" t="n">
-        <v>2.226471548568013e-15</v>
-      </c>
-      <c r="BY19" t="n">
-        <v>6.168388968353845e-14</v>
-      </c>
-      <c r="BZ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA19" t="n">
-        <v>8.596472063859025e-17</v>
-      </c>
-      <c r="CB19" t="n">
-        <v>2.916088873935054e-18</v>
-      </c>
-      <c r="CC19" t="n">
-        <v>2.097098798590716e-22</v>
-      </c>
-      <c r="CD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG19" t="n">
-        <v>0.00029036040578223</v>
-      </c>
-      <c r="CH19" t="n">
-        <v>0.01881602778631512</v>
-      </c>
-      <c r="CI19" t="n">
-        <v>0.03503230973846744</v>
-      </c>
-      <c r="CJ19" t="n">
-        <v>0.02388355159643353</v>
-      </c>
-      <c r="CK19" t="n">
-        <v>0.02989520297470784</v>
-      </c>
-      <c r="CL19" t="n">
-        <v>0.02661110906375587</v>
-      </c>
-      <c r="CM19" t="n">
-        <v>79.07748903976804</v>
-      </c>
-      <c r="CN19" t="n">
-        <v>0.02798509024328746</v>
-      </c>
-      <c r="CO19" t="n">
-        <v>0.05460498784921867</v>
-      </c>
-      <c r="CP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ19" t="n">
-        <v>0.01811262926820192</v>
-      </c>
-      <c r="CR19" t="n">
-        <v>20.66851358820298</v>
-      </c>
-      <c r="CS19" t="n">
-        <v>0.001938438999388612</v>
-      </c>
-      <c r="CT19" t="n">
-        <v>6.015307981431901e-05</v>
-      </c>
-      <c r="CU19" t="n">
-        <v>3.861323100989348e-05</v>
-      </c>
-      <c r="CV19" t="n">
-        <v>0.001206781560401704</v>
-      </c>
-      <c r="CW19" t="n">
-        <v>0.005253568651004163</v>
-      </c>
-      <c r="CX19" t="n">
-        <v>0.009251867155644135</v>
-      </c>
-      <c r="CY19" t="n">
-        <v>0.0009889946059811316</v>
-      </c>
-      <c r="CZ19" t="n">
-        <v>8.060698333428413e-06</v>
-      </c>
-      <c r="DA19" t="n">
-        <v>3.475181679035168e-07</v>
-      </c>
-      <c r="DB19" t="n">
-        <v>3.742574413699432e-08</v>
-      </c>
-      <c r="DC19" t="n">
-        <v>6.99432942196808e-08</v>
-      </c>
-      <c r="DD19" t="n">
-        <v>8.976223873742481e-06</v>
-      </c>
-      <c r="DE19" t="n">
-        <v>3.326368042250553e-06</v>
-      </c>
-      <c r="DF19" t="n">
-        <v>3.297774775438372e-06</v>
-      </c>
-      <c r="DG19" t="n">
-        <v>1.480358324715147e-06</v>
-      </c>
-      <c r="DH19" t="n">
-        <v>2.031687572464671e-06</v>
-      </c>
-      <c r="DI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ19" t="n">
-        <v>4.896054357115008e-08</v>
-      </c>
-      <c r="DK19" t="n">
-        <v>2.703290966580217e-09</v>
-      </c>
-      <c r="DL19" t="n">
-        <v>8.584581182771309e-12</v>
-      </c>
-      <c r="DM19" t="n">
-        <v>1.732854958142003e-10</v>
-      </c>
-      <c r="DN19" t="n">
-        <v>5.896656458829712e-09</v>
-      </c>
-      <c r="DO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP19" t="n">
-        <v>7.416688462438875e-11</v>
-      </c>
-      <c r="DQ19" t="n">
-        <v>4.917593385816652e-12</v>
-      </c>
-      <c r="DR19" t="n">
-        <v>5.263144901226117e-15</v>
-      </c>
-      <c r="DS19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV19" t="n">
-        <v>0.0001588454668867061</v>
-      </c>
-      <c r="DW19" t="n">
-        <v>0.003487901443258347</v>
-      </c>
-      <c r="DX19" t="n">
-        <v>0.002736881353873273</v>
-      </c>
-      <c r="DY19" t="n">
-        <v>3.828748579166717e-24</v>
-      </c>
-      <c r="DZ19" t="n">
-        <v>1.4224052089369e-16</v>
-      </c>
-      <c r="EA19" t="n">
-        <v>1.236446249918506e-09</v>
-      </c>
-      <c r="EB19" t="n">
-        <v>0.2446750837694027</v>
-      </c>
-      <c r="EC19" t="n">
-        <v>0.0001628171445304057</v>
-      </c>
-      <c r="ED19" t="n">
-        <v>0.00320294372865922</v>
-      </c>
-      <c r="EE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF19" t="n">
-        <v>0.008692849412377456</v>
-      </c>
-      <c r="EG19" t="n">
-        <v>53.74082520668782</v>
-      </c>
-      <c r="EH19" t="n">
-        <v>0.008042855727868536</v>
-      </c>
-      <c r="EI19" t="n">
-        <v>0.009955182980402707</v>
-      </c>
-      <c r="EJ19" t="n">
-        <v>0.009959878001103551</v>
-      </c>
-      <c r="EK19" t="n">
-        <v>0.9219845466380834</v>
-      </c>
-      <c r="EL19" t="n">
-        <v>6.37419715128079</v>
-      </c>
-      <c r="EM19" t="n">
-        <v>13.51314797622848</v>
-      </c>
-      <c r="EN19" t="n">
-        <v>6.00565393675774</v>
-      </c>
-      <c r="EO19" t="n">
-        <v>0.01446548707056223</v>
-      </c>
-      <c r="EP19" t="n">
-        <v>0.01512897485720153</v>
-      </c>
-      <c r="EQ19" t="n">
-        <v>0.002734653723359534</v>
-      </c>
-      <c r="ER19" t="n">
-        <v>0.01862035275425572</v>
-      </c>
-      <c r="ES19" t="n">
-        <v>1.256872920142467</v>
-      </c>
-      <c r="ET19" t="n">
-        <v>0.6586947754215473</v>
-      </c>
-      <c r="EU19" t="n">
-        <v>3.546015839508962</v>
-      </c>
-      <c r="EV19" t="n">
-        <v>0.3700794640938034</v>
-      </c>
-      <c r="EW19" t="n">
-        <v>9.056481492161373</v>
-      </c>
-      <c r="EX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY19" t="n">
-        <v>1.445406076042485</v>
-      </c>
-      <c r="EZ19" t="n">
-        <v>0.06517128707967104</v>
-      </c>
-      <c r="FA19" t="n">
-        <v>0.001163773087603906</v>
-      </c>
-      <c r="FB19" t="n">
-        <v>0.0256030064709994</v>
-      </c>
-      <c r="FC19" t="n">
-        <v>0.971750416660462</v>
-      </c>
-      <c r="FD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE19" t="n">
-        <v>1.119549645276403</v>
-      </c>
-      <c r="FF19" t="n">
-        <v>0.4096480661773333</v>
-      </c>
-      <c r="FG19" t="n">
-        <v>0.1757297116137925</v>
-      </c>
-      <c r="FH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>test001</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.949031315243213</v>
-      </c>
-      <c r="D20" t="n">
-        <v>45.48501267049082</v>
-      </c>
-      <c r="E20" t="n">
-        <v>36.26706226705576</v>
-      </c>
-      <c r="F20" t="n">
-        <v>6.028808183240109</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1.264947606960406</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.09907689838115598</v>
-      </c>
-      <c r="I20" t="n">
-        <v>8.842444026739566</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.009736521748910328</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.003146849414325438</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>8.021480452962723e-05</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0.05064559402341044</v>
-      </c>
-      <c r="O20" t="n">
-        <v>6.047901589144149e-06</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5.799497761925484e-08</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.76731229347066e-08</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.924116588095389e-07</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5.994045629384478e-07</v>
-      </c>
-      <c r="T20" t="n">
-        <v>8.844181399390118e-07</v>
-      </c>
-      <c r="U20" t="n">
-        <v>4.112931895697696e-08</v>
-      </c>
-      <c r="V20" t="n">
-        <v>8.513646381778153e-10</v>
-      </c>
-      <c r="W20" t="n">
-        <v>5.145984132231067e-12</v>
-      </c>
-      <c r="X20" t="n">
-        <v>7.876101326007752e-13</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>3.066479320814718e-13</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>6.959030345791465e-11</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>2.18446887253671e-11</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>4.817515844957163e-12</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>9.14976589524844e-12</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>1.408979231040713e-12</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>9.903080761391095e-15</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>9.159418969357768e-16</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>8.784261846263085e-19</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>2.166344355615951e-17</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>4.67607297018444e-16</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>3.168776059775177e-19</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>9.114133445453726e-21</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>2.539347154944507e-25</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>0.008628139219826062</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>1.411507786616054</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>5.536081126139415</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>5.345018905049058</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>3.876913507167838</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>0.6907430139408068</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>82.04917601530057</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>0.09675167069810216</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>0.03622224627144574</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>0.001110184781967136</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>0.9474793902407496</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>0.0001608893362977415</v>
-      </c>
-      <c r="BE20" t="n">
-        <v>3.315065236596693e-06</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>1.584397066645355e-06</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>1.875403428955955e-05</v>
-      </c>
-      <c r="BH20" t="n">
-        <v>6.784479527941309e-05</v>
-      </c>
-      <c r="BI20" t="n">
-        <v>0.0001093986237215004</v>
-      </c>
-      <c r="BJ20" t="n">
-        <v>6.083008412004961e-06</v>
-      </c>
-      <c r="BK20" t="n">
-        <v>1.192477256497791e-07</v>
-      </c>
-      <c r="BL20" t="n">
-        <v>9.790972935131291e-10</v>
-      </c>
-      <c r="BM20" t="n">
-        <v>1.120931916409676e-10</v>
-      </c>
-      <c r="BN20" t="n">
-        <v>8.527946200483164e-11</v>
-      </c>
-      <c r="BO20" t="n">
-        <v>1.531940327774956e-08</v>
-      </c>
-      <c r="BP20" t="n">
-        <v>4.994471109525965e-09</v>
-      </c>
-      <c r="BQ20" t="n">
-        <v>1.919220574453545e-09</v>
-      </c>
-      <c r="BR20" t="n">
-        <v>1.983353865516502e-09</v>
-      </c>
-      <c r="BS20" t="n">
-        <v>6.659063522844185e-10</v>
-      </c>
-      <c r="BT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU20" t="n">
-        <v>6.482214684328936e-12</v>
-      </c>
-      <c r="BV20" t="n">
-        <v>4.442115767280212e-13</v>
-      </c>
-      <c r="BW20" t="n">
-        <v>6.755496369340251e-16</v>
-      </c>
-      <c r="BX20" t="n">
-        <v>1.348440326071061e-14</v>
-      </c>
-      <c r="BY20" t="n">
-        <v>3.774785470668798e-13</v>
-      </c>
-      <c r="BZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA20" t="n">
-        <v>5.679523360455694e-16</v>
-      </c>
-      <c r="CB20" t="n">
-        <v>1.895506140809689e-17</v>
-      </c>
-      <c r="CC20" t="n">
-        <v>1.492867240211827e-21</v>
-      </c>
-      <c r="CD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG20" t="n">
-        <v>0.0003262807008626269</v>
-      </c>
-      <c r="CH20" t="n">
-        <v>0.02145093582654184</v>
-      </c>
-      <c r="CI20" t="n">
-        <v>0.04038876960386619</v>
-      </c>
-      <c r="CJ20" t="n">
-        <v>0.02673874601864605</v>
-      </c>
-      <c r="CK20" t="n">
-        <v>0.02811788288959527</v>
-      </c>
-      <c r="CL20" t="n">
-        <v>0.01873479871497395</v>
-      </c>
-      <c r="CM20" t="n">
-        <v>64.62902058878569</v>
-      </c>
-      <c r="CN20" t="n">
-        <v>0.02254011171876891</v>
-      </c>
-      <c r="CO20" t="n">
-        <v>0.04431998827486288</v>
-      </c>
-      <c r="CP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ20" t="n">
-        <v>0.01614759301634777</v>
-      </c>
-      <c r="CR20" t="n">
-        <v>35.09771408909287</v>
-      </c>
-      <c r="CS20" t="n">
-        <v>0.003623087968561365</v>
-      </c>
-      <c r="CT20" t="n">
-        <v>0.0002278351397899809</v>
-      </c>
-      <c r="CU20" t="n">
-        <v>0.0001378220281985006</v>
-      </c>
-      <c r="CV20" t="n">
-        <v>0.003669676300238011</v>
-      </c>
-      <c r="CW20" t="n">
-        <v>0.0159715991182336</v>
-      </c>
-      <c r="CX20" t="n">
-        <v>0.0277699287072388</v>
-      </c>
-      <c r="CY20" t="n">
-        <v>0.00301388040232264</v>
-      </c>
-      <c r="CZ20" t="n">
-        <v>2.580871916639795e-05</v>
-      </c>
-      <c r="DA20" t="n">
-        <v>1.074198547189991e-06</v>
-      </c>
-      <c r="DB20" t="n">
-        <v>1.17152292947572e-07</v>
-      </c>
-      <c r="DC20" t="n">
-        <v>2.124725766074492e-07</v>
-      </c>
-      <c r="DD20" t="n">
-        <v>2.766934291089971e-05</v>
-      </c>
-      <c r="DE20" t="n">
-        <v>1.037406852662468e-05</v>
-      </c>
-      <c r="DF20" t="n">
-        <v>9.98697726317479e-06</v>
-      </c>
-      <c r="DG20" t="n">
-        <v>4.595868411390397e-06</v>
-      </c>
-      <c r="DH20" t="n">
-        <v>6.370262435567035e-06</v>
-      </c>
-      <c r="DI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ20" t="n">
-        <v>1.495961235622463e-07</v>
-      </c>
-      <c r="DK20" t="n">
-        <v>8.396230286759368e-09</v>
-      </c>
-      <c r="DL20" t="n">
-        <v>2.664401061308574e-11</v>
-      </c>
-      <c r="DM20" t="n">
-        <v>5.329952204289584e-10</v>
-      </c>
-      <c r="DN20" t="n">
-        <v>1.783852345548506e-08</v>
-      </c>
-      <c r="DO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP20" t="n">
-        <v>2.248467642562081e-10</v>
-      </c>
-      <c r="DQ20" t="n">
-        <v>1.489622287649778e-11</v>
-      </c>
-      <c r="DR20" t="n">
-        <v>1.616030721222071e-14</v>
-      </c>
-      <c r="DS20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV20" t="n">
-        <v>2.0209072734695e-06</v>
-      </c>
-      <c r="DW20" t="n">
-        <v>8.506293077653209e-05</v>
-      </c>
-      <c r="DX20" t="n">
-        <v>7.130039164146596e-05</v>
-      </c>
-      <c r="DY20" t="n">
-        <v>7.2462368863858e-24</v>
-      </c>
-      <c r="DZ20" t="n">
-        <v>2.129318878807577e-16</v>
-      </c>
-      <c r="EA20" t="n">
-        <v>1.482361528520193e-09</v>
-      </c>
-      <c r="EB20" t="n">
-        <v>0.2464486526788409</v>
-      </c>
-      <c r="EC20" t="n">
-        <v>0.0001612605768233368</v>
-      </c>
-      <c r="ED20" t="n">
-        <v>0.003353819275687964</v>
-      </c>
-      <c r="EE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF20" t="n">
-        <v>0.008642194722752721</v>
-      </c>
-      <c r="EG20" t="n">
-        <v>51.18248981770804</v>
-      </c>
-      <c r="EH20" t="n">
-        <v>0.007873457997187602</v>
-      </c>
-      <c r="EI20" t="n">
-        <v>0.01045908635090209</v>
-      </c>
-      <c r="EJ20" t="n">
-        <v>0.01048561329765393</v>
-      </c>
-      <c r="EK20" t="n">
-        <v>0.9727849731168853</v>
-      </c>
-      <c r="EL20" t="n">
-        <v>6.727467732016917</v>
-      </c>
-      <c r="EM20" t="n">
-        <v>14.26343541750976</v>
-      </c>
-      <c r="EN20" t="n">
-        <v>6.341132843022272</v>
-      </c>
-      <c r="EO20" t="n">
-        <v>0.01526938057171671</v>
-      </c>
-      <c r="EP20" t="n">
-        <v>0.01597551364236424</v>
-      </c>
-      <c r="EQ20" t="n">
-        <v>0.002887687769775869</v>
-      </c>
-      <c r="ER20" t="n">
-        <v>0.01966249818560532</v>
-      </c>
-      <c r="ES20" t="n">
-        <v>1.32721475988199</v>
-      </c>
-      <c r="ET20" t="n">
-        <v>0.6955599124210008</v>
-      </c>
-      <c r="EU20" t="n">
-        <v>3.744486017564612</v>
-      </c>
-      <c r="EV20" t="n">
-        <v>0.3907920087447424</v>
-      </c>
-      <c r="EW20" t="n">
-        <v>9.563375912492548</v>
-      </c>
-      <c r="EX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY20" t="n">
-        <v>1.526306229974391</v>
-      </c>
-      <c r="EZ20" t="n">
-        <v>0.06881895899974594</v>
-      </c>
-      <c r="FA20" t="n">
-        <v>0.001228910091999755</v>
-      </c>
-      <c r="FB20" t="n">
-        <v>0.02703602048619893</v>
-      </c>
-      <c r="FC20" t="n">
-        <v>1.026139809090908</v>
-      </c>
-      <c r="FD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE20" t="n">
-        <v>1.182211439867205</v>
-      </c>
-      <c r="FF20" t="n">
-        <v>0.4325762883295416</v>
-      </c>
-      <c r="FG20" t="n">
-        <v>0.1855653978998846</v>
-      </c>
-      <c r="FH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>test001</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.967930648534469</v>
-      </c>
-      <c r="D21" t="n">
-        <v>45.22493308595445</v>
-      </c>
-      <c r="E21" t="n">
-        <v>35.65494410733773</v>
-      </c>
-      <c r="F21" t="n">
-        <v>6.483718029468506</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1.458141320310365</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.1165298950573229</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9.041955973997217</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.01125676371051936</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.003296067316543891</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.0001368331156731615</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0.0371520576858879</v>
-      </c>
-      <c r="O21" t="n">
-        <v>4.702449677339878e-06</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.848917211795936e-08</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>8.703131843560182e-09</v>
-      </c>
-      <c r="R21" t="n">
-        <v>5.522901026060147e-08</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.718749676532686e-07</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.491698360468457e-07</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.130062284436975e-08</v>
-      </c>
-      <c r="V21" t="n">
-        <v>2.630762321327468e-10</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.444675660299892e-12</v>
-      </c>
-      <c r="X21" t="n">
-        <v>2.31112904731863e-13</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>8.644914119095288e-14</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>1.96229321050058e-11</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>6.16245740979119e-12</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>1.300180942088321e-12</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>2.590035838035302e-12</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>3.864394486873737e-13</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>2.651342430140279e-15</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>2.513126827757018e-16</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>2.425611924973969e-19</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>6.108315899253738e-18</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>1.284428703548145e-16</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>8.543963098624137e-20</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>2.50149159534164e-21</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>6.92366937460025e-26</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>0.01243736301330072</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>1.69017891419846</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>5.044162464000529</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>3.94508143772788</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>2.923642963075195</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>0.511899051626213</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>84.36413396427218</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>0.07375473240965535</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>0.0400307511878393</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>0.002587384099995323</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>1.391852837996676</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>0.0001820664941257709</v>
-      </c>
-      <c r="BE21" t="n">
-        <v>1.108158032577228e-06</v>
-      </c>
-      <c r="BF21" t="n">
-        <v>5.072186698127154e-07</v>
-      </c>
-      <c r="BG21" t="n">
-        <v>5.295727410730379e-06</v>
-      </c>
-      <c r="BH21" t="n">
-        <v>1.841148674524215e-05</v>
-      </c>
-      <c r="BI21" t="n">
-        <v>2.916939645518062e-05</v>
-      </c>
-      <c r="BJ21" t="n">
-        <v>1.537998149611231e-06</v>
-      </c>
-      <c r="BK21" t="n">
-        <v>3.339001618358368e-08</v>
-      </c>
-      <c r="BL21" t="n">
-        <v>2.467079349275808e-10</v>
-      </c>
-      <c r="BM21" t="n">
-        <v>2.913188783834182e-11</v>
-      </c>
-      <c r="BN21" t="n">
-        <v>2.052116928198167e-11</v>
-      </c>
-      <c r="BO21" t="n">
-        <v>3.908316151397331e-09</v>
-      </c>
-      <c r="BP21" t="n">
-        <v>1.217500670896363e-09</v>
-      </c>
-      <c r="BQ21" t="n">
-        <v>4.527913871404422e-10</v>
-      </c>
-      <c r="BR21" t="n">
-        <v>4.922235720664405e-10</v>
-      </c>
-      <c r="BS21" t="n">
-        <v>1.536788610847832e-10</v>
-      </c>
-      <c r="BT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU21" t="n">
-        <v>1.408970008882448e-12</v>
-      </c>
-      <c r="BV21" t="n">
-        <v>9.89912744251369e-14</v>
-      </c>
-      <c r="BW21" t="n">
-        <v>1.501764930167632e-16</v>
-      </c>
-      <c r="BX21" t="n">
-        <v>3.105587171941163e-15</v>
-      </c>
-      <c r="BY21" t="n">
-        <v>8.577747243612674e-14</v>
-      </c>
-      <c r="BZ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA21" t="n">
-        <v>1.216560451651004e-16</v>
-      </c>
-      <c r="CB21" t="n">
-        <v>4.08782136428993e-18</v>
-      </c>
-      <c r="CC21" t="n">
-        <v>3.011365370703566e-22</v>
-      </c>
-      <c r="CD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG21" t="n">
-        <v>0.0003070726047847028</v>
-      </c>
-      <c r="CH21" t="n">
-        <v>0.01992931464287028</v>
-      </c>
-      <c r="CI21" t="n">
-        <v>0.03696845589252436</v>
-      </c>
-      <c r="CJ21" t="n">
-        <v>0.024809013975886</v>
-      </c>
-      <c r="CK21" t="n">
-        <v>0.02715413769220232</v>
-      </c>
-      <c r="CL21" t="n">
-        <v>0.02192803075299003</v>
-      </c>
-      <c r="CM21" t="n">
-        <v>72.19145195995334</v>
-      </c>
-      <c r="CN21" t="n">
-        <v>0.02568695751735596</v>
-      </c>
-      <c r="CO21" t="n">
-        <v>0.04971234357609906</v>
-      </c>
-      <c r="CP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ21" t="n">
-        <v>0.01704696559856357</v>
-      </c>
-      <c r="CR21" t="n">
-        <v>27.55333660907782</v>
-      </c>
-      <c r="CS21" t="n">
-        <v>0.002703884271150188</v>
-      </c>
-      <c r="CT21" t="n">
-        <v>0.0001213139489243698</v>
-      </c>
-      <c r="CU21" t="n">
-        <v>7.425617481668359e-05</v>
-      </c>
-      <c r="CV21" t="n">
-        <v>0.00209086628045554</v>
-      </c>
-      <c r="CW21" t="n">
-        <v>0.009064045572628587</v>
-      </c>
-      <c r="CX21" t="n">
-        <v>0.0158679336364307</v>
-      </c>
-      <c r="CY21" t="n">
-        <v>0.001698654855163973</v>
-      </c>
-      <c r="CZ21" t="n">
-        <v>1.433506612450885e-05</v>
-      </c>
-      <c r="DA21" t="n">
-        <v>5.999758606157027e-07</v>
-      </c>
-      <c r="DB21" t="n">
-        <v>6.521827879632611e-08</v>
-      </c>
-      <c r="DC21" t="n">
-        <v>1.201839991154168e-07</v>
-      </c>
-      <c r="DD21" t="n">
-        <v>1.547936642378702e-05</v>
-      </c>
-      <c r="DE21" t="n">
-        <v>5.752854873861922e-06</v>
-      </c>
-      <c r="DF21" t="n">
-        <v>5.655300114940915e-06</v>
-      </c>
-      <c r="DG21" t="n">
-        <v>2.552625086022768e-06</v>
-      </c>
-      <c r="DH21" t="n">
-        <v>3.523726491253564e-06</v>
-      </c>
-      <c r="DI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ21" t="n">
-        <v>8.440869083974821e-08</v>
-      </c>
-      <c r="DK21" t="n">
-        <v>4.688098314357218e-09</v>
-      </c>
-      <c r="DL21" t="n">
-        <v>1.489351986457216e-11</v>
-      </c>
-      <c r="DM21" t="n">
-        <v>2.985801499828191e-10</v>
-      </c>
-      <c r="DN21" t="n">
-        <v>1.01118248227601e-08</v>
-      </c>
-      <c r="DO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP21" t="n">
-        <v>1.281506731103818e-10</v>
-      </c>
-      <c r="DQ21" t="n">
-        <v>8.472701696399653e-12</v>
-      </c>
-      <c r="DR21" t="n">
-        <v>9.156400564034075e-15</v>
-      </c>
-      <c r="DS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV21" t="n">
-        <v>8.192447173467515e-05</v>
-      </c>
-      <c r="DW21" t="n">
-        <v>0.001953846973685624</v>
-      </c>
-      <c r="DX21" t="n">
-        <v>0.001558067992735171</v>
-      </c>
-      <c r="DY21" t="n">
-        <v>4.335802620523699e-24</v>
-      </c>
-      <c r="DZ21" t="n">
-        <v>1.548019119291942e-16</v>
-      </c>
-      <c r="EA21" t="n">
-        <v>1.287475141630866e-09</v>
-      </c>
-      <c r="EB21" t="n">
-        <v>0.2482853670738039</v>
-      </c>
-      <c r="EC21" t="n">
-        <v>0.000165738966539258</v>
-      </c>
-      <c r="ED21" t="n">
-        <v>0.003250535015550085</v>
-      </c>
-      <c r="EE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF21" t="n">
-        <v>0.008689446327514524</v>
-      </c>
-      <c r="EG21" t="n">
-        <v>52.69666359254325</v>
-      </c>
-      <c r="EH21" t="n">
-        <v>0.007983521895055749</v>
-      </c>
-      <c r="EI21" t="n">
-        <v>0.01016491708615665</v>
-      </c>
-      <c r="EJ21" t="n">
-        <v>0.01017666416546497</v>
-      </c>
-      <c r="EK21" t="n">
-        <v>0.9427188135387583</v>
-      </c>
-      <c r="EL21" t="n">
-        <v>6.518202567014577</v>
-      </c>
-      <c r="EM21" t="n">
-        <v>13.81885138680927</v>
-      </c>
-      <c r="EN21" t="n">
-        <v>6.142157914260829</v>
-      </c>
-      <c r="EO21" t="n">
-        <v>0.01479298633902417</v>
-      </c>
-      <c r="EP21" t="n">
-        <v>0.01547328589754967</v>
-      </c>
-      <c r="EQ21" t="n">
-        <v>0.002796895194705413</v>
-      </c>
-      <c r="ER21" t="n">
-        <v>0.01904419910715362</v>
-      </c>
-      <c r="ES21" t="n">
-        <v>1.285481532614667</v>
-      </c>
-      <c r="ET21" t="n">
-        <v>0.6736880544433502</v>
-      </c>
-      <c r="EU21" t="n">
-        <v>3.626733863603018</v>
-      </c>
-      <c r="EV21" t="n">
-        <v>0.3785033641689615</v>
-      </c>
-      <c r="EW21" t="n">
-        <v>9.262634899850477</v>
-      </c>
-      <c r="EX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY21" t="n">
-        <v>1.478308145608331</v>
-      </c>
-      <c r="EZ21" t="n">
-        <v>0.06665479421080339</v>
-      </c>
-      <c r="FA21" t="n">
-        <v>0.001190264288742373</v>
-      </c>
-      <c r="FB21" t="n">
-        <v>0.02618581286289593</v>
-      </c>
-      <c r="FC21" t="n">
-        <v>0.9938705670732397</v>
-      </c>
-      <c r="FD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE21" t="n">
-        <v>1.145034179292032</v>
-      </c>
-      <c r="FF21" t="n">
-        <v>0.418972967597275</v>
-      </c>
-      <c r="FG21" t="n">
-        <v>0.1797298824253985</v>
-      </c>
-      <c r="FH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>test001</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.969112469331717</v>
-      </c>
-      <c r="D22" t="n">
-        <v>45.37998992773949</v>
-      </c>
-      <c r="E22" t="n">
-        <v>35.78030232931943</v>
-      </c>
-      <c r="F22" t="n">
-        <v>6.364983543032571</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1.428784710652999</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.105778317552716</v>
-      </c>
-      <c r="I22" t="n">
-        <v>8.915125438355938</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.0105934198849922</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.003231111259771521</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.0001191088383473787</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0.04197348212681036</v>
-      </c>
-      <c r="O22" t="n">
-        <v>5.128562479636632e-06</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3.495740279875224e-08</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.68034759665402e-08</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.089211217785472e-07</v>
-      </c>
-      <c r="S22" t="n">
-        <v>3.375336498806066e-07</v>
-      </c>
-      <c r="T22" t="n">
-        <v>4.921723159756784e-07</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.239537829600897e-08</v>
-      </c>
-      <c r="V22" t="n">
-        <v>4.966970118351203e-10</v>
-      </c>
-      <c r="W22" t="n">
-        <v>2.851821495619283e-12</v>
-      </c>
-      <c r="X22" t="n">
-        <v>4.648359183016097e-13</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>1.684413146046509e-13</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>3.866121054212692e-11</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>1.216642722551963e-11</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>2.543675353073705e-12</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>5.095112278547977e-12</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>7.428513578700663e-13</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>5.077965676024767e-15</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>4.819567923893297e-16</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>4.712147279607439e-19</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>1.183726897840487e-17</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>2.471835671732227e-16</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>1.624437768966501e-19</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>4.788652164702837e-21</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>1.304786858159945e-25</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>0.01135108737944897</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>1.60310903356082</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>5.056217135709943</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>4.09990838651713</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>3.014695427288136</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>0.5316250767145442</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>84.28339207587206</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>0.07829701717185455</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>0.03951682414602796</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>0.002176655578529277</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>1.279460937659957</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>0.0001753281470516481</v>
-      </c>
-      <c r="BE22" t="n">
-        <v>1.396570264943056e-06</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>6.454127007816793e-07</v>
-      </c>
-      <c r="BG22" t="n">
-        <v>6.972028159927402e-06</v>
-      </c>
-      <c r="BH22" t="n">
-        <v>2.456774816679952e-05</v>
-      </c>
-      <c r="BI22" t="n">
-        <v>3.928294480286245e-05</v>
-      </c>
-      <c r="BJ22" t="n">
-        <v>2.096415290071369e-06</v>
-      </c>
-      <c r="BK22" t="n">
-        <v>4.422987858770126e-08</v>
-      </c>
-      <c r="BL22" t="n">
-        <v>3.361025573071402e-10</v>
-      </c>
-      <c r="BM22" t="n">
-        <v>3.942525692804286e-11</v>
-      </c>
-      <c r="BN22" t="n">
-        <v>2.850800316201461e-11</v>
-      </c>
-      <c r="BO22" t="n">
-        <v>5.306638645369003e-09</v>
-      </c>
-      <c r="BP22" t="n">
-        <v>1.673830276710182e-09</v>
-      </c>
-      <c r="BQ22" t="n">
-        <v>6.293406177173933e-10</v>
-      </c>
-      <c r="BR22" t="n">
-        <v>6.733114189103124e-10</v>
-      </c>
-      <c r="BS22" t="n">
-        <v>2.158053762652541e-10</v>
-      </c>
-      <c r="BT22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU22" t="n">
-        <v>2.02143492624342e-12</v>
-      </c>
-      <c r="BV22" t="n">
-        <v>1.410401454569495e-13</v>
-      </c>
-      <c r="BW22" t="n">
-        <v>2.13394646817995e-16</v>
-      </c>
-      <c r="BX22" t="n">
-        <v>4.352994315549598e-15</v>
-      </c>
-      <c r="BY22" t="n">
-        <v>1.202137234528904e-13</v>
-      </c>
-      <c r="BZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA22" t="n">
-        <v>1.738673891041963e-16</v>
-      </c>
-      <c r="CB22" t="n">
-        <v>5.808883698876262e-18</v>
-      </c>
-      <c r="CC22" t="n">
-        <v>4.417024403034689e-22</v>
-      </c>
-      <c r="CD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG22" t="n">
-        <v>0.0003117804175753543</v>
-      </c>
-      <c r="CH22" t="n">
-        <v>0.02031857291234248</v>
-      </c>
-      <c r="CI22" t="n">
-        <v>0.03777674492603266</v>
-      </c>
-      <c r="CJ22" t="n">
-        <v>0.0251027431709173</v>
-      </c>
-      <c r="CK22" t="n">
-        <v>0.0260933333028201</v>
-      </c>
-      <c r="CL22" t="n">
-        <v>0.02043402342905156</v>
-      </c>
-      <c r="CM22" t="n">
-        <v>66.88187341590627</v>
-      </c>
-      <c r="CN22" t="n">
-        <v>0.02360521239175783</v>
-      </c>
-      <c r="CO22" t="n">
-        <v>0.04605494874580252</v>
-      </c>
-      <c r="CP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ22" t="n">
-        <v>0.01618803036073874</v>
-      </c>
-      <c r="CR22" t="n">
-        <v>32.85768518025925</v>
-      </c>
-      <c r="CS22" t="n">
-        <v>0.003355006351158109</v>
-      </c>
-      <c r="CT22" t="n">
-        <v>0.0001945887025406689</v>
-      </c>
-      <c r="CU22" t="n">
-        <v>0.0001154320352425936</v>
-      </c>
-      <c r="CV22" t="n">
-        <v>0.002988784775588397</v>
-      </c>
-      <c r="CW22" t="n">
-        <v>0.01292851349495118</v>
-      </c>
-      <c r="CX22" t="n">
-        <v>0.02248993990930518</v>
-      </c>
-      <c r="CY22" t="n">
-        <v>0.002414644486245233</v>
-      </c>
-      <c r="CZ22" t="n">
-        <v>2.095098703146866e-05</v>
-      </c>
-      <c r="DA22" t="n">
-        <v>8.557507842988547e-07</v>
-      </c>
-      <c r="DB22" t="n">
-        <v>9.374523091960552e-08</v>
-      </c>
-      <c r="DC22" t="n">
-        <v>1.698092351256587e-07</v>
-      </c>
-      <c r="DD22" t="n">
-        <v>2.202695812105092e-05</v>
-      </c>
-      <c r="DE22" t="n">
-        <v>8.225974610778104e-06</v>
-      </c>
-      <c r="DF22" t="n">
-        <v>7.966526539632468e-06</v>
-      </c>
-      <c r="DG22" t="n">
-        <v>3.64110450506401e-06</v>
-      </c>
-      <c r="DH22" t="n">
-        <v>5.033073853577787e-06</v>
-      </c>
-      <c r="DI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ22" t="n">
-        <v>1.189958472717449e-07</v>
-      </c>
-      <c r="DK22" t="n">
-        <v>6.659257497734694e-09</v>
-      </c>
-      <c r="DL22" t="n">
-        <v>2.112923895024597e-11</v>
-      </c>
-      <c r="DM22" t="n">
-        <v>4.225207612551948e-10</v>
-      </c>
-      <c r="DN22" t="n">
-        <v>1.420234317213942e-08</v>
-      </c>
-      <c r="DO22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP22" t="n">
-        <v>1.795367956057724e-10</v>
-      </c>
-      <c r="DQ22" t="n">
-        <v>1.187579535185969e-11</v>
-      </c>
-      <c r="DR22" t="n">
-        <v>1.287042861910318e-14</v>
-      </c>
-      <c r="DS22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV22" t="n">
-        <v>3.307542256092088e-05</v>
-      </c>
-      <c r="DW22" t="n">
-        <v>0.0009205326934553155</v>
-      </c>
-      <c r="DX22" t="n">
-        <v>0.0007364736660550514</v>
-      </c>
-      <c r="DY22" t="n">
-        <v>5.116365908915435e-24</v>
-      </c>
-      <c r="DZ22" t="n">
-        <v>1.72650449149071e-16</v>
-      </c>
-      <c r="EA22" t="n">
-        <v>1.359727553138031e-09</v>
-      </c>
-      <c r="EB22" t="n">
-        <v>0.2510248759785868</v>
-      </c>
-      <c r="EC22" t="n">
-        <v>0.0001671356617161763</v>
-      </c>
-      <c r="ED22" t="n">
-        <v>0.003313801813030013</v>
-      </c>
-      <c r="EE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF22" t="n">
-        <v>0.008755218366242287</v>
-      </c>
-      <c r="EG22" t="n">
-        <v>51.73744987068527</v>
-      </c>
-      <c r="EH22" t="n">
-        <v>0.007910899489691495</v>
-      </c>
-      <c r="EI22" t="n">
-        <v>0.01035015766710034</v>
-      </c>
-      <c r="EJ22" t="n">
-        <v>0.01037198073827065</v>
-      </c>
-      <c r="EK22" t="n">
-        <v>0.9617163480579384</v>
-      </c>
-      <c r="EL22" t="n">
-        <v>6.650314773435419</v>
-      </c>
-      <c r="EM22" t="n">
-        <v>14.09943835042395</v>
-      </c>
-      <c r="EN22" t="n">
-        <v>6.267598065089573</v>
-      </c>
-      <c r="EO22" t="n">
-        <v>0.01509354007441903</v>
-      </c>
-      <c r="EP22" t="n">
-        <v>0.01578979749808509</v>
-      </c>
-      <c r="EQ22" t="n">
-        <v>0.002854112470988078</v>
-      </c>
-      <c r="ER22" t="n">
-        <v>0.01943384189243238</v>
-      </c>
-      <c r="ES22" t="n">
-        <v>1.311781365147685</v>
-      </c>
-      <c r="ET22" t="n">
-        <v>0.6874714940613739</v>
-      </c>
-      <c r="EU22" t="n">
-        <v>3.700938973907189</v>
-      </c>
-      <c r="EV22" t="n">
-        <v>0.3862474895996048</v>
-      </c>
-      <c r="EW22" t="n">
-        <v>9.452156117398003</v>
-      </c>
-      <c r="EX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY22" t="n">
-        <v>1.508555560376956</v>
-      </c>
-      <c r="EZ22" t="n">
-        <v>0.06801860676422869</v>
-      </c>
-      <c r="FA22" t="n">
-        <v>0.00121461808651642</v>
-      </c>
-      <c r="FB22" t="n">
-        <v>0.02672159638344987</v>
-      </c>
-      <c r="FC22" t="n">
-        <v>1.01420598588149</v>
-      </c>
-      <c r="FD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE22" t="n">
-        <v>1.168462531390468</v>
-      </c>
-      <c r="FF22" t="n">
-        <v>0.427545503144349</v>
-      </c>
-      <c r="FG22" t="n">
-        <v>0.1834073053741844</v>
-      </c>
-      <c r="FH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI22" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
